--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,6 +743,6469 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-2.375543527695881</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C17">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-2.385465683386247</v>
+      </c>
+      <c r="G17">
+        <v>-0.002015878310053232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C18">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-2.396026020894794</v>
+      </c>
+      <c r="G18">
+        <v>-0.004669938438286891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C19">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-2.406586358403341</v>
+      </c>
+      <c r="G19">
+        <v>-0.007323998566520995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C20">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-2.41778487773007</v>
+      </c>
+      <c r="G20">
+        <v>-0.009978058694755099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C21">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>-2.428345215238617</v>
+      </c>
+      <c r="G21">
+        <v>-0.01327030064117141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C22">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>-2.438929757020724</v>
+      </c>
+      <c r="G22">
+        <v>-0.01592436076940507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C23">
+        <v>0.1272727272727273</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>-2.450128276347453</v>
+      </c>
+      <c r="G23">
+        <v>-0.01924080698938058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C24">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>-2.461964977492363</v>
+      </c>
+      <c r="G24">
+        <v>-0.02253304893579733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C25">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-2.473163496819093</v>
+      </c>
+      <c r="G25">
+        <v>-0.02646347270039473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C26">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-2.484258042273638</v>
+      </c>
+      <c r="G26">
+        <v>-0.02965174077462729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-2.496732925236731</v>
+      </c>
+      <c r="G27">
+        <v>-0.03422034635740689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C28">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>-2.508593830655201</v>
+      </c>
+      <c r="G28">
+        <v>-0.03817497439556394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C29">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>-2.521706895436475</v>
+      </c>
+      <c r="G29">
+        <v>-0.04338176179652509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C30">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>-2.528824838721446</v>
+      </c>
+      <c r="G30">
+        <v>-0.04259342770118302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C31">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-2.535922481738454</v>
+      </c>
+      <c r="G31">
+        <v>-0.04140413851744396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C32">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>-2.543060725291391</v>
+      </c>
+      <c r="G32">
+        <v>-0.04061580442210388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C33">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>-2.550919677949266</v>
+      </c>
+      <c r="G33">
+        <v>-0.04058877996763055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C34">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-2.558037621234238</v>
+      </c>
+      <c r="G34">
+        <v>-0.03980044587229092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C35">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>-2.565155564519211</v>
+      </c>
+      <c r="G35">
+        <v>-0.03901211177695019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C36">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-2.571872552715783</v>
+      </c>
+      <c r="G36">
+        <v>-0.03744216777277587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C37">
+        <v>0.3818181818181818</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>-2.580152760730023</v>
+      </c>
+      <c r="G37">
+        <v>-0.03741514331830298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-2.588032013655865</v>
+      </c>
+      <c r="G38">
+        <v>-0.03769935046496053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C39">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>-2.595149956940836</v>
+      </c>
+      <c r="G39">
+        <v>-0.03776204949775708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C40">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>-2.602648555046243</v>
+      </c>
+      <c r="G40">
+        <v>-0.03715462298034677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C41">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-2.61072901581798</v>
+      </c>
+      <c r="G41">
+        <v>-0.03618538130707649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C42">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-2.618227613923386</v>
+      </c>
+      <c r="G42">
+        <v>-0.03631228131509845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C43">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-2.626507821937627</v>
+      </c>
+      <c r="G43">
+        <v>-0.03749480497329527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C44">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>-2.633625765222599</v>
+      </c>
+      <c r="G44">
+        <v>-0.03670647087795498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C45">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-2.64074370850757</v>
+      </c>
+      <c r="G45">
+        <v>-0.03524655062901449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C46">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-2.648533237946143</v>
+      </c>
+      <c r="G46">
+        <v>-0.03580138884087258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C47">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>-2.656994353538314</v>
+      </c>
+      <c r="G47">
+        <v>-0.03501305474553162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C48">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>-2.664112296823286</v>
+      </c>
+      <c r="G48">
+        <v>-0.03489630680378963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>-2.671230240108258</v>
+      </c>
+      <c r="G49">
+        <v>-0.03477955886204853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C50">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-2.67901976954683</v>
+      </c>
+      <c r="G50">
+        <v>-0.03466281092030798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C51">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-2.686809298985401</v>
+      </c>
+      <c r="G51">
+        <v>-0.03454606297856599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C52">
+        <v>0.6545454545454545</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>-2.694598828423972</v>
+      </c>
+      <c r="G52">
+        <v>-0.034429315036824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C53">
+        <v>0.6727272727272727</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>-2.702388357862544</v>
+      </c>
+      <c r="G53">
+        <v>-0.03431256709508246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C54">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>-2.710177887301115</v>
+      </c>
+      <c r="G54">
+        <v>-0.03419581915334047</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C55">
+        <v>0.7090909090909091</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>-2.717020064487907</v>
+      </c>
+      <c r="G55">
+        <v>-0.03211524378713027</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C56">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-2.722845766502008</v>
+      </c>
+      <c r="G56">
+        <v>-0.03105114359360861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C57">
+        <v>0.7454545454545455</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>-2.728671468516111</v>
+      </c>
+      <c r="G57">
+        <v>-0.02897056822739752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C58">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>-2.734497170530214</v>
+      </c>
+      <c r="G58">
+        <v>-0.02688999286118776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C59">
+        <v>0.7818181818181819</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>-2.741339347717004</v>
+      </c>
+      <c r="G59">
+        <v>-0.02480941749497578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-2.747165049731108</v>
+      </c>
+      <c r="G60">
+        <v>-0.02272884212876564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C61">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>-2.75299075174521</v>
+      </c>
+      <c r="G61">
+        <v>-0.02166474193524498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C62">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>-2.758730554931998</v>
+      </c>
+      <c r="G62">
+        <v>-0.01949826774172031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C63">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>-2.764470358118785</v>
+      </c>
+      <c r="G63">
+        <v>-0.01733179354819497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C64">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>-2.770210161305574</v>
+      </c>
+      <c r="G64">
+        <v>-0.01516531935467053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C65">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>-2.775949964492363</v>
+      </c>
+      <c r="G65">
+        <v>-0.01299884516114613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C66">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>-2.781689767679152</v>
+      </c>
+      <c r="G66">
+        <v>-0.01083237096762213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C67">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>51</v>
+      </c>
+      <c r="F67">
+        <v>-2.78742957086594</v>
+      </c>
+      <c r="G67">
+        <v>-0.008665896774097709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C68">
+        <v>0.9454545454545454</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>-2.793169374052729</v>
+      </c>
+      <c r="G68">
+        <v>-0.006499422580573289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C69">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>53</v>
+      </c>
+      <c r="F69">
+        <v>-2.798909177239517</v>
+      </c>
+      <c r="G69">
+        <v>-0.004332948387048854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C70">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>-2.804648980426306</v>
+      </c>
+      <c r="G70">
+        <v>-0.002166474193523983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>55</v>
+      </c>
+      <c r="B71">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>-2.810388783613095</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>147</v>
+      </c>
+      <c r="B72">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>-2.539320329712258</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>147</v>
+      </c>
+      <c r="B73">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C73">
+        <v>0.006802721088435374</v>
+      </c>
+      <c r="D73">
+        <v>146</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-2.543032700888925</v>
+      </c>
+      <c r="G73">
+        <v>-0.000550298126869464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C74">
+        <v>0.01360544217687075</v>
+      </c>
+      <c r="D74">
+        <v>145</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-2.546745072065592</v>
+      </c>
+      <c r="G74">
+        <v>-0.001100596253739372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>147</v>
+      </c>
+      <c r="B75">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C75">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="D75">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-2.550457443242258</v>
+      </c>
+      <c r="G75">
+        <v>-0.001650894380607504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C76">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="D76">
+        <v>143</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>-2.554302443982148</v>
+      </c>
+      <c r="G76">
+        <v>-0.001732697507789371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>147</v>
+      </c>
+      <c r="B77">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C77">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="D77">
+        <v>142</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>-2.557446932962618</v>
+      </c>
+      <c r="G77">
+        <v>-0.00188098536840009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>147</v>
+      </c>
+      <c r="B78">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C78">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="D78">
+        <v>141</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>-2.561398079649489</v>
+      </c>
+      <c r="G78">
+        <v>-0.002563966273825269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>147</v>
+      </c>
+      <c r="B79">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C79">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D79">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>-2.564462959514552</v>
+      </c>
+      <c r="G79">
+        <v>-0.00300811845371296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>147</v>
+      </c>
+      <c r="B80">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C80">
+        <v>0.05442176870748299</v>
+      </c>
+      <c r="D80">
+        <v>139</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-2.568217629078655</v>
+      </c>
+      <c r="G80">
+        <v>-0.003186958291822695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>147</v>
+      </c>
+      <c r="B81">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C81">
+        <v>0.06122448979591837</v>
+      </c>
+      <c r="D81">
+        <v>138</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-2.571993847814866</v>
+      </c>
+      <c r="G81">
+        <v>-0.004214860654431885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C82">
+        <v>0.06802721088435375</v>
+      </c>
+      <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>-2.575944941286406</v>
+      </c>
+      <c r="G82">
+        <v>-0.005003881076174999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>147</v>
+      </c>
+      <c r="B83">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C83">
+        <v>0.07482993197278912</v>
+      </c>
+      <c r="D83">
+        <v>136</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>-2.577066717353968</v>
+      </c>
+      <c r="G83">
+        <v>-0.002963584093939264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>147</v>
+      </c>
+      <c r="B84">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C84">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="D84">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>-2.580537685782523</v>
+      </c>
+      <c r="G84">
+        <v>-0.003272479472697043</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>147</v>
+      </c>
+      <c r="B85">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C85">
+        <v>0.08843537414965986</v>
+      </c>
+      <c r="D85">
+        <v>134</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-2.585271580582129</v>
+      </c>
+      <c r="G85">
+        <v>-0.002959007560278337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>147</v>
+      </c>
+      <c r="B86">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C86">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D86">
+        <v>133</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>-2.589557503313164</v>
+      </c>
+      <c r="G86">
+        <v>-0.001262641145464372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>147</v>
+      </c>
+      <c r="B87">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C87">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="D87">
+        <v>132</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>-2.59231746558544</v>
+      </c>
+      <c r="G87">
+        <v>-0.00547337029226691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>147</v>
+      </c>
+      <c r="B88">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C88">
+        <v>0.108843537414966</v>
+      </c>
+      <c r="D88">
+        <v>131</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>-2.596199798816689</v>
+      </c>
+      <c r="G88">
+        <v>-0.003809912377221281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C89">
+        <v>0.1156462585034014</v>
+      </c>
+      <c r="D89">
+        <v>130</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-2.59809269295369</v>
+      </c>
+      <c r="G89">
+        <v>-0.003547447061045261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>147</v>
+      </c>
+      <c r="B90">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C90">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="D90">
+        <v>129</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-2.601009169872257</v>
+      </c>
+      <c r="G90">
+        <v>-0.004771525263647103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>147</v>
+      </c>
+      <c r="B91">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C91">
+        <v>0.1292517006802721</v>
+      </c>
+      <c r="D91">
+        <v>128</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>-2.607281810464737</v>
+      </c>
+      <c r="G91">
+        <v>-0.005653463586788199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>147</v>
+      </c>
+      <c r="B92">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C92">
+        <v>0.1360544217687075</v>
+      </c>
+      <c r="D92">
+        <v>127</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>-2.609373715234785</v>
+      </c>
+      <c r="G92">
+        <v>-0.003447998136714148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>147</v>
+      </c>
+      <c r="B93">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C93">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D93">
+        <v>126</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>-2.615048934699255</v>
+      </c>
+      <c r="G93">
+        <v>-0.009325070941252456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>147</v>
+      </c>
+      <c r="B94">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C94">
+        <v>0.1496598639455782</v>
+      </c>
+      <c r="D94">
+        <v>125</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-2.615278527298786</v>
+      </c>
+      <c r="G94">
+        <v>-0.005396769296260651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>147</v>
+      </c>
+      <c r="B95">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C95">
+        <v>0.1564625850340136</v>
+      </c>
+      <c r="D95">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>-2.617937359988277</v>
+      </c>
+      <c r="G95">
+        <v>-0.004661442103420121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>147</v>
+      </c>
+      <c r="B96">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C96">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="D96">
+        <v>123</v>
+      </c>
+      <c r="E96">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-2.622743816573075</v>
+      </c>
+      <c r="G96">
+        <v>-0.007533733665680664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>147</v>
+      </c>
+      <c r="B97">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C97">
+        <v>0.1700680272108843</v>
+      </c>
+      <c r="D97">
+        <v>122</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-2.625867239053745</v>
+      </c>
+      <c r="G97">
+        <v>-0.007396869331417921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>147</v>
+      </c>
+      <c r="B98">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C98">
+        <v>0.1768707482993197</v>
+      </c>
+      <c r="D98">
+        <v>121</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-2.630225669498868</v>
+      </c>
+      <c r="G98">
+        <v>-0.008204406740980108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>147</v>
+      </c>
+      <c r="B99">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C99">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="D99">
+        <v>120</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-2.636192814483304</v>
+      </c>
+      <c r="G99">
+        <v>-0.01008952128120955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>147</v>
+      </c>
+      <c r="B100">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C100">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="D100">
+        <v>119</v>
+      </c>
+      <c r="E100">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-2.638664181935619</v>
+      </c>
+      <c r="G100">
+        <v>-0.008437212648439107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>147</v>
+      </c>
+      <c r="B101">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C101">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="D101">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>-2.643410467078781</v>
+      </c>
+      <c r="G101">
+        <v>-0.008417054536686841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>147</v>
+      </c>
+      <c r="B102">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C102">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="D102">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-2.646360123212756</v>
+      </c>
+      <c r="G102">
+        <v>-0.009440728911893626</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>147</v>
+      </c>
+      <c r="B103">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C103">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="D103">
+        <v>116</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-2.652776383120813</v>
+      </c>
+      <c r="G103">
+        <v>-0.01109678664517233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>147</v>
+      </c>
+      <c r="B104">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C104">
+        <v>0.217687074829932</v>
+      </c>
+      <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>-2.654453940496378</v>
+      </c>
+      <c r="G104">
+        <v>-0.01198499941130748</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>147</v>
+      </c>
+      <c r="B105">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C105">
+        <v>0.2244897959183673</v>
+      </c>
+      <c r="D105">
+        <v>114</v>
+      </c>
+      <c r="E105">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-2.658391344765991</v>
+      </c>
+      <c r="G105">
+        <v>-0.01472260441042095</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>147</v>
+      </c>
+      <c r="B106">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C106">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="D106">
+        <v>113</v>
+      </c>
+      <c r="E106">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-2.66504422016841</v>
+      </c>
+      <c r="G106">
+        <v>-0.01603497726919301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>147</v>
+      </c>
+      <c r="B107">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C107">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="D107">
+        <v>112</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>-2.666999605656305</v>
+      </c>
+      <c r="G107">
+        <v>-0.01621364401858005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>147</v>
+      </c>
+      <c r="B108">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C108">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="D108">
+        <v>111</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-2.669927957671132</v>
+      </c>
+      <c r="G108">
+        <v>-0.01419786335000284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>147</v>
+      </c>
+      <c r="B109">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C109">
+        <v>0.2517006802721088</v>
+      </c>
+      <c r="D109">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-2.674426900268823</v>
+      </c>
+      <c r="G109">
+        <v>-0.01784316746426873</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>147</v>
+      </c>
+      <c r="B110">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C110">
+        <v>0.2585034013605442</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>-2.679779303700085</v>
+      </c>
+      <c r="G110">
+        <v>-0.02030019809552819</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C111">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="D111">
+        <v>108</v>
+      </c>
+      <c r="E111">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-2.682581950557269</v>
+      </c>
+      <c r="G111">
+        <v>-0.01981496336585153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>147</v>
+      </c>
+      <c r="B112">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C112">
+        <v>0.272108843537415</v>
+      </c>
+      <c r="D112">
+        <v>107</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-2.687095298254751</v>
+      </c>
+      <c r="G112">
+        <v>-0.02091719166331729</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>147</v>
+      </c>
+      <c r="B113">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C113">
+        <v>0.2789115646258503</v>
+      </c>
+      <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>-2.690959914435114</v>
+      </c>
+      <c r="G113">
+        <v>-0.0213432977002832</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>147</v>
+      </c>
+      <c r="B114">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C114">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D114">
+        <v>105</v>
+      </c>
+      <c r="E114">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>-2.697466546906881</v>
+      </c>
+      <c r="G114">
+        <v>-0.02533914910313451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>147</v>
+      </c>
+      <c r="B115">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C115">
+        <v>0.2925170068027211</v>
+      </c>
+      <c r="D115">
+        <v>104</v>
+      </c>
+      <c r="E115">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-2.699864885351935</v>
+      </c>
+      <c r="G115">
+        <v>-0.02457541449839162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>147</v>
+      </c>
+      <c r="B116">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C116">
+        <v>0.2993197278911565</v>
+      </c>
+      <c r="D116">
+        <v>103</v>
+      </c>
+      <c r="E116">
+        <v>44</v>
+      </c>
+      <c r="F116">
+        <v>-2.703658456704949</v>
+      </c>
+      <c r="G116">
+        <v>-0.0247615580349696</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>147</v>
+      </c>
+      <c r="B117">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C117">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>-2.708419710912076</v>
+      </c>
+      <c r="G117">
+        <v>-0.02669159820054245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C118">
+        <v>0.3129251700680272</v>
+      </c>
+      <c r="D118">
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>-2.713655066325754</v>
+      </c>
+      <c r="G118">
+        <v>-0.02755626580709936</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C119">
+        <v>0.3197278911564626</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>47</v>
+      </c>
+      <c r="F119">
+        <v>-2.717079593026897</v>
+      </c>
+      <c r="G119">
+        <v>-0.02840504366374064</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>147</v>
+      </c>
+      <c r="B120">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C120">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="D120">
+        <v>99</v>
+      </c>
+      <c r="E120">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-2.721300484831036</v>
+      </c>
+      <c r="G120">
+        <v>-0.02983829967579998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C121">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D121">
+        <v>98</v>
+      </c>
+      <c r="E121">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>-2.726249031946159</v>
+      </c>
+      <c r="G121">
+        <v>-0.03140567682270468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>147</v>
+      </c>
+      <c r="B122">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C122">
+        <v>0.3401360544217687</v>
+      </c>
+      <c r="D122">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>-2.729948963186767</v>
+      </c>
+      <c r="G122">
+        <v>-0.03221737025542892</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>147</v>
+      </c>
+      <c r="B123">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C123">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="D123">
+        <v>96</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>-2.734505302797807</v>
+      </c>
+      <c r="G123">
+        <v>-0.03370969925647094</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>147</v>
+      </c>
+      <c r="B124">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C124">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="D124">
+        <v>95</v>
+      </c>
+      <c r="E124">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-2.739150243881543</v>
+      </c>
+      <c r="G124">
+        <v>-0.03514288028980883</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>147</v>
+      </c>
+      <c r="B125">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C125">
+        <v>0.3605442176870748</v>
+      </c>
+      <c r="D125">
+        <v>94</v>
+      </c>
+      <c r="E125">
+        <v>53</v>
+      </c>
+      <c r="F125">
+        <v>-2.743984625205932</v>
+      </c>
+      <c r="G125">
+        <v>-0.03707442385441495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>147</v>
+      </c>
+      <c r="B126">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C126">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="D126">
+        <v>93</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-2.748422378933931</v>
+      </c>
+      <c r="G126">
+        <v>-0.03808983306563318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>147</v>
+      </c>
+      <c r="B127">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C127">
+        <v>0.3741496598639456</v>
+      </c>
+      <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>-2.753068356194635</v>
+      </c>
+      <c r="G127">
+        <v>-0.03983400874352316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C128">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D128">
+        <v>91</v>
+      </c>
+      <c r="E128">
+        <v>56</v>
+      </c>
+      <c r="F128">
+        <v>-2.755862409699353</v>
+      </c>
+      <c r="G128">
+        <v>-0.03946598919844346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>147</v>
+      </c>
+      <c r="B129">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C129">
+        <v>0.3877551020408163</v>
+      </c>
+      <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129">
+        <v>57</v>
+      </c>
+      <c r="F129">
+        <v>-2.75865646320407</v>
+      </c>
+      <c r="G129">
+        <v>-0.03909796965336354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>147</v>
+      </c>
+      <c r="B130">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C130">
+        <v>0.3945578231292517</v>
+      </c>
+      <c r="D130">
+        <v>89</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>-2.761450516708787</v>
+      </c>
+      <c r="G130">
+        <v>-0.03872995010828362</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>147</v>
+      </c>
+      <c r="B131">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C131">
+        <v>0.4013605442176871</v>
+      </c>
+      <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>59</v>
+      </c>
+      <c r="F131">
+        <v>-2.764244570213504</v>
+      </c>
+      <c r="G131">
+        <v>-0.03836193056320303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>147</v>
+      </c>
+      <c r="B132">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C132">
+        <v>0.4081632653061225</v>
+      </c>
+      <c r="D132">
+        <v>87</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>-2.767110941459025</v>
+      </c>
+      <c r="G132">
+        <v>-0.03799391101812355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>147</v>
+      </c>
+      <c r="B133">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C133">
+        <v>0.4149659863945578</v>
+      </c>
+      <c r="D133">
+        <v>86</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>-2.769904994963742</v>
+      </c>
+      <c r="G133">
+        <v>-0.0376982092138467</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C134">
+        <v>0.4217687074829932</v>
+      </c>
+      <c r="D134">
+        <v>85</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <v>-2.772771366209263</v>
+      </c>
+      <c r="G134">
+        <v>-0.03725787192796304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>147</v>
+      </c>
+      <c r="B135">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C135">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D135">
+        <v>84</v>
+      </c>
+      <c r="E135">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <v>-2.775637737454784</v>
+      </c>
+      <c r="G135">
+        <v>-0.03710680560529322</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C136">
+        <v>0.4353741496598639</v>
+      </c>
+      <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>-2.778431790959501</v>
+      </c>
+      <c r="G136">
+        <v>-0.0367387860602133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C137">
+        <v>0.4421768707482993</v>
+      </c>
+      <c r="D137">
+        <v>82</v>
+      </c>
+      <c r="E137">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-2.781370479945824</v>
+      </c>
+      <c r="G137">
+        <v>-0.03644308425593645</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C138">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="D138">
+        <v>81</v>
+      </c>
+      <c r="E138">
+        <v>66</v>
+      </c>
+      <c r="F138">
+        <v>-2.784330949867019</v>
+      </c>
+      <c r="G138">
+        <v>-0.03583777890008522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C139">
+        <v>0.4557823129251701</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>67</v>
+      </c>
+      <c r="F139">
+        <v>-2.786815399820163</v>
+      </c>
+      <c r="G139">
+        <v>-0.03563617577148293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C140">
+        <v>0.4625850340136055</v>
+      </c>
+      <c r="D140">
+        <v>79</v>
+      </c>
+      <c r="E140">
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <v>-2.790377912374468</v>
+      </c>
+      <c r="G140">
+        <v>-0.03510173980992559</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C141">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="D141">
+        <v>78</v>
+      </c>
+      <c r="E141">
+        <v>69</v>
+      </c>
+      <c r="F141">
+        <v>-2.792901307732519</v>
+      </c>
+      <c r="G141">
+        <v>-0.03539793758424459</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C142">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="D142">
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>-2.795291659009989</v>
+      </c>
+      <c r="G142">
+        <v>-0.03384059229229197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C143">
+        <v>0.4829931972789115</v>
+      </c>
+      <c r="D143">
+        <v>76</v>
+      </c>
+      <c r="E143">
+        <v>71</v>
+      </c>
+      <c r="F143">
+        <v>-2.798360987126205</v>
+      </c>
+      <c r="G143">
+        <v>-0.03453347087833536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C144">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>-2.801376610318165</v>
+      </c>
+      <c r="G144">
+        <v>-0.03438702102049884</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C145">
+        <v>0.4965986394557823</v>
+      </c>
+      <c r="D145">
+        <v>74</v>
+      </c>
+      <c r="E145">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-2.804204992762958</v>
+      </c>
+      <c r="G145">
+        <v>-0.03405333041549374</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C146">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="D146">
+        <v>73</v>
+      </c>
+      <c r="E146">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-2.80659996050526</v>
+      </c>
+      <c r="G146">
+        <v>-0.03211761682303038</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C147">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D147">
+        <v>72</v>
+      </c>
+      <c r="E147">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-2.809258565436277</v>
+      </c>
+      <c r="G147">
+        <v>-0.03213258204329383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C148">
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="D148">
+        <v>71</v>
+      </c>
+      <c r="E148">
+        <v>76</v>
+      </c>
+      <c r="F148">
+        <v>-2.811972562638795</v>
+      </c>
+      <c r="G148">
+        <v>-0.03185404470905451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C149">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D149">
+        <v>70</v>
+      </c>
+      <c r="E149">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-2.814161544685432</v>
+      </c>
+      <c r="G149">
+        <v>-0.03136159013877893</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C150">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="D150">
+        <v>69</v>
+      </c>
+      <c r="E150">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-2.81693905759439</v>
+      </c>
+      <c r="G150">
+        <v>-0.03056231422218847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C151">
+        <v>0.5374149659863946</v>
+      </c>
+      <c r="D151">
+        <v>68</v>
+      </c>
+      <c r="E151">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>-2.820693999010115</v>
+      </c>
+      <c r="G151">
+        <v>-0.03156989836386659</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C152">
+        <v>0.54421768707483</v>
+      </c>
+      <c r="D152">
+        <v>67</v>
+      </c>
+      <c r="E152">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-2.822751139241759</v>
+      </c>
+      <c r="G152">
+        <v>-0.030223202563463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C153">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="D153">
+        <v>66</v>
+      </c>
+      <c r="E153">
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <v>-2.825754594489467</v>
+      </c>
+      <c r="G153">
+        <v>-0.02988980356040938</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C154">
+        <v>0.5578231292517006</v>
+      </c>
+      <c r="D154">
+        <v>65</v>
+      </c>
+      <c r="E154">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-2.829566560798794</v>
+      </c>
+      <c r="G154">
+        <v>-0.02987817840199236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>147</v>
+      </c>
+      <c r="B155">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C155">
+        <v>0.564625850340136</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <v>-2.831463727638175</v>
+      </c>
+      <c r="G155">
+        <v>-0.02969133479273811</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>147</v>
+      </c>
+      <c r="B156">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C156">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D156">
+        <v>63</v>
+      </c>
+      <c r="E156">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-2.834074200256378</v>
+      </c>
+      <c r="G156">
+        <v>-0.02893259192091979</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>147</v>
+      </c>
+      <c r="B157">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C157">
+        <v>0.5782312925170068</v>
+      </c>
+      <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>-2.838740409643915</v>
+      </c>
+      <c r="G157">
+        <v>-0.02980068895780175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C158">
+        <v>0.5850340136054422</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158">
+        <v>86</v>
+      </c>
+      <c r="F158">
+        <v>-2.84030233869965</v>
+      </c>
+      <c r="G158">
+        <v>-0.02821978211214016</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>147</v>
+      </c>
+      <c r="B159">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C159">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>87</v>
+      </c>
+      <c r="F159">
+        <v>-2.843840665825966</v>
+      </c>
+      <c r="G159">
+        <v>-0.02769395474839409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="B160">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C160">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="D160">
+        <v>59</v>
+      </c>
+      <c r="E160">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-2.84710237686306</v>
+      </c>
+      <c r="G160">
+        <v>-0.0295196187686364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>147</v>
+      </c>
+      <c r="B161">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C161">
+        <v>0.6054421768707483</v>
+      </c>
+      <c r="D161">
+        <v>58</v>
+      </c>
+      <c r="E161">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-2.848784662700818</v>
+      </c>
+      <c r="G161">
+        <v>-0.02760213311917692</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C162">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D162">
+        <v>57</v>
+      </c>
+      <c r="E162">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-2.852442614950949</v>
+      </c>
+      <c r="G162">
+        <v>-0.02853571075693051</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>147</v>
+      </c>
+      <c r="B163">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C163">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="D163">
+        <v>56</v>
+      </c>
+      <c r="E163">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-2.855433043967098</v>
+      </c>
+      <c r="G163">
+        <v>-0.02757906707793756</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C164">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="D164">
+        <v>55</v>
+      </c>
+      <c r="E164">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>-2.858295229643089</v>
+      </c>
+      <c r="G164">
+        <v>-0.02806417934947614</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>147</v>
+      </c>
+      <c r="B165">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C165">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="D165">
+        <v>54</v>
+      </c>
+      <c r="E165">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-2.861792013128727</v>
+      </c>
+      <c r="G165">
+        <v>-0.02839888978531679</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>147</v>
+      </c>
+      <c r="B166">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C166">
+        <v>0.6394557823129252</v>
+      </c>
+      <c r="D166">
+        <v>53</v>
+      </c>
+      <c r="E166">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-2.864694593946648</v>
+      </c>
+      <c r="G166">
+        <v>-0.02813939755343986</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>147</v>
+      </c>
+      <c r="B167">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C167">
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
+        <v>-2.868418906452597</v>
+      </c>
+      <c r="G167">
+        <v>-0.02729935063086253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C168">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="D168">
+        <v>51</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>-2.870724391984059</v>
+      </c>
+      <c r="G168">
+        <v>-0.02707418549097607</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>147</v>
+      </c>
+      <c r="B169">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C169">
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169">
+        <v>97</v>
+      </c>
+      <c r="F169">
+        <v>-2.873119359726362</v>
+      </c>
+      <c r="G169">
+        <v>-0.02641834332919391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>147</v>
+      </c>
+      <c r="B170">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C170">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D170">
+        <v>49</v>
+      </c>
+      <c r="E170">
+        <v>98</v>
+      </c>
+      <c r="F170">
+        <v>-2.877119277725626</v>
+      </c>
+      <c r="G170">
+        <v>-0.02791578913322912</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>147</v>
+      </c>
+      <c r="B171">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C171">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="D171">
+        <v>48</v>
+      </c>
+      <c r="E171">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-2.879269940089717</v>
+      </c>
+      <c r="G171">
+        <v>-0.02690437844752203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>147</v>
+      </c>
+      <c r="B172">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C172">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="D172">
+        <v>47</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-2.882124387204312</v>
+      </c>
+      <c r="G172">
+        <v>-0.02640855516097051</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>147</v>
+      </c>
+      <c r="B173">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C173">
+        <v>0.6870748299319728</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+      <c r="E173">
+        <v>101</v>
+      </c>
+      <c r="F173">
+        <v>-2.885372679742209</v>
+      </c>
+      <c r="G173">
+        <v>-0.02659348978957943</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>147</v>
+      </c>
+      <c r="B174">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C174">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="D174">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <v>102</v>
+      </c>
+      <c r="F174">
+        <v>-2.888442007858425</v>
+      </c>
+      <c r="G174">
+        <v>-0.02650074485599763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>147</v>
+      </c>
+      <c r="B175">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C175">
+        <v>0.7006802721088435</v>
+      </c>
+      <c r="D175">
+        <v>44</v>
+      </c>
+      <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
+        <v>-2.891893257267018</v>
+      </c>
+      <c r="G175">
+        <v>-0.02649748213325698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>147</v>
+      </c>
+      <c r="B176">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C176">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="D176">
+        <v>43</v>
+      </c>
+      <c r="E176">
+        <v>104</v>
+      </c>
+      <c r="F176">
+        <v>-2.894670146301697</v>
+      </c>
+      <c r="G176">
+        <v>-0.02640473719967529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>147</v>
+      </c>
+      <c r="B177">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C177">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D177">
+        <v>42</v>
+      </c>
+      <c r="E177">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-2.897739474417913</v>
+      </c>
+      <c r="G177">
+        <v>-0.02640147447693364</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C178">
+        <v>0.7210884353741497</v>
+      </c>
+      <c r="D178">
+        <v>41</v>
+      </c>
+      <c r="E178">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-2.900443421837509</v>
+      </c>
+      <c r="G178">
+        <v>-0.02594334884673333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>147</v>
+      </c>
+      <c r="B179">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C179">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179">
+        <v>107</v>
+      </c>
+      <c r="F179">
+        <v>-2.903459999785567</v>
+      </c>
+      <c r="G179">
+        <v>-0.02548522321653346</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>147</v>
+      </c>
+      <c r="B180">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C180">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>108</v>
+      </c>
+      <c r="F180">
+        <v>-2.905851316676704</v>
+      </c>
+      <c r="G180">
+        <v>-0.02502709758633304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>147</v>
+      </c>
+      <c r="B181">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C181">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="D181">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-2.909180525153221</v>
+      </c>
+      <c r="G181">
+        <v>-0.02488160248459292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>147</v>
+      </c>
+      <c r="B182">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C182">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="D182">
+        <v>37</v>
+      </c>
+      <c r="E182">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-2.911571842044358</v>
+      </c>
+      <c r="G182">
+        <v>-0.02442347685439261</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>147</v>
+      </c>
+      <c r="B183">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C183">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
+        <v>-2.914588419992415</v>
+      </c>
+      <c r="G183">
+        <v>-0.02365272069573177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>147</v>
+      </c>
+      <c r="B184">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C184">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>112</v>
+      </c>
+      <c r="F184">
+        <v>-2.917604997940472</v>
+      </c>
+      <c r="G184">
+        <v>-0.0235072255939921</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>147</v>
+      </c>
+      <c r="B185">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C185">
+        <v>0.7687074829931972</v>
+      </c>
+      <c r="D185">
+        <v>34</v>
+      </c>
+      <c r="E185">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-2.920308945360069</v>
+      </c>
+      <c r="G185">
+        <v>-0.02367436102071163</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>147</v>
+      </c>
+      <c r="B186">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C186">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186">
+        <v>114</v>
+      </c>
+      <c r="F186">
+        <v>-2.923325523308127</v>
+      </c>
+      <c r="G186">
+        <v>-0.02290360486205156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>147</v>
+      </c>
+      <c r="B187">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C187">
+        <v>0.782312925170068</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-2.926029470727724</v>
+      </c>
+      <c r="G187">
+        <v>-0.0227581097603119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>147</v>
+      </c>
+      <c r="B188">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C188">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="D188">
+        <v>31</v>
+      </c>
+      <c r="E188">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-2.928733418147321</v>
+      </c>
+      <c r="G188">
+        <v>-0.02261261465857212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>147</v>
+      </c>
+      <c r="B189">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C189">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>117</v>
+      </c>
+      <c r="F189">
+        <v>-2.931749996095378</v>
+      </c>
+      <c r="G189">
+        <v>-0.02246711955683112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>147</v>
+      </c>
+      <c r="B190">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C190">
+        <v>0.8027210884353742</v>
+      </c>
+      <c r="D190">
+        <v>29</v>
+      </c>
+      <c r="E190">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>-2.934453943514975</v>
+      </c>
+      <c r="G190">
+        <v>-0.02164361323001263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>147</v>
+      </c>
+      <c r="B191">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C191">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D191">
+        <v>28</v>
+      </c>
+      <c r="E191">
+        <v>119</v>
+      </c>
+      <c r="F191">
+        <v>-2.937783151991494</v>
+      </c>
+      <c r="G191">
+        <v>-0.02217612935335217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>147</v>
+      </c>
+      <c r="B192">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C192">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="D192">
+        <v>27</v>
+      </c>
+      <c r="E192">
+        <v>120</v>
+      </c>
+      <c r="F192">
+        <v>-2.94017446888263</v>
+      </c>
+      <c r="G192">
+        <v>-0.02140537319469121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>147</v>
+      </c>
+      <c r="B193">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C193">
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="D193">
+        <v>26</v>
+      </c>
+      <c r="E193">
+        <v>121</v>
+      </c>
+      <c r="F193">
+        <v>-2.943191046830688</v>
+      </c>
+      <c r="G193">
+        <v>-0.02125987809295149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>147</v>
+      </c>
+      <c r="B194">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C194">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="D194">
+        <v>25</v>
+      </c>
+      <c r="E194">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-2.946207624778745</v>
+      </c>
+      <c r="G194">
+        <v>-0.02080175246275112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>147</v>
+      </c>
+      <c r="B195">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C195">
+        <v>0.8367346938775511</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>123</v>
+      </c>
+      <c r="F195">
+        <v>-2.948911572198342</v>
+      </c>
+      <c r="G195">
+        <v>-0.02065625736101101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>147</v>
+      </c>
+      <c r="B196">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C196">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="D196">
+        <v>23</v>
+      </c>
+      <c r="E196">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-2.9519281501464</v>
+      </c>
+      <c r="G196">
+        <v>-0.02051076225927173</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>147</v>
+      </c>
+      <c r="B197">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C197">
+        <v>0.8503401360544217</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-2.954944728094457</v>
+      </c>
+      <c r="G197">
+        <v>-0.02036526715753173</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>147</v>
+      </c>
+      <c r="B198">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C198">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D198">
+        <v>21</v>
+      </c>
+      <c r="E198">
+        <v>126</v>
+      </c>
+      <c r="F198">
+        <v>-2.957504726361625</v>
+      </c>
+      <c r="G198">
+        <v>-0.01929484325563313</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>147</v>
+      </c>
+      <c r="B199">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C199">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="D199">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-2.959596375509523</v>
+      </c>
+      <c r="G199">
+        <v>-0.01869276847300322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>147</v>
+      </c>
+      <c r="B200">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C200">
+        <v>0.8707482993197279</v>
+      </c>
+      <c r="D200">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-2.961688024657422</v>
+      </c>
+      <c r="G200">
+        <v>-0.01762234457110506</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>147</v>
+      </c>
+      <c r="B201">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C201">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-2.96424802292459</v>
+      </c>
+      <c r="G201">
+        <v>-0.01608357154993767</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>147</v>
+      </c>
+      <c r="B202">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C202">
+        <v>0.8843537414965986</v>
+      </c>
+      <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>130</v>
+      </c>
+      <c r="F202">
+        <v>-2.966209002518112</v>
+      </c>
+      <c r="G202">
+        <v>-0.0158191763321997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>147</v>
+      </c>
+      <c r="B203">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C203">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-2.968431321220387</v>
+      </c>
+      <c r="G203">
+        <v>-0.01474875243030155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>147</v>
+      </c>
+      <c r="B204">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C204">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="D204">
+        <v>15</v>
+      </c>
+      <c r="E204">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-2.971198329498071</v>
+      </c>
+      <c r="G204">
+        <v>-0.01401600809329573</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>147</v>
+      </c>
+      <c r="B205">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C205">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>133</v>
+      </c>
+      <c r="F205">
+        <v>-2.973289978645969</v>
+      </c>
+      <c r="G205">
+        <v>-0.01307625374577301</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>147</v>
+      </c>
+      <c r="B206">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C206">
+        <v>0.9115646258503401</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>-2.975381627793868</v>
+      </c>
+      <c r="G206">
+        <v>-0.01213806656213784</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>147</v>
+      </c>
+      <c r="B207">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C207">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>135</v>
+      </c>
+      <c r="F207">
+        <v>-2.97781095650666</v>
+      </c>
+      <c r="G207">
+        <v>-0.01161076507176054</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>147</v>
+      </c>
+      <c r="B208">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C208">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-2.980240285219451</v>
+      </c>
+      <c r="G208">
+        <v>-0.0108780207347543</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>147</v>
+      </c>
+      <c r="B209">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C209">
+        <v>0.9319727891156463</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>137</v>
+      </c>
+      <c r="F209">
+        <v>-2.982669613932242</v>
+      </c>
+      <c r="G209">
+        <v>-0.01014527639774848</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>147</v>
+      </c>
+      <c r="B210">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C210">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-2.984817159342265</v>
+      </c>
+      <c r="G210">
+        <v>-0.009130748757973622</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>147</v>
+      </c>
+      <c r="B211">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C211">
+        <v>0.9455782312925171</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-2.986964704752287</v>
+      </c>
+      <c r="G211">
+        <v>-0.008116221118198763</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>147</v>
+      </c>
+      <c r="B212">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C212">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212">
+        <v>-2.98911225016231</v>
+      </c>
+      <c r="G212">
+        <v>-0.007101693478424057</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>147</v>
+      </c>
+      <c r="B213">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C213">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>141</v>
+      </c>
+      <c r="F213">
+        <v>-2.991259795572332</v>
+      </c>
+      <c r="G213">
+        <v>-0.006087165838648753</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>147</v>
+      </c>
+      <c r="B214">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C214">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>-2.993407340982355</v>
+      </c>
+      <c r="G214">
+        <v>-0.005072638198874324</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>147</v>
+      </c>
+      <c r="B215">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C215">
+        <v>0.9727891156462585</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>143</v>
+      </c>
+      <c r="F215">
+        <v>-2.995554886392377</v>
+      </c>
+      <c r="G215">
+        <v>-0.004058110559099465</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>147</v>
+      </c>
+      <c r="B216">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C216">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-2.997702431802399</v>
+      </c>
+      <c r="G216">
+        <v>-0.003043582919324599</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>147</v>
+      </c>
+      <c r="B217">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C217">
+        <v>0.9863945578231292</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>145</v>
+      </c>
+      <c r="F217">
+        <v>-2.999849977212422</v>
+      </c>
+      <c r="G217">
+        <v>-0.002029055279549732</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>147</v>
+      </c>
+      <c r="B218">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C218">
+        <v>0.9931972789115646</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>146</v>
+      </c>
+      <c r="F218">
+        <v>-3.001997522622445</v>
+      </c>
+      <c r="G218">
+        <v>-0.001014527639774866</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>147</v>
+      </c>
+      <c r="B219">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-3.004145068032467</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>309</v>
+      </c>
+      <c r="B220">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>309</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>-2.631196380133129</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>309</v>
+      </c>
+      <c r="B221">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C221">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="D221">
+        <v>279</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-2.676080314494407</v>
+      </c>
+      <c r="G221">
+        <v>0.002661706618874771</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>309</v>
+      </c>
+      <c r="B222">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C222">
+        <v>0.1974110032362459</v>
+      </c>
+      <c r="D222">
+        <v>248</v>
+      </c>
+      <c r="E222">
+        <v>61</v>
+      </c>
+      <c r="F222">
+        <v>-2.726843925073194</v>
+      </c>
+      <c r="G222">
+        <v>-0.0005659709599350471</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>309</v>
+      </c>
+      <c r="B223">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C223">
+        <v>0.2977346278317152</v>
+      </c>
+      <c r="D223">
+        <v>217</v>
+      </c>
+      <c r="E223">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-2.783205203350857</v>
+      </c>
+      <c r="G223">
+        <v>-0.008607105083761057</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>309</v>
+      </c>
+      <c r="B224">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C224">
+        <v>0.3980582524271845</v>
+      </c>
+      <c r="D224">
+        <v>186</v>
+      </c>
+      <c r="E224">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-2.844497246594856</v>
+      </c>
+      <c r="G224">
+        <v>-0.021579004173923</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>309</v>
+      </c>
+      <c r="B225">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C225">
+        <v>0.4983818770226537</v>
+      </c>
+      <c r="D225">
+        <v>155</v>
+      </c>
+      <c r="E225">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-2.905499335333241</v>
+      </c>
+      <c r="G225">
+        <v>-0.03423473425477486</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>309</v>
+      </c>
+      <c r="B226">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C226">
+        <v>0.598705501618123</v>
+      </c>
+      <c r="D226">
+        <v>124</v>
+      </c>
+      <c r="E226">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-2.948945447768051</v>
+      </c>
+      <c r="G226">
+        <v>-0.02902146008214235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>309</v>
+      </c>
+      <c r="B227">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C227">
+        <v>0.6990291262135923</v>
+      </c>
+      <c r="D227">
+        <v>93</v>
+      </c>
+      <c r="E227">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-2.990854485006262</v>
+      </c>
+      <c r="G227">
+        <v>-0.0218338312233014</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>309</v>
+      </c>
+      <c r="B228">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C228">
+        <v>0.7993527508090615</v>
+      </c>
+      <c r="D228">
+        <v>62</v>
+      </c>
+      <c r="E228">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.035903088275535</v>
+      </c>
+      <c r="G228">
+        <v>-0.01969424981835199</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>309</v>
+      </c>
+      <c r="B229">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C229">
+        <v>0.8996763754045307</v>
+      </c>
+      <c r="D229">
+        <v>31</v>
+      </c>
+      <c r="E229">
+        <v>278</v>
+      </c>
+      <c r="F229">
+        <v>-3.078223882005334</v>
+      </c>
+      <c r="G229">
+        <v>-0.01370491881521763</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>309</v>
+      </c>
+      <c r="B230">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.112839107343953</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>561</v>
+      </c>
+      <c r="B231">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>561</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>-2.689721342252404</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>561</v>
+      </c>
+      <c r="B232">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C232">
+        <v>0.09982174688057041</v>
+      </c>
+      <c r="D232">
+        <v>505</v>
+      </c>
+      <c r="E232">
+        <v>56</v>
+      </c>
+      <c r="F232">
+        <v>-2.732690039291771</v>
+      </c>
+      <c r="G232">
+        <v>0.006766216553027338</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>561</v>
+      </c>
+      <c r="B233">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C233">
+        <v>0.1996434937611408</v>
+      </c>
+      <c r="D233">
+        <v>449</v>
+      </c>
+      <c r="E233">
+        <v>112</v>
+      </c>
+      <c r="F233">
+        <v>-2.780867096422787</v>
+      </c>
+      <c r="G233">
+        <v>0.007149872150302272</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>561</v>
+      </c>
+      <c r="B234">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C234">
+        <v>0.2994652406417112</v>
+      </c>
+      <c r="D234">
+        <v>393</v>
+      </c>
+      <c r="E234">
+        <v>168</v>
+      </c>
+      <c r="F234">
+        <v>-2.835126512701428</v>
+      </c>
+      <c r="G234">
+        <v>0.004260985750306645</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>561</v>
+      </c>
+      <c r="B235">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C235">
+        <v>0.3992869875222816</v>
+      </c>
+      <c r="D235">
+        <v>337</v>
+      </c>
+      <c r="E235">
+        <v>224</v>
+      </c>
+      <c r="F235">
+        <v>-2.892938673686599</v>
+      </c>
+      <c r="G235">
+        <v>-0.006267745300134298</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>561</v>
+      </c>
+      <c r="B236">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C236">
+        <v>0.499108734402852</v>
+      </c>
+      <c r="D236">
+        <v>281</v>
+      </c>
+      <c r="E236">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-2.957822217760278</v>
+      </c>
+      <c r="G236">
+        <v>-0.02222702944894772</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>561</v>
+      </c>
+      <c r="B237">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C237">
+        <v>0.5989304812834224</v>
+      </c>
+      <c r="D237">
+        <v>225</v>
+      </c>
+      <c r="E237">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.013393564914882</v>
+      </c>
+      <c r="G237">
+        <v>-0.02856768685908451</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>561</v>
+      </c>
+      <c r="B238">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C238">
+        <v>0.6987522281639929</v>
+      </c>
+      <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
+        <v>-3.057332808307637</v>
+      </c>
+      <c r="G238">
+        <v>-0.02291999178246606</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>561</v>
+      </c>
+      <c r="B239">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C239">
+        <v>0.7985739750445633</v>
+      </c>
+      <c r="D239">
+        <v>113</v>
+      </c>
+      <c r="E239">
+        <v>448</v>
+      </c>
+      <c r="F239">
+        <v>-3.099526626514445</v>
+      </c>
+      <c r="G239">
+        <v>-0.01662277897930009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>561</v>
+      </c>
+      <c r="B240">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C240">
+        <v>0.8983957219251337</v>
+      </c>
+      <c r="D240">
+        <v>57</v>
+      </c>
+      <c r="E240">
+        <v>504</v>
+      </c>
+      <c r="F240">
+        <v>-3.143979398426525</v>
+      </c>
+      <c r="G240">
+        <v>-0.01189934021018441</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>561</v>
+      </c>
+      <c r="B241">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.182077113376551</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>923</v>
+      </c>
+      <c r="B242">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>923</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>-2.73018641722108</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>923</v>
+      </c>
+      <c r="B243">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C243">
+        <v>0.09967497291440953</v>
+      </c>
+      <c r="D243">
+        <v>831</v>
+      </c>
+      <c r="E243">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-2.771663733916959</v>
+      </c>
+      <c r="G243">
+        <v>0.008715378368267412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>923</v>
+      </c>
+      <c r="B244">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C244">
+        <v>0.1993499458288191</v>
+      </c>
+      <c r="D244">
+        <v>739</v>
+      </c>
+      <c r="E244">
+        <v>184</v>
+      </c>
+      <c r="F244">
+        <v>-2.818325759489049</v>
+      </c>
+      <c r="G244">
+        <v>0.01201750427633241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>923</v>
+      </c>
+      <c r="B245">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C245">
+        <v>0.2990249187432286</v>
+      </c>
+      <c r="D245">
+        <v>647</v>
+      </c>
+      <c r="E245">
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <v>-2.869857237187238</v>
+      </c>
+      <c r="G245">
+        <v>0.009770751777637532</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>923</v>
+      </c>
+      <c r="B246">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C246">
+        <v>0.399783315276273</v>
+      </c>
+      <c r="D246">
+        <v>554</v>
+      </c>
+      <c r="E246">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-2.927700413057237</v>
+      </c>
+      <c r="G246">
+        <v>0.002282888125656468</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>923</v>
+      </c>
+      <c r="B247">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C247">
+        <v>0.4994582881906826</v>
+      </c>
+      <c r="D247">
+        <v>462</v>
+      </c>
+      <c r="E247">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-2.990235540260886</v>
+      </c>
+      <c r="G247">
+        <v>-0.009809487038388243</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>923</v>
+      </c>
+      <c r="B248">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C248">
+        <v>0.5991332611050921</v>
+      </c>
+      <c r="D248">
+        <v>370</v>
+      </c>
+      <c r="E248">
+        <v>553</v>
+      </c>
+      <c r="F248">
+        <v>-3.056958633984002</v>
+      </c>
+      <c r="G248">
+        <v>-0.02734761830524413</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>923</v>
+      </c>
+      <c r="B249">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C249">
+        <v>0.6998916576381365</v>
+      </c>
+      <c r="D249">
+        <v>277</v>
+      </c>
+      <c r="E249">
+        <v>646</v>
+      </c>
+      <c r="F249">
+        <v>-3.103763395536883</v>
+      </c>
+      <c r="G249">
+        <v>-0.02360961544038265</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>923</v>
+      </c>
+      <c r="B250">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C250">
+        <v>0.7995666305525461</v>
+      </c>
+      <c r="D250">
+        <v>185</v>
+      </c>
+      <c r="E250">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.146015966134337</v>
+      </c>
+      <c r="G250">
+        <v>-0.01581485505185931</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>923</v>
+      </c>
+      <c r="B251">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C251">
+        <v>0.8992416034669556</v>
+      </c>
+      <c r="D251">
+        <v>93</v>
+      </c>
+      <c r="E251">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.190886331694037</v>
+      </c>
+      <c r="G251">
+        <v>-0.01127978397129642</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>923</v>
+      </c>
+      <c r="B252">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
+        <v>-3.229949354610659</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>1415</v>
+      </c>
+      <c r="B253">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1415</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>-2.75980554892964</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>1415</v>
+      </c>
+      <c r="B254">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C254">
+        <v>0.09964664310954063</v>
+      </c>
+      <c r="D254">
+        <v>1274</v>
+      </c>
+      <c r="E254">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-2.800311056894068</v>
+      </c>
+      <c r="G254">
+        <v>0.01058073414629002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>1415</v>
+      </c>
+      <c r="B255">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C255">
+        <v>0.2</v>
+      </c>
+      <c r="D255">
+        <v>1132</v>
+      </c>
+      <c r="E255">
+        <v>283</v>
+      </c>
+      <c r="F255">
+        <v>-2.845596431045598</v>
+      </c>
+      <c r="G255">
+        <v>0.01524606679400797</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>1415</v>
+      </c>
+      <c r="B256">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C256">
+        <v>0.2996466431095406</v>
+      </c>
+      <c r="D256">
+        <v>991</v>
+      </c>
+      <c r="E256">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-2.895361196331858</v>
+      </c>
+      <c r="G256">
+        <v>0.0158212654522889</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>1415</v>
+      </c>
+      <c r="B257">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C257">
+        <v>0.4</v>
+      </c>
+      <c r="D257">
+        <v>849</v>
+      </c>
+      <c r="E257">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-2.951705169572449</v>
+      </c>
+      <c r="G257">
+        <v>0.01017427717712227</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>1415</v>
+      </c>
+      <c r="B258">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C258">
+        <v>0.4996466431095407</v>
+      </c>
+      <c r="D258">
+        <v>708</v>
+      </c>
+      <c r="E258">
+        <v>707</v>
+      </c>
+      <c r="F258">
+        <v>-3.012453865287165</v>
+      </c>
+      <c r="G258">
+        <v>-0.00023445459305238</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>1415</v>
+      </c>
+      <c r="B259">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C259">
+        <v>0.6</v>
+      </c>
+      <c r="D259">
+        <v>566</v>
+      </c>
+      <c r="E259">
+        <v>849</v>
+      </c>
+      <c r="F259">
+        <v>-3.079200479543161</v>
+      </c>
+      <c r="G259">
+        <v>-0.01628408388362379</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>1415</v>
+      </c>
+      <c r="B260">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C260">
+        <v>0.6996466431095406</v>
+      </c>
+      <c r="D260">
+        <v>425</v>
+      </c>
+      <c r="E260">
+        <v>990</v>
+      </c>
+      <c r="F260">
+        <v>-3.135398960223868</v>
+      </c>
+      <c r="G260">
+        <v>-0.02211379003659075</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>1415</v>
+      </c>
+      <c r="B261">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C261">
+        <v>0.8</v>
+      </c>
+      <c r="D261">
+        <v>283</v>
+      </c>
+      <c r="E261">
+        <v>1132</v>
+      </c>
+      <c r="F261">
+        <v>-3.18043087101094</v>
+      </c>
+      <c r="G261">
+        <v>-0.01598034786775493</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>1415</v>
+      </c>
+      <c r="B262">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C262">
+        <v>0.8996466431095407</v>
+      </c>
+      <c r="D262">
+        <v>142</v>
+      </c>
+      <c r="E262">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.223818964484592</v>
+      </c>
+      <c r="G262">
+        <v>-0.009525655970546942</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>1415</v>
+      </c>
+      <c r="B263">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.26499029347947</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>2057</v>
+      </c>
+      <c r="B264">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>2057</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>-2.782412269773912</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>2057</v>
+      </c>
+      <c r="B265">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C265">
+        <v>0.09965969859017987</v>
+      </c>
+      <c r="D265">
+        <v>1852</v>
+      </c>
+      <c r="E265">
+        <v>205</v>
+      </c>
+      <c r="F265">
+        <v>-2.821845172562998</v>
+      </c>
+      <c r="G265">
+        <v>0.01170554173700067</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>2057</v>
+      </c>
+      <c r="B266">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C266">
+        <v>0.1998055420515314</v>
+      </c>
+      <c r="D266">
+        <v>1646</v>
+      </c>
+      <c r="E266">
+        <v>411</v>
+      </c>
+      <c r="F266">
+        <v>-2.866527847088387</v>
+      </c>
+      <c r="G266">
+        <v>0.01845620837995821</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>2057</v>
+      </c>
+      <c r="B267">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C267">
+        <v>0.2999513855128829</v>
+      </c>
+      <c r="D267">
+        <v>1440</v>
+      </c>
+      <c r="E267">
+        <v>617</v>
+      </c>
+      <c r="F267">
+        <v>-2.91606031068144</v>
+      </c>
+      <c r="G267">
+        <v>0.01937000722939275</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>2057</v>
+      </c>
+      <c r="B268">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C268">
+        <v>0.3996110841030627</v>
+      </c>
+      <c r="D268">
+        <v>1235</v>
+      </c>
+      <c r="E268">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-2.970448448222173</v>
+      </c>
+      <c r="G268">
+        <v>0.01597952235226674</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>2057</v>
+      </c>
+      <c r="B269">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C269">
+        <v>0.4997569275644142</v>
+      </c>
+      <c r="D269">
+        <v>1029</v>
+      </c>
+      <c r="E269">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.03043623484528</v>
+      </c>
+      <c r="G269">
+        <v>0.006707989541238524</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>2057</v>
+      </c>
+      <c r="B270">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C270">
+        <v>0.5999027710257657</v>
+      </c>
+      <c r="D270">
+        <v>823</v>
+      </c>
+      <c r="E270">
+        <v>1234</v>
+      </c>
+      <c r="F270">
+        <v>-3.095344487542432</v>
+      </c>
+      <c r="G270">
+        <v>-0.007337527235406816</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>2057</v>
+      </c>
+      <c r="B271">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C271">
+        <v>0.6995624696159456</v>
+      </c>
+      <c r="D271">
+        <v>618</v>
+      </c>
+      <c r="E271">
+        <v>1439</v>
+      </c>
+      <c r="F271">
+        <v>-3.161489523063209</v>
+      </c>
+      <c r="G271">
+        <v>-0.0227614458400649</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>2057</v>
+      </c>
+      <c r="B272">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C272">
+        <v>0.7997083130772971</v>
+      </c>
+      <c r="D272">
+        <v>412</v>
+      </c>
+      <c r="E272">
+        <v>1645</v>
+      </c>
+      <c r="F272">
+        <v>-3.20744706904063</v>
+      </c>
+      <c r="G272">
+        <v>-0.01752625852510659</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>2057</v>
+      </c>
+      <c r="B273">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C273">
+        <v>0.8998541565386485</v>
+      </c>
+      <c r="D273">
+        <v>206</v>
+      </c>
+      <c r="E273">
+        <v>1851</v>
+      </c>
+      <c r="F273">
+        <v>-3.249471600103254</v>
+      </c>
+      <c r="G273">
+        <v>-0.00847975098763476</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>2057</v>
+      </c>
+      <c r="B274">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.291735193732447</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>2869</v>
+      </c>
+      <c r="B275">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>2869</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>-2.800227823166039</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>2869</v>
+      </c>
+      <c r="B276">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C276">
+        <v>0.09968630184733357</v>
+      </c>
+      <c r="D276">
+        <v>2583</v>
+      </c>
+      <c r="E276">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-2.839195022894593</v>
+      </c>
+      <c r="G276">
+        <v>0.01213041120418001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>2869</v>
+      </c>
+      <c r="B277">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C277">
+        <v>0.1997211571976298</v>
+      </c>
+      <c r="D277">
+        <v>2296</v>
+      </c>
+      <c r="E277">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-2.882955242324018</v>
+      </c>
+      <c r="G277">
+        <v>0.0196464656827775</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>2869</v>
+      </c>
+      <c r="B278">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C278">
+        <v>0.2997560125479261</v>
+      </c>
+      <c r="D278">
+        <v>2009</v>
+      </c>
+      <c r="E278">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-2.931545641979664</v>
+      </c>
+      <c r="G278">
+        <v>0.02233233993515293</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>2869</v>
+      </c>
+      <c r="B279">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C279">
+        <v>0.3997908678982224</v>
+      </c>
+      <c r="D279">
+        <v>1722</v>
+      </c>
+      <c r="E279">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-2.985082854426716</v>
+      </c>
+      <c r="G279">
+        <v>0.02020208205114926</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>2869</v>
+      </c>
+      <c r="B280">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C280">
+        <v>0.4998257232485186</v>
+      </c>
+      <c r="D280">
+        <v>1435</v>
+      </c>
+      <c r="E280">
+        <v>1434</v>
+      </c>
+      <c r="F280">
+        <v>-3.04443005386817</v>
+      </c>
+      <c r="G280">
+        <v>0.01236365785186733</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>2869</v>
+      </c>
+      <c r="B281">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C281">
+        <v>0.5998605785988149</v>
+      </c>
+      <c r="D281">
+        <v>1148</v>
+      </c>
+      <c r="E281">
+        <v>1721</v>
+      </c>
+      <c r="F281">
+        <v>-3.108692648957591</v>
+      </c>
+      <c r="G281">
+        <v>-0.0007235657470519019</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>2869</v>
+      </c>
+      <c r="B282">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C282">
+        <v>0.6998954339491111</v>
+      </c>
+      <c r="D282">
+        <v>861</v>
+      </c>
+      <c r="E282">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.17773863954288</v>
+      </c>
+      <c r="G282">
+        <v>-0.01875556199597317</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>2869</v>
+      </c>
+      <c r="B283">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C283">
+        <v>0.7999302892994075</v>
+      </c>
+      <c r="D283">
+        <v>574</v>
+      </c>
+      <c r="E283">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.227085026915871</v>
+      </c>
+      <c r="G283">
+        <v>-0.01681251891297131</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>2869</v>
+      </c>
+      <c r="B284">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C284">
+        <v>0.8999651446497037</v>
+      </c>
+      <c r="D284">
+        <v>287</v>
+      </c>
+      <c r="E284">
+        <v>2582</v>
+      </c>
+      <c r="F284">
+        <v>-3.269719687784309</v>
+      </c>
+      <c r="G284">
+        <v>-0.00818406242135733</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>2869</v>
+      </c>
+      <c r="B285">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.312811899270975</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>3871</v>
+      </c>
+      <c r="B286">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>3871</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>-2.814626610423942</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>3871</v>
+      </c>
+      <c r="B287">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C287">
+        <v>0.09997416688194265</v>
+      </c>
+      <c r="D287">
+        <v>3484</v>
+      </c>
+      <c r="E287">
+        <v>387</v>
+      </c>
+      <c r="F287">
+        <v>-2.852954856812285</v>
+      </c>
+      <c r="G287">
+        <v>0.01346532474685791</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>3871</v>
+      </c>
+      <c r="B288">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C288">
+        <v>0.1999483337638853</v>
+      </c>
+      <c r="D288">
+        <v>3097</v>
+      </c>
+      <c r="E288">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-2.896134593086469</v>
+      </c>
+      <c r="G288">
+        <v>0.02195663427740735</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>3871</v>
+      </c>
+      <c r="B289">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C289">
+        <v>0.2999225006458279</v>
+      </c>
+      <c r="D289">
+        <v>2710</v>
+      </c>
+      <c r="E289">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-2.944279295140333</v>
+      </c>
+      <c r="G289">
+        <v>0.02487332197734138</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>3871</v>
+      </c>
+      <c r="B290">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C290">
+        <v>0.3998966675277706</v>
+      </c>
+      <c r="D290">
+        <v>2323</v>
+      </c>
+      <c r="E290">
+        <v>1548</v>
+      </c>
+      <c r="F290">
+        <v>-2.997776369969771</v>
+      </c>
+      <c r="G290">
+        <v>0.02375693452071803</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>3871</v>
+      </c>
+      <c r="B291">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C291">
+        <v>0.4998708344097132</v>
+      </c>
+      <c r="D291">
+        <v>1936</v>
+      </c>
+      <c r="E291">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.055853520124033</v>
+      </c>
+      <c r="G291">
+        <v>0.01631643478946421</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>3871</v>
+      </c>
+      <c r="B292">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C292">
+        <v>0.5998450012916559</v>
+      </c>
+      <c r="D292">
+        <v>1549</v>
+      </c>
+      <c r="E292">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.119127469418492</v>
+      </c>
+      <c r="G292">
+        <v>0.004583922414351571</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>3871</v>
+      </c>
+      <c r="B293">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C293">
+        <v>0.6998191681735986</v>
+      </c>
+      <c r="D293">
+        <v>1162</v>
+      </c>
+      <c r="E293">
+        <v>2709</v>
+      </c>
+      <c r="F293">
+        <v>-3.187519640620476</v>
+      </c>
+      <c r="G293">
+        <v>-0.0121539716443787</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>3871</v>
+      </c>
+      <c r="B294">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C294">
+        <v>0.7997933350555412</v>
+      </c>
+      <c r="D294">
+        <v>775</v>
+      </c>
+      <c r="E294">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.242431344504606</v>
+      </c>
+      <c r="G294">
+        <v>-0.01573538289737619</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>3871</v>
+      </c>
+      <c r="B295">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C295">
+        <v>0.8997675019374839</v>
+      </c>
+      <c r="D295">
+        <v>388</v>
+      </c>
+      <c r="E295">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.286113689941419</v>
+      </c>
+      <c r="G295">
+        <v>-0.007909059436278898</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>3871</v>
+      </c>
+      <c r="B296">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.329846396738705</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.450128276347453</v>
+        <v>-2.450766458165634</v>
       </c>
       <c r="G23">
         <v>-0.01924080698938058</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.543060725291391</v>
+        <v>-2.54342107984386</v>
       </c>
       <c r="G32">
         <v>-0.04061580442210388</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.571872552715783</v>
+        <v>-2.573160006435271</v>
       </c>
       <c r="G36">
         <v>-0.03744216777277587</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.734497170530214</v>
+        <v>-2.735513645702903</v>
       </c>
       <c r="G58">
         <v>-0.02688999286118776</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.568217629078655</v>
+        <v>-2.5682814766382</v>
       </c>
       <c r="G80">
         <v>-0.003186958291822695</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.577066717353968</v>
+        <v>-2.578553072561719</v>
       </c>
       <c r="G83">
         <v>-0.002963584093939264</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.580537685782523</v>
+        <v>-2.582000131396608</v>
       </c>
       <c r="G84">
         <v>-0.003272479472697043</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.601009169872257</v>
+        <v>-2.60209153063384</v>
       </c>
       <c r="G90">
         <v>-0.004771525263647103</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.617937359988277</v>
+        <v>-2.618653633303555</v>
       </c>
       <c r="G95">
         <v>-0.004661442103420121</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.630225669498868</v>
+        <v>-2.632088951947837</v>
       </c>
       <c r="G98">
         <v>-0.008204406740980108</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.654453940496378</v>
+        <v>-2.657447302529319</v>
       </c>
       <c r="G104">
         <v>-0.01198499941130748</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.669927957671132</v>
+        <v>-2.672039786940533</v>
       </c>
       <c r="G108">
         <v>-0.01419786335000284</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.703658456704949</v>
+        <v>-2.70486634348958</v>
       </c>
       <c r="G116">
         <v>-0.0247615580349696</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.708419710912076</v>
+        <v>-2.708556430599944</v>
       </c>
       <c r="G117">
         <v>-0.02669159820054245</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.814161544685432</v>
+        <v>-2.814345749446227</v>
       </c>
       <c r="G149">
         <v>-0.03136159013877893</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.822751139241759</v>
+        <v>-2.822872545441985</v>
       </c>
       <c r="G152">
         <v>-0.030223202563463</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.825754594489467</v>
+        <v>-2.82619358661599</v>
       </c>
       <c r="G153">
         <v>-0.02988980356040938</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.834074200256378</v>
+        <v>-2.834330098883696</v>
       </c>
       <c r="G156">
         <v>-0.02893259192091979</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.848784662700818</v>
+        <v>-2.850135788399337</v>
       </c>
       <c r="G161">
         <v>-0.02760213311917692</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.852442614950949</v>
+        <v>-2.853038076224796</v>
       </c>
       <c r="G162">
         <v>-0.02853571075693051</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.855433043967098</v>
+        <v>-2.855489151993962</v>
       </c>
       <c r="G163">
         <v>-0.02757906707793756</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.858295229643089</v>
+        <v>-2.85843486239581</v>
       </c>
       <c r="G164">
         <v>-0.02806417934947614</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.879269940089717</v>
+        <v>-2.880314297625082</v>
       </c>
       <c r="G171">
         <v>-0.02690437844752203</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.882124387204312</v>
+        <v>-2.882416826285849</v>
       </c>
       <c r="G172">
         <v>-0.02640855516097051</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.905851316676704</v>
+        <v>-2.906163947205164</v>
       </c>
       <c r="G180">
         <v>-0.02502709758633304</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.920308945360069</v>
+        <v>-2.920621575888529</v>
       </c>
       <c r="G185">
         <v>-0.02367436102071163</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.928733418147321</v>
+        <v>-2.929046048675781</v>
       </c>
       <c r="G188">
         <v>-0.02261261465857212</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.726843925073194</v>
+        <v>-2.728020768958483</v>
       </c>
       <c r="G222">
         <v>-0.0005659709599350471</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.783205203350857</v>
+        <v>-2.784090830883766</v>
       </c>
       <c r="G223">
         <v>-0.008607105083761057</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.035903088275535</v>
+        <v>-3.035973402946016</v>
       </c>
       <c r="G228">
         <v>-0.01969424981835199</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.732690039291771</v>
+        <v>-2.732802020029328</v>
       </c>
       <c r="G232">
         <v>0.006766216553027338</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.780867096422787</v>
+        <v>-2.781286384138439</v>
       </c>
       <c r="G233">
         <v>0.007149872150302272</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.771663733916959</v>
+        <v>-2.772174248317342</v>
       </c>
       <c r="G243">
         <v>0.008715378368267412</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.190886331694037</v>
+        <v>-3.190925868620889</v>
       </c>
       <c r="G251">
         <v>-0.01127978397129642</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.800311056894068</v>
+        <v>-2.80052436913116</v>
       </c>
       <c r="G254">
         <v>0.01058073414629002</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.012453865287165</v>
+        <v>-3.012553574300678</v>
       </c>
       <c r="G258">
         <v>-0.00023445459305238</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.095344487542432</v>
+        <v>-3.09567547350427</v>
       </c>
       <c r="G270">
         <v>-0.007337527235406816</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.985082854426716</v>
+        <v>-2.985176334197182</v>
       </c>
       <c r="G279">
         <v>0.02020208205114926</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.04443005386817</v>
+        <v>-3.044480080392974</v>
       </c>
       <c r="G280">
         <v>0.01236365785186733</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227085026915871</v>
+        <v>-3.227122808704706</v>
       </c>
       <c r="G283">
         <v>-0.01681251891297131</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.119127469418492</v>
+        <v>-3.119226508248872</v>
       </c>
       <c r="G292">
         <v>0.004583922414351571</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.187519640620476</v>
+        <v>-3.187605045953104</v>
       </c>
       <c r="G293">
         <v>-0.0121539716443787</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.286113689941419</v>
+        <v>-3.286388746061367</v>
       </c>
       <c r="G295">
         <v>-0.007909059436278898</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.428345215238617</v>
+        <v>-2.428369419512176</v>
       </c>
       <c r="G21">
         <v>-0.01327030064117141</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.484258042273638</v>
+        <v>-2.48489622409182</v>
       </c>
       <c r="G26">
         <v>-0.02965174077462729</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.508593830655201</v>
+        <v>-2.509207808199823</v>
       </c>
       <c r="G28">
         <v>-0.03817497439556394</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.580152760730023</v>
+        <v>-2.580824346883622</v>
       </c>
       <c r="G37">
         <v>-0.03741514331830298</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.618227613923386</v>
+        <v>-2.618718292499054</v>
       </c>
       <c r="G42">
         <v>-0.03631228131509845</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.64074370850757</v>
+        <v>-2.64141529466117</v>
       </c>
       <c r="G45">
         <v>-0.03524655062901449</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.557446932962618</v>
+        <v>-2.557882185595592</v>
       </c>
       <c r="G77">
         <v>-0.00188098536840009</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.561398079649489</v>
+        <v>-2.561594556772258</v>
       </c>
       <c r="G78">
         <v>-0.002563966273825269</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.578553072561719</v>
+        <v>-2.579025582707332</v>
       </c>
       <c r="G83">
         <v>-0.002963584093939264</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.585271580582129</v>
+        <v>-2.585313878969562</v>
       </c>
       <c r="G85">
         <v>-0.002959007560278337</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.615278527298786</v>
+        <v>-2.618207379698002</v>
       </c>
       <c r="G94">
         <v>-0.005396769296260651</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.622743816573075</v>
+        <v>-2.623235006347134</v>
       </c>
       <c r="G96">
         <v>-0.007533733665680664</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.625867239053745</v>
+        <v>-2.628010075695303</v>
       </c>
       <c r="G97">
         <v>-0.007396869331417921</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.658391344765991</v>
+        <v>-2.659316321539079</v>
       </c>
       <c r="G105">
         <v>-0.01472260441042095</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.679779303700085</v>
+        <v>-2.680169185249038</v>
       </c>
       <c r="G110">
         <v>-0.02030019809552819</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.687095298254751</v>
+        <v>-2.688328717905472</v>
       </c>
       <c r="G112">
         <v>-0.02091719166331729</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.699864885351935</v>
+        <v>-2.699902750963879</v>
       </c>
       <c r="G115">
         <v>-0.02457541449839162</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.717079593026897</v>
+        <v>-2.718087160631557</v>
       </c>
       <c r="G119">
         <v>-0.02840504366374064</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.721300484831036</v>
+        <v>-2.722772039681174</v>
       </c>
       <c r="G120">
         <v>-0.02983829967579998</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.729948963186767</v>
+        <v>-2.729970459143545</v>
       </c>
       <c r="G122">
         <v>-0.03221737025542892</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.734505302797807</v>
+        <v>-2.73461643640425</v>
       </c>
       <c r="G123">
         <v>-0.03370969925647094</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.739150243881543</v>
+        <v>-2.739274853601014</v>
       </c>
       <c r="G124">
         <v>-0.03514288028980883</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.743984625205932</v>
+        <v>-2.74401517718343</v>
       </c>
       <c r="G125">
         <v>-0.03707442385441495</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.778431790959501</v>
+        <v>-2.778504108700304</v>
       </c>
       <c r="G136">
         <v>-0.0367387860602133</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.798360987126205</v>
+        <v>-2.798437921331841</v>
       </c>
       <c r="G143">
         <v>-0.03453347087833536</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.80659996050526</v>
+        <v>-2.807386592772709</v>
       </c>
       <c r="G146">
         <v>-0.03211761682303038</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.811972562638795</v>
+        <v>-2.81226500172033</v>
       </c>
       <c r="G148">
         <v>-0.03185404470905451</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.814345749446227</v>
+        <v>-2.815099448976467</v>
       </c>
       <c r="G149">
         <v>-0.03136159013877893</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.81693905759439</v>
+        <v>-2.817194956221709</v>
       </c>
       <c r="G150">
         <v>-0.03056231422218847</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.831463727638175</v>
+        <v>-2.831952726506736</v>
       </c>
       <c r="G155">
         <v>-0.02969133479273811</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.834330098883696</v>
+        <v>-2.834347263353734</v>
       </c>
       <c r="G156">
         <v>-0.02893259192091979</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.84030233869965</v>
+        <v>-2.840669500472681</v>
       </c>
       <c r="G158">
         <v>-0.02821978211214016</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.843840665825966</v>
+        <v>-2.844197684086909</v>
       </c>
       <c r="G159">
         <v>-0.02769395474839409</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.853038076224796</v>
+        <v>-2.853130393824059</v>
       </c>
       <c r="G162">
         <v>-0.02853571075693051</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.873119359726362</v>
+        <v>-2.873883202311115</v>
       </c>
       <c r="G169">
         <v>-0.02641834332919391</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.911571842044358</v>
+        <v>-2.911884472572818</v>
       </c>
       <c r="G182">
         <v>-0.02442347685439261</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.961688024657422</v>
+        <v>-2.962025704222315</v>
       </c>
       <c r="G200">
         <v>-0.01762234457110506</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.975381627793868</v>
+        <v>-2.97571930735876</v>
       </c>
       <c r="G206">
         <v>-0.01213806656213784</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.980240285219451</v>
+        <v>-2.980296181481574</v>
       </c>
       <c r="G208">
         <v>-0.0108780207347543</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.676080314494407</v>
+        <v>-2.676613242086134</v>
       </c>
       <c r="G221">
         <v>0.002661706618874771</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.844497246594856</v>
+        <v>-2.845332442740399</v>
       </c>
       <c r="G224">
         <v>-0.021579004173923</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.781286384138439</v>
+        <v>-2.781886842944168</v>
       </c>
       <c r="G233">
         <v>0.007149872150302272</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.835126512701428</v>
+        <v>-2.835192501013744</v>
       </c>
       <c r="G234">
         <v>0.004260985750306645</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.957822217760278</v>
+        <v>-2.958526047342143</v>
       </c>
       <c r="G236">
         <v>-0.02222702944894772</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.143979398426525</v>
+        <v>-3.14414323688529</v>
       </c>
       <c r="G240">
         <v>-0.01189934021018441</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.818325759489049</v>
+        <v>-2.818724835415692</v>
       </c>
       <c r="G244">
         <v>0.01201750427633241</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.895361196331858</v>
+        <v>-2.896500639970031</v>
       </c>
       <c r="G256">
         <v>0.0158212654522889</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.951705169572449</v>
+        <v>-2.952090926609042</v>
       </c>
       <c r="G257">
         <v>0.01017427717712227</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135398960223868</v>
+        <v>-3.135444629784419</v>
       </c>
       <c r="G260">
         <v>-0.02211379003659075</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.223818964484592</v>
+        <v>-3.223870414740894</v>
       </c>
       <c r="G262">
         <v>-0.009525655970546942</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.821845172562998</v>
+        <v>-2.822055236045236</v>
       </c>
       <c r="G265">
         <v>0.01170554173700067</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.91606031068144</v>
+        <v>-2.916167662326445</v>
       </c>
       <c r="G267">
         <v>0.01937000722939275</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.970448448222173</v>
+        <v>-2.970634478467093</v>
       </c>
       <c r="G268">
         <v>0.01597952235226674</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.931545641979664</v>
+        <v>-2.931610448500003</v>
       </c>
       <c r="G278">
         <v>0.02233233993515293</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.044480080392974</v>
+        <v>-3.044498532210172</v>
       </c>
       <c r="G280">
         <v>0.01236365785186733</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.17773863954288</v>
+        <v>-3.177839124998784</v>
       </c>
       <c r="G282">
         <v>-0.01875556199597317</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227122808704706</v>
+        <v>-3.227212251344733</v>
       </c>
       <c r="G283">
         <v>-0.01681251891297131</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.269719687784309</v>
+        <v>-3.269752994494998</v>
       </c>
       <c r="G284">
         <v>-0.00818406242135733</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.944279295140333</v>
+        <v>-2.944310082210095</v>
       </c>
       <c r="G289">
         <v>0.02487332197734138</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.055853520124033</v>
+        <v>-3.055880721718867</v>
       </c>
       <c r="G291">
         <v>0.01631643478946421</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.119226508248872</v>
+        <v>-3.119309588426238</v>
       </c>
       <c r="G292">
         <v>0.004583922414351571</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.565155564519211</v>
+        <v>-2.566317829248479</v>
       </c>
       <c r="G35">
         <v>-0.03901211177695019</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.573160006435271</v>
+        <v>-2.573435772533451</v>
       </c>
       <c r="G36">
         <v>-0.03744216777277587</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.602648555046243</v>
+        <v>-2.603611072533007</v>
       </c>
       <c r="G40">
         <v>-0.03715462298034677</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.67901976954683</v>
+        <v>-2.679691355700429</v>
       </c>
       <c r="G50">
         <v>-0.03466281092030798</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.686809298985401</v>
+        <v>-2.687480885139</v>
       </c>
       <c r="G51">
         <v>-0.03454606297856599</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.722845766502008</v>
+        <v>-2.723862241674699</v>
       </c>
       <c r="G56">
         <v>-0.03105114359360861</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.550457443242258</v>
+        <v>-2.550590072805481</v>
       </c>
       <c r="G75">
         <v>-0.001650894380607504</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.564462959514552</v>
+        <v>-2.564898158932194</v>
       </c>
       <c r="G79">
         <v>-0.00300811845371296</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.571993847814866</v>
+        <v>-2.57223257010974</v>
       </c>
       <c r="G81">
         <v>-0.004214860654431885</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.579025582707332</v>
+        <v>-2.579514891965088</v>
       </c>
       <c r="G83">
         <v>-0.002963584093939264</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.585313878969562</v>
+        <v>-2.586848266965667</v>
       </c>
       <c r="G85">
         <v>-0.002959007560278337</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.589557503313164</v>
+        <v>-2.590736655485291</v>
       </c>
       <c r="G86">
         <v>-0.001262641145464372</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.59809269295369</v>
+        <v>-2.600929389890628</v>
       </c>
       <c r="G89">
         <v>-0.003547447061045261</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.609373715234785</v>
+        <v>-2.611468850434963</v>
       </c>
       <c r="G92">
         <v>-0.003447998136714148</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.618653633303555</v>
+        <v>-2.620373713210741</v>
       </c>
       <c r="G95">
         <v>-0.004661442103420121</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.623235006347134</v>
+        <v>-2.625282322359981</v>
       </c>
       <c r="G96">
         <v>-0.007533733665680664</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.628010075695303</v>
+        <v>-2.629270086248704</v>
       </c>
       <c r="G97">
         <v>-0.007396869331417921</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.632088951947837</v>
+        <v>-2.632915225094711</v>
       </c>
       <c r="G98">
         <v>-0.008204406740980108</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.638664181935619</v>
+        <v>-2.638896453684288</v>
       </c>
       <c r="G100">
         <v>-0.008437212648439107</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.643410467078781</v>
+        <v>-2.644301774775384</v>
       </c>
       <c r="G101">
         <v>-0.008417054536686841</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.646360123212756</v>
+        <v>-2.64778364527454</v>
       </c>
       <c r="G102">
         <v>-0.009440728911893626</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.659316321539079</v>
+        <v>-2.660129056297242</v>
       </c>
       <c r="G105">
         <v>-0.01472260441042095</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.66504422016841</v>
+        <v>-2.666015691864391</v>
       </c>
       <c r="G106">
         <v>-0.01603497726919301</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.672039786940533</v>
+        <v>-2.673426820850294</v>
       </c>
       <c r="G108">
         <v>-0.01419786335000284</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.682581950557269</v>
+        <v>-2.683385136686426</v>
       </c>
       <c r="G111">
         <v>-0.01981496336585153</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.690959914435114</v>
+        <v>-2.692633223522847</v>
       </c>
       <c r="G113">
         <v>-0.0213432977002832</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.699902750963879</v>
+        <v>-2.700082858431483</v>
       </c>
       <c r="G115">
         <v>-0.02457541449839162</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.708556430599944</v>
+        <v>-2.709396308909672</v>
       </c>
       <c r="G117">
         <v>-0.02669159820054245</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.713655066325754</v>
+        <v>-2.713999934567607</v>
       </c>
       <c r="G118">
         <v>-0.02755626580709936</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.726249031946159</v>
+        <v>-2.726487389826797</v>
       </c>
       <c r="G121">
         <v>-0.03140567682270468</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.729970459143545</v>
+        <v>-2.730438954143234</v>
       </c>
       <c r="G122">
         <v>-0.03221737025542892</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.73461643640425</v>
+        <v>-2.734846155893734</v>
       </c>
       <c r="G123">
         <v>-0.03370969925647094</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.739274853601014</v>
+        <v>-2.739522685131938</v>
       </c>
       <c r="G124">
         <v>-0.03514288028980883</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.764244570213504</v>
+        <v>-2.764316887954308</v>
       </c>
       <c r="G131">
         <v>-0.03836193056320303</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.769904994963742</v>
+        <v>-2.769977312704546</v>
       </c>
       <c r="G133">
         <v>-0.0376982092138467</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.772771366209263</v>
+        <v>-2.772843683950066</v>
       </c>
       <c r="G134">
         <v>-0.03725787192796304</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.786815399820163</v>
+        <v>-2.787052685630933</v>
       </c>
       <c r="G139">
         <v>-0.03563617577148293</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.795291659009989</v>
+        <v>-2.796115271330342</v>
       </c>
       <c r="G142">
         <v>-0.03384059229229197</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.798437921331841</v>
+        <v>-2.798616885753523</v>
       </c>
       <c r="G143">
         <v>-0.03453347087833536</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.807386592772709</v>
+        <v>-2.807406408355576</v>
       </c>
       <c r="G146">
         <v>-0.03211761682303038</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.809258565436277</v>
+        <v>-2.809337904135031</v>
       </c>
       <c r="G147">
         <v>-0.03213258204329383</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.81226500172033</v>
+        <v>-2.812706692748307</v>
       </c>
       <c r="G148">
         <v>-0.03185404470905451</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.817194956221709</v>
+        <v>-2.818289559418629</v>
       </c>
       <c r="G150">
         <v>-0.03056231422218847</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.822872545441985</v>
+        <v>-2.823717938697209</v>
       </c>
       <c r="G152">
         <v>-0.030223202563463</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.82619358661599</v>
+        <v>-2.826547908781864</v>
       </c>
       <c r="G153">
         <v>-0.02988980356040938</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.831952726506736</v>
+        <v>-2.832321668898604</v>
       </c>
       <c r="G155">
         <v>-0.02969133479273811</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.834347263353734</v>
+        <v>-2.835192656608957</v>
       </c>
       <c r="G156">
         <v>-0.02893259192091979</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.844197684086909</v>
+        <v>-2.844308323358343</v>
       </c>
       <c r="G159">
         <v>-0.02769395474839409</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.850135788399337</v>
+        <v>-2.850553626271653</v>
       </c>
       <c r="G161">
         <v>-0.02760213311917692</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.855489151993962</v>
+        <v>-2.855527142642772</v>
       </c>
       <c r="G163">
         <v>-0.02757906707793756</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.85843486239581</v>
+        <v>-2.858959446504916</v>
       </c>
       <c r="G164">
         <v>-0.02806417934947614</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.870724391984059</v>
+        <v>-2.871195795487276</v>
       </c>
       <c r="G168">
         <v>-0.02707418549097607</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.877119277725626</v>
+        <v>-2.877172027893785</v>
       </c>
       <c r="G170">
         <v>-0.02791578913322912</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.882416826285849</v>
+        <v>-2.88259579070753</v>
       </c>
       <c r="G172">
         <v>-0.02640855516097051</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885372679742209</v>
+        <v>-2.885575636612905</v>
       </c>
       <c r="G173">
         <v>-0.02659348978957943</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.888442007858425</v>
+        <v>-2.88860875515672</v>
       </c>
       <c r="G174">
         <v>-0.02650074485599763</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.934453943514975</v>
+        <v>-2.934766574043436</v>
       </c>
       <c r="G190">
         <v>-0.02164361323001263</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.94017446888263</v>
+        <v>-2.940487099411091</v>
       </c>
       <c r="G192">
         <v>-0.02140537319469121</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.966209002518112</v>
+        <v>-2.96667735163738</v>
       </c>
       <c r="G202">
         <v>-0.0158191763321997</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.968431321220387</v>
+        <v>-2.969106680350172</v>
       </c>
       <c r="G203">
         <v>-0.01474875243030155</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.784090830883766</v>
+        <v>-2.784113494588732</v>
       </c>
       <c r="G223">
         <v>-0.008607105083761057</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.905499335333241</v>
+        <v>-2.905656761096613</v>
       </c>
       <c r="G225">
         <v>-0.03423473425477486</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.990854485006262</v>
+        <v>-2.991009249744796</v>
       </c>
       <c r="G227">
         <v>-0.0218338312233014</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.732802020029328</v>
+        <v>-2.733198463687337</v>
       </c>
       <c r="G232">
         <v>0.006766216553027338</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.781886842944168</v>
+        <v>-2.78305872332269</v>
       </c>
       <c r="G233">
         <v>0.007149872150302272</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.892938673686599</v>
+        <v>-2.894011295718603</v>
       </c>
       <c r="G235">
         <v>-0.006267745300134298</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013393564914882</v>
+        <v>-3.013429154736025</v>
       </c>
       <c r="G237">
         <v>-0.02856768685908451</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.099526626514445</v>
+        <v>-3.100120109378834</v>
       </c>
       <c r="G239">
         <v>-0.01662277897930009</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.14414323688529</v>
+        <v>-3.144169997739556</v>
       </c>
       <c r="G240">
         <v>-0.01189934021018441</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.772174248317342</v>
+        <v>-2.772568046163412</v>
       </c>
       <c r="G243">
         <v>0.008715378368267412</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.869857237187238</v>
+        <v>-2.870418240988167</v>
       </c>
       <c r="G245">
         <v>0.009770751777637532</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.927700413057237</v>
+        <v>-2.927833651941091</v>
       </c>
       <c r="G246">
         <v>0.002282888125656468</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.056958633984002</v>
+        <v>-3.057000029651587</v>
       </c>
       <c r="G248">
         <v>-0.02734761830524413</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.845596431045598</v>
+        <v>-2.846119187492588</v>
       </c>
       <c r="G255">
         <v>0.01524606679400797</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.012553574300678</v>
+        <v>-3.0126251660195</v>
       </c>
       <c r="G258">
         <v>-0.00023445459305238</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.079200479543161</v>
+        <v>-3.079220980689925</v>
       </c>
       <c r="G259">
         <v>-0.01628408388362379</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135444629784419</v>
+        <v>-3.135534493863736</v>
       </c>
       <c r="G260">
         <v>-0.02211379003659075</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.18043087101094</v>
+        <v>-3.180802166383145</v>
       </c>
       <c r="G261">
         <v>-0.01598034786775493</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.916167662326445</v>
+        <v>-2.916339949022771</v>
       </c>
       <c r="G267">
         <v>0.01937000722939275</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.09567547350427</v>
+        <v>-3.095840001088006</v>
       </c>
       <c r="G270">
         <v>-0.007337527235406816</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.161489523063209</v>
+        <v>-3.161522630962865</v>
       </c>
       <c r="G271">
         <v>-0.0227614458400649</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.20744706904063</v>
+        <v>-3.207540191593968</v>
       </c>
       <c r="G272">
         <v>-0.01752625852510659</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.985176334197182</v>
+        <v>-2.985697996864266</v>
       </c>
       <c r="G279">
         <v>0.02020208205114926</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896134593086469</v>
+        <v>-2.896289438770923</v>
       </c>
       <c r="G288">
         <v>0.02195663427740735</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.055880721718867</v>
+        <v>-3.056007444742254</v>
       </c>
       <c r="G291">
         <v>0.01631643478946421</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.438929757020724</v>
+        <v>-2.439543734565345</v>
       </c>
       <c r="G22">
         <v>-0.01592436076940507</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.564898158932194</v>
+        <v>-2.564913973703389</v>
       </c>
       <c r="G79">
         <v>-0.00300811845371296</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.620373713210741</v>
+        <v>-2.621075390196952</v>
       </c>
       <c r="G95">
         <v>-0.004661442103420121</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.625282322359981</v>
+        <v>-2.625526330582611</v>
       </c>
       <c r="G96">
         <v>-0.007533733665680664</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.638896453684288</v>
+        <v>-2.639698149117448</v>
       </c>
       <c r="G100">
         <v>-0.008437212648439107</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.644301774775384</v>
+        <v>-2.645273865018768</v>
       </c>
       <c r="G101">
         <v>-0.008417054536686841</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.64778364527454</v>
+        <v>-2.649762266945615</v>
       </c>
       <c r="G102">
         <v>-0.009440728911893626</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.674426900268823</v>
+        <v>-2.675553586877109</v>
       </c>
       <c r="G109">
         <v>-0.01784316746426873</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.683385136686426</v>
+        <v>-2.683657581273114</v>
       </c>
       <c r="G111">
         <v>-0.01981496336585153</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.688328717905472</v>
+        <v>-2.688822246337701</v>
       </c>
       <c r="G112">
         <v>-0.02091719166331729</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.700082858431483</v>
+        <v>-2.700342489587678</v>
       </c>
       <c r="G115">
         <v>-0.02457541449839162</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.726487389826797</v>
+        <v>-2.726695613359503</v>
       </c>
       <c r="G121">
         <v>-0.03140567682270468</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.730438954143234</v>
+        <v>-2.730486911952866</v>
       </c>
       <c r="G122">
         <v>-0.03221737025542892</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.823717938697209</v>
+        <v>-2.824486397746797</v>
       </c>
       <c r="G152">
         <v>-0.030223202563463</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.829566560798794</v>
+        <v>-2.829837218945462</v>
       </c>
       <c r="G154">
         <v>-0.02987817840199236</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.855527142642772</v>
+        <v>-2.85578366514437</v>
       </c>
       <c r="G163">
         <v>-0.02757906707793756</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.864694593946648</v>
+        <v>-2.865458436531402</v>
       </c>
       <c r="G166">
         <v>-0.02813939755343986</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885575636612905</v>
+        <v>-2.885665118823746</v>
       </c>
       <c r="G173">
         <v>-0.02659348978957943</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.676613242086134</v>
+        <v>-2.677694091973775</v>
       </c>
       <c r="G221">
         <v>0.002661706618874771</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.991009249744796</v>
+        <v>-2.991020806948518</v>
       </c>
       <c r="G227">
         <v>-0.0218338312233014</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.035973402946016</v>
+        <v>-3.036015972153115</v>
       </c>
       <c r="G228">
         <v>-0.01969424981835199</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.835192501013744</v>
+        <v>-2.835975532126324</v>
       </c>
       <c r="G234">
         <v>0.004260985750306645</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.894011295718603</v>
+        <v>-2.894556773009858</v>
       </c>
       <c r="G235">
         <v>-0.006267745300134298</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.103763395536883</v>
+        <v>-3.103801531257019</v>
       </c>
       <c r="G249">
         <v>-0.02360961544038265</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.190925868620889</v>
+        <v>-3.190983340374864</v>
       </c>
       <c r="G251">
         <v>-0.01127978397129642</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.822055236045236</v>
+        <v>-2.822178483862678</v>
       </c>
       <c r="G265">
         <v>0.01170554173700067</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.866527847088387</v>
+        <v>-2.866901547725988</v>
       </c>
       <c r="G266">
         <v>0.01845620837995821</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.931610448500003</v>
+        <v>-2.931665584372711</v>
       </c>
       <c r="G278">
         <v>0.02233233993515293</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.108692648957591</v>
+        <v>-3.108775915292585</v>
       </c>
       <c r="G281">
         <v>-0.0007235657470519019</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -426,7 +426,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.012622932911828</v>
+        <v>-2.01262293291183</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-2.220446049250313e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C3">
         <v>0.07692307692307693</v>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.084574053208412</v>
+        <v>-2.084574053208413</v>
       </c>
       <c r="G3">
-        <v>-0.04361171002872521</v>
+        <v>-0.0436117100287261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C4">
         <v>0.1538461538461539</v>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.107672793717846</v>
+        <v>-2.107672793717847</v>
       </c>
       <c r="G4">
-        <v>-0.03837104027030058</v>
+        <v>-0.03837104027030103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,7 +495,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C5">
         <v>0.2307692307692308</v>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.130771534227281</v>
+        <v>-2.13077153422728</v>
       </c>
       <c r="G5">
-        <v>-0.03313037051187684</v>
+        <v>-0.03313037051187639</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C6">
         <v>0.3076923076923077</v>
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C7">
         <v>0.3846153846153846</v>
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C8">
         <v>0.4615384615384616</v>
@@ -579,7 +579,7 @@
         <v>-2.195393598842534</v>
       </c>
       <c r="G8">
-        <v>-0.01273420432355343</v>
+        <v>-0.01273420432355299</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C9">
         <v>0.5384615384615384</v>
@@ -602,7 +602,7 @@
         <v>-2.222511383066157</v>
       </c>
       <c r="G9">
-        <v>-0.01151257827931773</v>
+        <v>-0.01151257827931729</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C10">
         <v>0.6153846153846154</v>
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.245446345275877</v>
+        <v>-2.245446345275876</v>
       </c>
       <c r="G10">
-        <v>-0.006108130221178398</v>
+        <v>-0.006108130221177066</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C11">
         <v>0.6923076923076923</v>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.2725641294995</v>
+        <v>-2.272564129499499</v>
       </c>
       <c r="G11">
-        <v>-0.004886504176942585</v>
+        <v>-0.004886504176941253</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C12">
         <v>0.7692307692307693</v>
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.295499091709219</v>
+        <v>-2.295499091709217</v>
       </c>
       <c r="G12">
-        <v>0.0005179438811969694</v>
+        <v>0.0005179438811991899</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C13">
         <v>0.8461538461538461</v>
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.322616875932843</v>
+        <v>-2.32261687593284</v>
       </c>
       <c r="G13">
-        <v>0.001739569925432338</v>
+        <v>0.001739569925435003</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C14">
         <v>0.9230769230769231</v>
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.349734660156466</v>
+        <v>-2.349734660156463</v>
       </c>
       <c r="G14">
-        <v>0.002961195969667929</v>
+        <v>0.002961195969671482</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.381035266393993</v>
+        <v>-2.381035266393989</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.996802888650564e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,7 +748,7 @@
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.375543527695881</v>
+        <v>-2.375543527695873</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7.993605777301127e-15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,7 +771,7 @@
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C17">
         <v>0.01818181818181818</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.385465683386247</v>
+        <v>-2.38546568338624</v>
       </c>
       <c r="G17">
-        <v>-0.002015878310053232</v>
+        <v>-0.002015878310046126</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="B18">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C18">
         <v>0.03636363636363636</v>
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.396026020894794</v>
+        <v>-2.396026020894789</v>
       </c>
       <c r="G18">
-        <v>-0.004669938438286891</v>
+        <v>-0.004669938438281562</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,7 +817,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C19">
         <v>0.05454545454545454</v>
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.406586358403341</v>
+        <v>-2.406586358403337</v>
       </c>
       <c r="G19">
-        <v>-0.007323998566520995</v>
+        <v>-0.007323998566516998</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,7 +840,7 @@
         <v>55</v>
       </c>
       <c r="B20">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C20">
         <v>0.07272727272727272</v>
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.41778487773007</v>
+        <v>-2.417146695911884</v>
       </c>
       <c r="G20">
-        <v>-0.009978058694755099</v>
+        <v>-0.009978058694751102</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C21">
         <v>0.09090909090909091</v>
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.428369419512176</v>
+        <v>-2.427731237693991</v>
       </c>
       <c r="G21">
-        <v>-0.01327030064117141</v>
+        <v>-0.01265632309654485</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,7 +886,7 @@
         <v>55</v>
       </c>
       <c r="B22">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C22">
         <v>0.1090909090909091</v>
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.439543734565345</v>
+        <v>-2.439543734565341</v>
       </c>
       <c r="G22">
-        <v>-0.01592436076940507</v>
+        <v>-0.01656254258758239</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,7 +909,7 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C23">
         <v>0.1272727272727273</v>
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.450766458165634</v>
+        <v>-2.45076645816563</v>
       </c>
       <c r="G23">
-        <v>-0.01924080698938058</v>
+        <v>-0.0198789888075579</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,7 +932,7 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C24">
         <v>0.1454545454545454</v>
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.461964977492363</v>
+        <v>-2.461326795674177</v>
       </c>
       <c r="G24">
-        <v>-0.02253304893579733</v>
+        <v>-0.022533048935792</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C25">
         <v>0.1636363636363636</v>
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.473163496819093</v>
+        <v>-2.472421341128722</v>
       </c>
       <c r="G25">
-        <v>-0.02646347270039473</v>
+        <v>-0.02572131701002411</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,7 +978,7 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C26">
         <v>0.1818181818181818</v>
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.48489622409182</v>
+        <v>-2.484258042273634</v>
       </c>
       <c r="G26">
-        <v>-0.02965174077462729</v>
+        <v>-0.02965174077462285</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C27">
         <v>0.2</v>
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.496732925236731</v>
+        <v>-2.495480765873922</v>
       </c>
       <c r="G27">
-        <v>-0.03422034635740689</v>
+        <v>-0.03296818699459814</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C28">
         <v>0.2181818181818182</v>
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.509207808199823</v>
+        <v>-2.508593830655197</v>
       </c>
       <c r="G28">
-        <v>-0.03817497439556394</v>
+        <v>-0.03817497439555995</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C29">
         <v>0.2363636363636364</v>
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.521706895436475</v>
+        <v>-2.521706895436472</v>
       </c>
       <c r="G29">
-        <v>-0.04338176179652509</v>
+        <v>-0.04338176179652198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="B30">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C30">
         <v>0.2545454545454545</v>
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.528824838721446</v>
+        <v>-2.528824838721445</v>
       </c>
       <c r="G30">
-        <v>-0.04259342770118302</v>
+        <v>-0.04259342770118257</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C31">
         <v>0.2727272727272727</v>
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.535922481738454</v>
+        <v>-2.535541826918018</v>
       </c>
       <c r="G31">
-        <v>-0.04140413851744396</v>
+        <v>-0.04140413851744262</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,7 +1116,7 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C32">
         <v>0.2909090909090909</v>
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.54342107984386</v>
+        <v>-2.543421079843859</v>
       </c>
       <c r="G32">
-        <v>-0.04061580442210388</v>
+        <v>-0.04137711406296996</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,7 +1139,7 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C33">
         <v>0.3090909090909091</v>
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.550919677949266</v>
+        <v>-2.55053902312883</v>
       </c>
       <c r="G33">
-        <v>-0.04058877996763055</v>
+        <v>-0.04058877996762833</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="B34">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C34">
         <v>0.3272727272727273</v>
@@ -1177,7 +1177,7 @@
         <v>-2.558037621234238</v>
       </c>
       <c r="G34">
-        <v>-0.03980044587229092</v>
+        <v>-0.04018110069272285</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C35">
         <v>0.3454545454545455</v>
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.566317829248479</v>
+        <v>-2.564754609430809</v>
       </c>
       <c r="G35">
-        <v>-0.03901211177695019</v>
+        <v>-0.03899181150898134</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="B36">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C36">
         <v>0.3636363636363636</v>
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.573435772533451</v>
+        <v>-2.57149189789535</v>
       </c>
       <c r="G36">
-        <v>-0.03744216777277587</v>
+        <v>-0.03782282259320913</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C37">
         <v>0.3818181818181818</v>
@@ -1246,7 +1246,7 @@
         <v>-2.580824346883622</v>
       </c>
       <c r="G37">
-        <v>-0.03741514331830298</v>
+        <v>-0.03924899420116845</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,7 +1254,7 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C38">
         <v>0.4</v>
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.588032013655865</v>
+        <v>-2.587942290168595</v>
       </c>
       <c r="G38">
-        <v>-0.03769935046496053</v>
+        <v>-0.03846066010582838</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,7 +1277,7 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C39">
         <v>0.4181818181818182</v>
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.595149956940836</v>
+        <v>-2.593987692211568</v>
       </c>
       <c r="G39">
-        <v>-0.03776204949775708</v>
+        <v>-0.03659978476848846</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C40">
         <v>0.4363636363636363</v>
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.603611072533007</v>
+        <v>-2.602939486379408</v>
       </c>
       <c r="G40">
-        <v>-0.03715462298034677</v>
+        <v>-0.03764530155601498</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,7 +1323,7 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C41">
         <v>0.4545454545454545</v>
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.61072901581798</v>
+        <v>-2.609920422793711</v>
       </c>
       <c r="G41">
-        <v>-0.03618538130707649</v>
+        <v>-0.03671996059000571</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C42">
         <v>0.4727272727272727</v>
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.618718292499054</v>
+        <v>-2.617175372949352</v>
       </c>
       <c r="G42">
-        <v>-0.03631228131509845</v>
+        <v>-0.03606863336533372</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,7 +1369,7 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C43">
         <v>0.4909090909090909</v>
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.626507821937627</v>
+        <v>-2.625164649630427</v>
       </c>
       <c r="G43">
-        <v>-0.03749480497329527</v>
+        <v>-0.03615163266609578</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,7 +1392,7 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C44">
         <v>0.509090909090909</v>
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.633625765222599</v>
+        <v>-2.632282592915399</v>
       </c>
       <c r="G44">
-        <v>-0.03670647087795498</v>
+        <v>-0.03536329857075504</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,7 +1415,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C45">
         <v>0.5272727272727272</v>
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.64141529466117</v>
+        <v>-2.640743708507571</v>
       </c>
       <c r="G45">
-        <v>-0.03524655062901449</v>
+        <v>-0.03591813678261357</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,7 +1438,7 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C46">
         <v>0.5454545454545454</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.648533237946143</v>
+        <v>-2.647861651792543</v>
       </c>
       <c r="G46">
-        <v>-0.03580138884087258</v>
+        <v>-0.03512980268727262</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,7 +1461,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C47">
         <v>0.5636363636363636</v>
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.656994353538314</v>
+        <v>-2.656322767384713</v>
       </c>
       <c r="G47">
-        <v>-0.03501305474553162</v>
+        <v>-0.03568464089913026</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C48">
         <v>0.5818181818181818</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.664112296823286</v>
+        <v>-2.663440710669686</v>
       </c>
       <c r="G48">
         <v>-0.03489630680378963</v>
@@ -1507,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C49">
         <v>0.6</v>
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.671230240108258</v>
+        <v>-2.671230240108259</v>
       </c>
       <c r="G49">
-        <v>-0.03477955886204853</v>
+        <v>-0.03477955886204942</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,7 +1530,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C50">
         <v>0.6181818181818182</v>
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.679691355700429</v>
+        <v>-2.679019769546831</v>
       </c>
       <c r="G50">
-        <v>-0.03466281092030798</v>
+        <v>-0.03466281092030843</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,7 +1553,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C51">
         <v>0.6363636363636364</v>
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.687480885139</v>
+        <v>-2.686809298985402</v>
       </c>
       <c r="G51">
-        <v>-0.03454606297856599</v>
+        <v>-0.03454606297856733</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C52">
         <v>0.6545454545454545</v>
@@ -1599,7 +1599,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C53">
         <v>0.6727272727272727</v>
@@ -1614,7 +1614,7 @@
         <v>-2.702388357862544</v>
       </c>
       <c r="G53">
-        <v>-0.03431256709508246</v>
+        <v>-0.0343125670950829</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C54">
         <v>0.6909090909090909</v>
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.710177887301115</v>
+        <v>-2.710177887301116</v>
       </c>
       <c r="G54">
-        <v>-0.03419581915334047</v>
+        <v>-0.03419581915334136</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,7 +1645,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C55">
         <v>0.7090909090909091</v>
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.717020064487907</v>
+        <v>-2.716003589315219</v>
       </c>
       <c r="G55">
-        <v>-0.03211524378713027</v>
+        <v>-0.0321152437871316</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C56">
         <v>0.7272727272727273</v>
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.723862241674699</v>
+        <v>-2.721829291329321</v>
       </c>
       <c r="G56">
-        <v>-0.03105114359360861</v>
+        <v>-0.03003466842092128</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C57">
         <v>0.7454545454545455</v>
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.728671468516111</v>
+        <v>-2.729687943688802</v>
       </c>
       <c r="G57">
-        <v>-0.02897056822739752</v>
+        <v>-0.0299870434000884</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,7 +1714,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C58">
         <v>0.7636363636363637</v>
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.735513645702903</v>
+        <v>-2.734497170530214</v>
       </c>
       <c r="G58">
-        <v>-0.02688999286118776</v>
+        <v>-0.02688999286118821</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,7 +1737,7 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C59">
         <v>0.7818181818181819</v>
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.741339347717004</v>
+        <v>-2.741339347717006</v>
       </c>
       <c r="G59">
-        <v>-0.02480941749497578</v>
+        <v>-0.02582589266766711</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C60">
         <v>0.8</v>
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.747165049731108</v>
+        <v>-2.74716504973111</v>
       </c>
       <c r="G60">
-        <v>-0.02272884212876564</v>
+        <v>-0.02374531730145785</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1783,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C61">
         <v>0.8181818181818182</v>
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.75299075174521</v>
+        <v>-2.752990751745212</v>
       </c>
       <c r="G61">
-        <v>-0.02166474193524498</v>
+        <v>-0.02166474193524764</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1806,7 +1806,7 @@
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C62">
         <v>0.8363636363636363</v>
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.758730554931998</v>
+        <v>-2.758730554932002</v>
       </c>
       <c r="G62">
-        <v>-0.01949826774172031</v>
+        <v>-0.01949826774172386</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C63">
         <v>0.8545454545454545</v>
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.764470358118785</v>
+        <v>-2.764470358118791</v>
       </c>
       <c r="G63">
-        <v>-0.01733179354819497</v>
+        <v>-0.0173317935482003</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,7 +1852,7 @@
         <v>55</v>
       </c>
       <c r="B64">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C64">
         <v>0.8727272727272727</v>
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.770210161305574</v>
+        <v>-2.77021016130558</v>
       </c>
       <c r="G64">
-        <v>-0.01516531935467053</v>
+        <v>-0.0151653193546763</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,7 +1875,7 @@
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C65">
         <v>0.8909090909090909</v>
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.775949964492363</v>
+        <v>-2.775949964492368</v>
       </c>
       <c r="G65">
-        <v>-0.01299884516114613</v>
+        <v>-0.01299884516115191</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="B66">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C66">
         <v>0.9090909090909091</v>
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.781689767679152</v>
+        <v>-2.781689767679157</v>
       </c>
       <c r="G66">
-        <v>-0.01083237096762213</v>
+        <v>-0.01083237096762701</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B67">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C67">
         <v>0.9272727272727272</v>
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.78742957086594</v>
+        <v>-2.787429570865946</v>
       </c>
       <c r="G67">
-        <v>-0.008665896774097709</v>
+        <v>-0.008665896774103482</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,7 +1944,7 @@
         <v>55</v>
       </c>
       <c r="B68">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C68">
         <v>0.9454545454545454</v>
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.793169374052729</v>
+        <v>-2.793169374052736</v>
       </c>
       <c r="G68">
-        <v>-0.006499422580573289</v>
+        <v>-0.00649942258057995</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,7 +1967,7 @@
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C69">
         <v>0.9636363636363636</v>
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.798909177239517</v>
+        <v>-2.798909177239524</v>
       </c>
       <c r="G69">
-        <v>-0.004332948387048854</v>
+        <v>-0.004332948387055072</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C70">
         <v>0.9818181818181818</v>
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.804648980426306</v>
+        <v>-2.804648980426311</v>
       </c>
       <c r="G70">
-        <v>-0.002166474193523983</v>
+        <v>-0.002166474193529756</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,7 +2013,7 @@
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.810388783613095</v>
+        <v>-2.810388783613099</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-4.884981308350689e-15</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,7 +2036,7 @@
         <v>147</v>
       </c>
       <c r="B72">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-2.539320329712258</v>
+        <v>-2.539320329712253</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>5.329070518200751e-15</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,7 +2059,7 @@
         <v>147</v>
       </c>
       <c r="B73">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C73">
         <v>0.006802721088435374</v>
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-2.543032700888925</v>
+        <v>-2.543032700888921</v>
       </c>
       <c r="G73">
-        <v>-0.000550298126869464</v>
+        <v>-0.0005502981268654672</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,7 +2082,7 @@
         <v>147</v>
       </c>
       <c r="B74">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C74">
         <v>0.01360544217687075</v>
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-2.546745072065592</v>
+        <v>-2.546745072065589</v>
       </c>
       <c r="G74">
-        <v>-0.001100596253739372</v>
+        <v>-0.001100596253736708</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,7 +2105,7 @@
         <v>147</v>
       </c>
       <c r="B75">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C75">
         <v>0.02040816326530612</v>
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.550590072805481</v>
+        <v>-2.550457443242257</v>
       </c>
       <c r="G75">
-        <v>-0.001650894380607504</v>
+        <v>-0.001650894380606616</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,7 +2128,7 @@
         <v>147</v>
       </c>
       <c r="B76">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C76">
         <v>0.0272108843537415</v>
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.554302443982148</v>
+        <v>-2.55373456178595</v>
       </c>
       <c r="G76">
-        <v>-0.001732697507789371</v>
+        <v>-0.001765939874502909</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,7 +2151,7 @@
         <v>147</v>
       </c>
       <c r="B77">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C77">
         <v>0.03401360544217687</v>
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.557882185595592</v>
+        <v>-2.557111067526153</v>
       </c>
       <c r="G77">
-        <v>-0.00188098536840009</v>
+        <v>-0.00198037256490835</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,7 +2174,7 @@
         <v>147</v>
       </c>
       <c r="B78">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C78">
         <v>0.04081632653061224</v>
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.561594556772258</v>
+        <v>-2.560421481651894</v>
       </c>
       <c r="G78">
-        <v>-0.002563966273825269</v>
+        <v>-0.002128713640852542</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,7 +2197,7 @@
         <v>147</v>
       </c>
       <c r="B79">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C79">
         <v>0.04761904761904762</v>
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.564913973703389</v>
+        <v>-2.563682785424394</v>
       </c>
       <c r="G79">
-        <v>-0.00300811845371296</v>
+        <v>-0.002227944363554446</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,7 +2220,7 @@
         <v>147</v>
       </c>
       <c r="B80">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C80">
         <v>0.05442176870748299</v>
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.5682814766382</v>
+        <v>-2.567483821737189</v>
       </c>
       <c r="G80">
-        <v>-0.003186958291822695</v>
+        <v>-0.002866907626552173</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,7 +2243,7 @@
         <v>147</v>
       </c>
       <c r="B81">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C81">
         <v>0.06122448979591837</v>
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.57223257010974</v>
+        <v>-2.569848136627502</v>
       </c>
       <c r="G81">
-        <v>-0.004214860654431885</v>
+        <v>-0.00206914946706771</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,7 +2266,7 @@
         <v>147</v>
       </c>
       <c r="B82">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C82">
         <v>0.06802721088435375</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.575944941286406</v>
+        <v>-2.573773825427</v>
       </c>
       <c r="G82">
-        <v>-0.005003881076174999</v>
+        <v>-0.002832765216768784</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,7 +2289,7 @@
         <v>147</v>
       </c>
       <c r="B83">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C83">
         <v>0.07482993197278912</v>
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.579514891965088</v>
+        <v>-2.57766887809385</v>
       </c>
       <c r="G83">
-        <v>-0.002963584093939264</v>
+        <v>-0.003565744833821327</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,7 +2312,7 @@
         <v>147</v>
       </c>
       <c r="B84">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C84">
         <v>0.08163265306122448</v>
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.582000131396608</v>
+        <v>-2.580575894045311</v>
       </c>
       <c r="G84">
-        <v>-0.003272479472697043</v>
+        <v>-0.00331068773548493</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,7 +2335,7 @@
         <v>147</v>
       </c>
       <c r="B85">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C85">
         <v>0.08843537414965986</v>
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.586848266965667</v>
+        <v>-2.582849952738557</v>
       </c>
       <c r="G85">
-        <v>-0.002959007560278337</v>
+        <v>-0.002422673378934093</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,7 +2358,7 @@
         <v>147</v>
       </c>
       <c r="B86">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C86">
         <v>0.09523809523809523</v>
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.590736655485291</v>
+        <v>-2.586272473496404</v>
       </c>
       <c r="G86">
-        <v>-0.001262641145464372</v>
+        <v>-0.00268312108698332</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,7 +2381,7 @@
         <v>147</v>
       </c>
       <c r="B87">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C87">
         <v>0.1020408163265306</v>
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.59231746558544</v>
+        <v>-2.591199951364515</v>
       </c>
       <c r="G87">
-        <v>-0.00547337029226691</v>
+        <v>-0.004448525905296652</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>147</v>
       </c>
       <c r="B88">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C88">
         <v>0.108843537414966</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.596199798816689</v>
+        <v>-2.596314294575087</v>
       </c>
       <c r="G88">
-        <v>-0.003809912377221281</v>
+        <v>-0.006400796066071912</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,7 +2427,7 @@
         <v>147</v>
       </c>
       <c r="B89">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C89">
         <v>0.1156462585034014</v>
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.600929389890628</v>
+        <v>-2.599216058797943</v>
       </c>
       <c r="G89">
-        <v>-0.003547447061045261</v>
+        <v>-0.006140487239130188</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,7 +2450,7 @@
         <v>147</v>
       </c>
       <c r="B90">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C90">
         <v>0.1224489795918367</v>
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.60209153063384</v>
+        <v>-2.60243686972059</v>
       </c>
       <c r="G90">
-        <v>-0.004771525263647103</v>
+        <v>-0.006199225111979789</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,7 +2473,7 @@
         <v>147</v>
       </c>
       <c r="B91">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C91">
         <v>0.1292517006802721</v>
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.607281810464737</v>
+        <v>-2.604429010176863</v>
       </c>
       <c r="G91">
-        <v>-0.005653463586788199</v>
+        <v>-0.00502929251845563</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,7 +2496,7 @@
         <v>147</v>
       </c>
       <c r="B92">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C92">
         <v>0.1360544217687075</v>
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.611468850434963</v>
+        <v>-2.610301297482391</v>
       </c>
       <c r="G92">
-        <v>-0.003447998136714148</v>
+        <v>-0.007739506774186111</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,7 +2519,7 @@
         <v>147</v>
       </c>
       <c r="B93">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C93">
         <v>0.1428571428571428</v>
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.615048934699255</v>
+        <v>-2.61348622609738</v>
       </c>
       <c r="G93">
-        <v>-0.009325070941252456</v>
+        <v>-0.00776236233937766</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,7 +2542,7 @@
         <v>147</v>
       </c>
       <c r="B94">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C94">
         <v>0.1496598639455782</v>
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.618207379698002</v>
+        <v>-2.618922670051645</v>
       </c>
       <c r="G94">
-        <v>-0.005396769296260651</v>
+        <v>-0.01003673324384513</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,7 +2565,7 @@
         <v>147</v>
       </c>
       <c r="B95">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C95">
         <v>0.1564625850340136</v>
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.621075390196952</v>
+        <v>-2.618562884498202</v>
       </c>
       <c r="G95">
-        <v>-0.004661442103420121</v>
+        <v>-0.006514874640604962</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,7 +2588,7 @@
         <v>147</v>
       </c>
       <c r="B96">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C96">
         <v>0.163265306122449</v>
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.625526330582611</v>
+        <v>-2.622047523112502</v>
       </c>
       <c r="G96">
-        <v>-0.007533733665680664</v>
+        <v>-0.006837440205107459</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,7 +2611,7 @@
         <v>147</v>
       </c>
       <c r="B97">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C97">
         <v>0.1700680272108843</v>
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.629270086248704</v>
+        <v>-2.627964393392527</v>
       </c>
       <c r="G97">
-        <v>-0.007396869331417921</v>
+        <v>-0.009592237435335438</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2634,7 +2634,7 @@
         <v>147</v>
       </c>
       <c r="B98">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C98">
         <v>0.1768707482993197</v>
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.632915225094711</v>
+        <v>-2.631970621053739</v>
       </c>
       <c r="G98">
-        <v>-0.008204406740980108</v>
+        <v>-0.01043639204674962</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2657,7 +2657,7 @@
         <v>147</v>
       </c>
       <c r="B99">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C99">
         <v>0.1836734693877551</v>
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.636192814483304</v>
+        <v>-2.634772365973877</v>
       </c>
       <c r="G99">
-        <v>-0.01008952128120955</v>
+        <v>-0.01007606391709093</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2680,7 +2680,7 @@
         <v>147</v>
       </c>
       <c r="B100">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C100">
         <v>0.1904761904761905</v>
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.639698149117448</v>
+        <v>-2.639265106092817</v>
       </c>
       <c r="G100">
-        <v>-0.008437212648439107</v>
+        <v>-0.01140673098623335</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2703,7 +2703,7 @@
         <v>147</v>
       </c>
       <c r="B101">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C101">
         <v>0.1972789115646258</v>
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.645273865018768</v>
+        <v>-2.643103712516319</v>
       </c>
       <c r="G101">
-        <v>-0.008417054536686841</v>
+        <v>-0.01208326435993845</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2726,7 +2726,7 @@
         <v>147</v>
       </c>
       <c r="B102">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C102">
         <v>0.2040816326530612</v>
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.649762266945615</v>
+        <v>-2.643306724245376</v>
       </c>
       <c r="G102">
-        <v>-0.009440728911893626</v>
+        <v>-0.009124203039197809</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2749,7 +2749,7 @@
         <v>147</v>
       </c>
       <c r="B103">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C103">
         <v>0.2108843537414966</v>
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.652776383120813</v>
+        <v>-2.648974595608977</v>
       </c>
       <c r="G103">
-        <v>-0.01109678664517233</v>
+        <v>-0.01163000135300152</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2772,7 +2772,7 @@
         <v>147</v>
       </c>
       <c r="B104">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C104">
         <v>0.217687074829932</v>
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.657447302529319</v>
+        <v>-2.654122891018398</v>
       </c>
       <c r="G104">
-        <v>-0.01198499941130748</v>
+        <v>-0.01361622371262583</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2795,7 +2795,7 @@
         <v>147</v>
       </c>
       <c r="B105">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C105">
         <v>0.2244897959183673</v>
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.660129056297242</v>
+        <v>-2.657998835979133</v>
       </c>
       <c r="G105">
-        <v>-0.01472260441042095</v>
+        <v>-0.0143300956235628</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2818,7 +2818,7 @@
         <v>147</v>
       </c>
       <c r="B106">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C106">
         <v>0.2312925170068027</v>
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.666015691864391</v>
+        <v>-2.661250477886545</v>
       </c>
       <c r="G106">
-        <v>-0.01603497726919301</v>
+        <v>-0.01441966448117782</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2841,7 +2841,7 @@
         <v>147</v>
       </c>
       <c r="B107">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C107">
         <v>0.2380952380952381</v>
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.666999605656305</v>
+        <v>-2.665704385413751</v>
       </c>
       <c r="G107">
-        <v>-0.01621364401858005</v>
+        <v>-0.0157114989585867</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2864,7 +2864,7 @@
         <v>147</v>
       </c>
       <c r="B108">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C108">
         <v>0.2448979591836735</v>
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.673426820850294</v>
+        <v>-2.669737149906535</v>
       </c>
       <c r="G108">
-        <v>-0.01419786335000284</v>
+        <v>-0.01658219040157327</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2887,7 +2887,7 @@
         <v>147</v>
       </c>
       <c r="B109">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C109">
         <v>0.2517006802721088</v>
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.675553586877109</v>
+        <v>-2.674817591690689</v>
       </c>
       <c r="G109">
-        <v>-0.01784316746426873</v>
+        <v>-0.01850055913592996</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2910,7 +2910,7 @@
         <v>147</v>
       </c>
       <c r="B110">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C110">
         <v>0.2585034013605442</v>
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.680169185249038</v>
+        <v>-2.678851507851459</v>
       </c>
       <c r="G110">
-        <v>-0.02030019809552819</v>
+        <v>-0.01937240224690173</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2933,7 +2933,7 @@
         <v>147</v>
       </c>
       <c r="B111">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C111">
         <v>0.2653061224489796</v>
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.683657581273114</v>
+        <v>-2.680924456240733</v>
       </c>
       <c r="G111">
-        <v>-0.01981496336585153</v>
+        <v>-0.01828327758637882</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2956,7 +2956,7 @@
         <v>147</v>
       </c>
       <c r="B112">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C112">
         <v>0.272108843537415</v>
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.688822246337701</v>
+        <v>-2.686738630387632</v>
       </c>
       <c r="G112">
-        <v>-0.02091719166331729</v>
+        <v>-0.0209353786834805</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2979,7 +2979,7 @@
         <v>147</v>
       </c>
       <c r="B113">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C113">
         <v>0.2789115646258503</v>
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.692633223522847</v>
+        <v>-2.690221345226122</v>
       </c>
       <c r="G113">
-        <v>-0.0213432977002832</v>
+        <v>-0.02125602047217323</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3002,7 +3002,7 @@
         <v>147</v>
       </c>
       <c r="B114">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C114">
         <v>0.2857142857142857</v>
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.697466546906881</v>
+        <v>-2.695945580440579</v>
       </c>
       <c r="G114">
-        <v>-0.02533914910313451</v>
+        <v>-0.02381818263683266</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3025,7 +3025,7 @@
         <v>147</v>
       </c>
       <c r="B115">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C115">
         <v>0.2925170068027211</v>
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.700342489587678</v>
+        <v>-2.700362896152155</v>
       </c>
       <c r="G115">
-        <v>-0.02457541449839162</v>
+        <v>-0.02507342529861178</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3048,7 +3048,7 @@
         <v>147</v>
       </c>
       <c r="B116">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C116">
         <v>0.2993197278911565</v>
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.70486634348958</v>
+        <v>-2.702754548686601</v>
       </c>
       <c r="G116">
-        <v>-0.0247615580349696</v>
+        <v>-0.0243030047832602</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3071,7 +3071,7 @@
         <v>147</v>
       </c>
       <c r="B117">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C117">
         <v>0.3061224489795918</v>
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.709396308909672</v>
+        <v>-2.707649860877265</v>
       </c>
       <c r="G117">
-        <v>-0.02669159820054245</v>
+        <v>-0.02603624392412707</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3094,7 +3094,7 @@
         <v>147</v>
       </c>
       <c r="B118">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C118">
         <v>0.3129251700680272</v>
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.713999934567607</v>
+        <v>-2.711870774444793</v>
       </c>
       <c r="G118">
-        <v>-0.02755626580709936</v>
+        <v>-0.02709508444185782</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3117,7 +3117,7 @@
         <v>147</v>
       </c>
       <c r="B119">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C119">
         <v>0.3197278911564626</v>
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.718087160631557</v>
+        <v>-2.71559937802222</v>
       </c>
       <c r="G119">
-        <v>-0.02840504366374064</v>
+        <v>-0.02766161496948727</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3140,7 +3140,7 @@
         <v>147</v>
       </c>
       <c r="B120">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C120">
         <v>0.3265306122448979</v>
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.722772039681174</v>
+        <v>-2.721676598576514</v>
       </c>
       <c r="G120">
-        <v>-0.02983829967579998</v>
+        <v>-0.03057676247398344</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3163,7 +3163,7 @@
         <v>147</v>
       </c>
       <c r="B121">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C121">
         <v>0.3333333333333333</v>
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.726695613359503</v>
+        <v>-2.725802032903252</v>
       </c>
       <c r="G121">
-        <v>-0.03140567682270468</v>
+        <v>-0.03154012375092363</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3186,7 +3186,7 @@
         <v>147</v>
       </c>
       <c r="B122">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C122">
         <v>0.3401360544217687</v>
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.730486911952866</v>
+        <v>-2.730336876557512</v>
       </c>
       <c r="G122">
-        <v>-0.03221737025542892</v>
+        <v>-0.03291289435538691</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3209,7 +3209,7 @@
         <v>147</v>
       </c>
       <c r="B123">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C123">
         <v>0.3469387755102041</v>
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.734846155893734</v>
+        <v>-2.733900109873641</v>
       </c>
       <c r="G123">
-        <v>-0.03370969925647094</v>
+        <v>-0.0333140546217181</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3232,7 +3232,7 @@
         <v>147</v>
       </c>
       <c r="B124">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C124">
         <v>0.3537414965986395</v>
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.739522685131938</v>
+        <v>-2.738912504548309</v>
       </c>
       <c r="G124">
-        <v>-0.03514288028980883</v>
+        <v>-0.03516437624658919</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3255,7 +3255,7 @@
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C125">
         <v>0.3605442176870748</v>
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.74401517718343</v>
+        <v>-2.743776401673228</v>
       </c>
       <c r="G125">
-        <v>-0.03707442385441495</v>
+        <v>-0.0368662003217104</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3278,7 +3278,7 @@
         <v>147</v>
       </c>
       <c r="B126">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C126">
         <v>0.3673469387755102</v>
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.748422378933931</v>
+        <v>-2.748391826956433</v>
       </c>
       <c r="G126">
-        <v>-0.03808983306563318</v>
+        <v>-0.03831955255511854</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3301,7 +3301,7 @@
         <v>147</v>
       </c>
       <c r="B127">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C127">
         <v>0.3741496598639456</v>
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.753068356194635</v>
+        <v>-2.753068356194636</v>
       </c>
       <c r="G127">
-        <v>-0.03983400874352316</v>
+        <v>-0.0398340087435245</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3324,7 +3324,7 @@
         <v>147</v>
       </c>
       <c r="B128">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C128">
         <v>0.3809523809523809</v>
@@ -3347,7 +3347,7 @@
         <v>147</v>
       </c>
       <c r="B129">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C129">
         <v>0.3877551020408163</v>
@@ -3362,7 +3362,7 @@
         <v>-2.75865646320407</v>
       </c>
       <c r="G129">
-        <v>-0.03909796965336354</v>
+        <v>-0.0390979696533631</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3370,7 +3370,7 @@
         <v>147</v>
       </c>
       <c r="B130">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C130">
         <v>0.3945578231292517</v>
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.761450516708787</v>
+        <v>-2.761450516708786</v>
       </c>
       <c r="G130">
-        <v>-0.03872995010828362</v>
+        <v>-0.03872995010828273</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3393,7 +3393,7 @@
         <v>147</v>
       </c>
       <c r="B131">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C131">
         <v>0.4013605442176871</v>
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.764316887954308</v>
+        <v>-2.764244570213503</v>
       </c>
       <c r="G131">
-        <v>-0.03836193056320303</v>
+        <v>-0.0383619305632017</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3416,7 +3416,7 @@
         <v>147</v>
       </c>
       <c r="B132">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C132">
         <v>0.4081632653061225</v>
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.767110941459025</v>
+        <v>-2.767038623718219</v>
       </c>
       <c r="G132">
-        <v>-0.03799391101812355</v>
+        <v>-0.03799391101812089</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3439,7 +3439,7 @@
         <v>147</v>
       </c>
       <c r="B133">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C133">
         <v>0.4149659863945578</v>
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.769977312704546</v>
+        <v>-2.769977312704544</v>
       </c>
       <c r="G133">
-        <v>-0.0376982092138467</v>
+        <v>-0.03777052695464822</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3462,7 +3462,7 @@
         <v>147</v>
       </c>
       <c r="B134">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C134">
         <v>0.4217687074829932</v>
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.772843683950066</v>
+        <v>-2.77277136620926</v>
       </c>
       <c r="G134">
-        <v>-0.03725787192796304</v>
+        <v>-0.03740250740956741</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3485,7 +3485,7 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C135">
         <v>0.4285714285714285</v>
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.775637737454784</v>
+        <v>-2.775637737454781</v>
       </c>
       <c r="G135">
-        <v>-0.03710680560529322</v>
+        <v>-0.03710680560529056</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3508,7 +3508,7 @@
         <v>147</v>
       </c>
       <c r="B136">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C136">
         <v>0.4353741496598639</v>
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.778504108700304</v>
+        <v>-2.778504108700301</v>
       </c>
       <c r="G136">
-        <v>-0.0367387860602133</v>
+        <v>-0.03681110380101305</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3531,7 +3531,7 @@
         <v>147</v>
       </c>
       <c r="B137">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C137">
         <v>0.4421768707482993</v>
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.781370479945824</v>
+        <v>-2.781370479945821</v>
       </c>
       <c r="G137">
-        <v>-0.03644308425593645</v>
+        <v>-0.0365154019967362</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3554,7 +3554,7 @@
         <v>147</v>
       </c>
       <c r="B138">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C138">
         <v>0.4489795918367347</v>
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.784330949867019</v>
+        <v>-2.784164533450538</v>
       </c>
       <c r="G138">
-        <v>-0.03583777890008522</v>
+        <v>-0.03614738245165583</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3577,7 +3577,7 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C139">
         <v>0.4557823129251701</v>
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.787052685630933</v>
+        <v>-2.787125003371733</v>
       </c>
       <c r="G139">
-        <v>-0.03563617577148293</v>
+        <v>-0.03594577932305354</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3600,7 +3600,7 @@
         <v>147</v>
       </c>
       <c r="B140">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C140">
         <v>0.4625850340136055</v>
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.790377912374468</v>
+        <v>-2.789299849773301</v>
       </c>
       <c r="G140">
-        <v>-0.03510173980992559</v>
+        <v>-0.03495855267482439</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3623,7 +3623,7 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C141">
         <v>0.4693877551020408</v>
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.792901307732519</v>
+        <v>-2.792093903278018</v>
       </c>
       <c r="G141">
-        <v>-0.03539793758424459</v>
+        <v>-0.03459053312974314</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3646,7 +3646,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C142">
         <v>0.4761904761904762</v>
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.796115271330342</v>
+        <v>-2.795037208729174</v>
       </c>
       <c r="G142">
-        <v>-0.03384059229229197</v>
+        <v>-0.03437176553110244</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3669,7 +3669,7 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C143">
         <v>0.4829931972789115</v>
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.798616885753523</v>
+        <v>-2.797814097763852</v>
       </c>
       <c r="G143">
-        <v>-0.03453347087833536</v>
+        <v>-0.03398658151598322</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3692,7 +3692,7 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C144">
         <v>0.4897959183673469</v>
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.801376610318165</v>
+        <v>-2.801067006766584</v>
       </c>
       <c r="G144">
-        <v>-0.03438702102049884</v>
+        <v>-0.03407741746891801</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3715,7 +3715,7 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C145">
         <v>0.4965986394557823</v>
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.804204992762958</v>
+        <v>-2.802909020335195</v>
       </c>
       <c r="G145">
-        <v>-0.03405333041549374</v>
+        <v>-0.03275735798773072</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3738,7 +3738,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C146">
         <v>0.5034013605442177</v>
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.807406408355576</v>
+        <v>-2.806285740488844</v>
       </c>
       <c r="G146">
-        <v>-0.03211761682303038</v>
+        <v>-0.03297200509158316</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3761,7 +3761,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C147">
         <v>0.5102040816326531</v>
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.809337904135031</v>
+        <v>-2.808702489166015</v>
       </c>
       <c r="G147">
-        <v>-0.03213258204329383</v>
+        <v>-0.03222668071895596</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3784,7 +3784,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C148">
         <v>0.5170068027210885</v>
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.812706692748307</v>
+        <v>-2.81191885771453</v>
       </c>
       <c r="G148">
-        <v>-0.03185404470905451</v>
+        <v>-0.03228097621767412</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3807,7 +3807,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C149">
         <v>0.5238095238095238</v>
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.815099448976467</v>
+        <v>-2.81432593386335</v>
       </c>
       <c r="G149">
-        <v>-0.03136159013877893</v>
+        <v>-0.03152597931669709</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3830,7 +3830,7 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C150">
         <v>0.5306122448979592</v>
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.818289559418629</v>
+        <v>-2.816646618512839</v>
       </c>
       <c r="G150">
-        <v>-0.03056231422218847</v>
+        <v>-0.0306845909163882</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3853,7 +3853,7 @@
         <v>147</v>
       </c>
       <c r="B151">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C151">
         <v>0.5374149659863946</v>
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.820693999010115</v>
+        <v>-2.819252474666205</v>
       </c>
       <c r="G151">
-        <v>-0.03156989836386659</v>
+        <v>-0.03012837401995672</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3876,7 +3876,7 @@
         <v>147</v>
       </c>
       <c r="B152">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C152">
         <v>0.54421768707483</v>
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.824486397746797</v>
+        <v>-2.824104476454406</v>
       </c>
       <c r="G152">
-        <v>-0.030223202563463</v>
+        <v>-0.03181830275836117</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3899,7 +3899,7 @@
         <v>147</v>
       </c>
       <c r="B153">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C153">
         <v>0.5510204081632653</v>
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.826547908781864</v>
+        <v>-2.825681026193708</v>
       </c>
       <c r="G153">
-        <v>-0.02988980356040938</v>
+        <v>-0.03023277944786495</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3922,7 +3922,7 @@
         <v>147</v>
       </c>
       <c r="B154">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C154">
         <v>0.5578231292517006</v>
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.829837218945462</v>
+        <v>-2.82793808641989</v>
       </c>
       <c r="G154">
-        <v>-0.02987817840199236</v>
+        <v>-0.02932776662424974</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3945,7 +3945,7 @@
         <v>147</v>
       </c>
       <c r="B155">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C155">
         <v>0.564625850340136</v>
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.832321668898604</v>
+        <v>-2.830985350508042</v>
       </c>
       <c r="G155">
-        <v>-0.02969133479273811</v>
+        <v>-0.02921295766260457</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3968,7 +3968,7 @@
         <v>147</v>
       </c>
       <c r="B156">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C156">
         <v>0.5714285714285714</v>
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.835192656608957</v>
+        <v>-2.836188975560663</v>
       </c>
       <c r="G156">
-        <v>-0.02893259192091979</v>
+        <v>-0.03125450966542842</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3991,7 +3991,7 @@
         <v>147</v>
       </c>
       <c r="B157">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C157">
         <v>0.5782312925170068</v>
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.838740409643915</v>
+        <v>-2.837875446967947</v>
       </c>
       <c r="G157">
-        <v>-0.02980068895780175</v>
+        <v>-0.02977890802291538</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4014,7 +4014,7 @@
         <v>147</v>
       </c>
       <c r="B158">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C158">
         <v>0.5850340136054422</v>
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.840669500472681</v>
+        <v>-2.841217838181521</v>
       </c>
       <c r="G158">
-        <v>-0.02821978211214016</v>
+        <v>-0.02995922618669167</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4037,7 +4037,7 @@
         <v>147</v>
       </c>
       <c r="B159">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C159">
         <v>0.5918367346938775</v>
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.844308323358343</v>
+        <v>-2.843721664118841</v>
       </c>
       <c r="G159">
-        <v>-0.02769395474839409</v>
+        <v>-0.02930097907421403</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4060,7 +4060,7 @@
         <v>147</v>
       </c>
       <c r="B160">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C160">
         <v>0.5986394557823129</v>
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.84710237686306</v>
+        <v>-2.846991113717332</v>
       </c>
       <c r="G160">
-        <v>-0.0295196187686364</v>
+        <v>-0.02940835562290856</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4083,7 +4083,7 @@
         <v>147</v>
       </c>
       <c r="B161">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C161">
         <v>0.6054421768707483</v>
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.850553626271653</v>
+        <v>-2.84925606620402</v>
       </c>
       <c r="G161">
-        <v>-0.02760213311917692</v>
+        <v>-0.02851123505979869</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4106,7 +4106,7 @@
         <v>147</v>
       </c>
       <c r="B162">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C162">
         <v>0.6122448979591837</v>
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.853130393824059</v>
+        <v>-2.851591071231748</v>
       </c>
       <c r="G162">
-        <v>-0.02853571075693051</v>
+        <v>-0.02768416703772936</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4129,7 +4129,7 @@
         <v>147</v>
       </c>
       <c r="B163">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C163">
         <v>0.6190476190476191</v>
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.85578366514437</v>
+        <v>-2.854810175155198</v>
       </c>
       <c r="G163">
-        <v>-0.02757906707793756</v>
+        <v>-0.02774119791138208</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4152,7 +4152,7 @@
         <v>147</v>
       </c>
       <c r="B164">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C164">
         <v>0.6258503401360545</v>
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.858959446504916</v>
+        <v>-2.858848376795736</v>
       </c>
       <c r="G164">
-        <v>-0.02806417934947614</v>
+        <v>-0.02861732650212223</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4175,7 +4175,7 @@
         <v>147</v>
       </c>
       <c r="B165">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C165">
         <v>0.6326530612244898</v>
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.861792013128727</v>
+        <v>-2.861059763651519</v>
       </c>
       <c r="G165">
-        <v>-0.02839888978531679</v>
+        <v>-0.02766664030810839</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4198,7 +4198,7 @@
         <v>147</v>
       </c>
       <c r="B166">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C166">
         <v>0.6394557823129252</v>
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.865458436531402</v>
+        <v>-2.864512794136528</v>
       </c>
       <c r="G166">
-        <v>-0.02813939755343986</v>
+        <v>-0.02795759774332041</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4221,7 +4221,7 @@
         <v>147</v>
       </c>
       <c r="B167">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C167">
         <v>0.6462585034013606</v>
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.868418906452597</v>
+        <v>-2.867362624786288</v>
       </c>
       <c r="G167">
-        <v>-0.02729935063086253</v>
+        <v>-0.02764535534328227</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B168">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C168">
         <v>0.6530612244897959</v>
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.871195795487276</v>
+        <v>-2.869479912966396</v>
       </c>
       <c r="G168">
-        <v>-0.02707418549097607</v>
+        <v>-0.02660057047359377</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4267,7 +4267,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C169">
         <v>0.6598639455782312</v>
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.873883202311115</v>
+        <v>-2.873517821614478</v>
       </c>
       <c r="G169">
-        <v>-0.02641834332919391</v>
+        <v>-0.02747640607187785</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4290,7 +4290,7 @@
         <v>147</v>
       </c>
       <c r="B170">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C170">
         <v>0.6666666666666666</v>
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.877172027893785</v>
+        <v>-2.875529086987982</v>
       </c>
       <c r="G170">
-        <v>-0.02791578913322912</v>
+        <v>-0.02632559839558501</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4313,7 +4313,7 @@
         <v>147</v>
       </c>
       <c r="B171">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C171">
         <v>0.673469387755102</v>
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.880314297625082</v>
+        <v>-2.878781995990713</v>
       </c>
       <c r="G171">
-        <v>-0.02690437844752203</v>
+        <v>-0.02641643434851848</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>147</v>
       </c>
       <c r="B172">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C172">
         <v>0.6802721088435374</v>
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.88259579070753</v>
+        <v>-2.882506308496666</v>
       </c>
       <c r="G172">
-        <v>-0.02640855516097051</v>
+        <v>-0.02697867380467356</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4359,7 +4359,7 @@
         <v>147</v>
       </c>
       <c r="B173">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C173">
         <v>0.6870748299319728</v>
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885665118823746</v>
+        <v>-2.885099616644827</v>
       </c>
       <c r="G173">
-        <v>-0.02659348978957943</v>
+        <v>-0.02640990890303763</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4382,7 +4382,7 @@
         <v>147</v>
       </c>
       <c r="B174">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C174">
         <v>0.6938775510204082</v>
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.88860875515672</v>
+        <v>-2.8884420078584</v>
       </c>
       <c r="G174">
-        <v>-0.02650074485599763</v>
+        <v>-0.02659022706681335</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4405,7 +4405,7 @@
         <v>147</v>
       </c>
       <c r="B175">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C175">
         <v>0.7006802721088435</v>
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.891893257267018</v>
+        <v>-2.891511335974615</v>
       </c>
       <c r="G175">
-        <v>-0.02649748213325698</v>
+        <v>-0.02649748213323078</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4428,7 +4428,7 @@
         <v>147</v>
       </c>
       <c r="B176">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C176">
         <v>0.7074829931972789</v>
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.894670146301697</v>
+        <v>-2.894580664090829</v>
       </c>
       <c r="G176">
-        <v>-0.02640473719967529</v>
+        <v>-0.02640473719964775</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4451,7 +4451,7 @@
         <v>147</v>
       </c>
       <c r="B177">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C177">
         <v>0.7142857142857143</v>
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.897739474417913</v>
+        <v>-2.897739474417885</v>
       </c>
       <c r="G177">
-        <v>-0.02640147447693364</v>
+        <v>-0.02640147447690655</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4474,7 +4474,7 @@
         <v>147</v>
       </c>
       <c r="B178">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C178">
         <v>0.7210884353741497</v>
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.900443421837509</v>
+        <v>-2.900443421837483</v>
       </c>
       <c r="G178">
-        <v>-0.02594334884673333</v>
+        <v>-0.02594334884670668</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4497,7 +4497,7 @@
         <v>147</v>
       </c>
       <c r="B179">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C179">
         <v>0.7278911564625851</v>
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.903459999785567</v>
+        <v>-2.90314736925708</v>
       </c>
       <c r="G179">
-        <v>-0.02548522321653346</v>
+        <v>-0.02548522321650637</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4520,7 +4520,7 @@
         <v>147</v>
       </c>
       <c r="B180">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C180">
         <v>0.7346938775510204</v>
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.906163947205164</v>
+        <v>-2.905851316676677</v>
       </c>
       <c r="G180">
-        <v>-0.02502709758633304</v>
+        <v>-0.02502709758630595</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4543,7 +4543,7 @@
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C181">
         <v>0.7414965986394558</v>
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.909180525153221</v>
+        <v>-2.908555264096274</v>
       </c>
       <c r="G181">
-        <v>-0.02488160248459292</v>
+        <v>-0.02456897195610608</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4566,7 +4566,7 @@
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C182">
         <v>0.7482993197278912</v>
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.911884472572818</v>
+        <v>-2.911571842044332</v>
       </c>
       <c r="G182">
-        <v>-0.02442347685439261</v>
+        <v>-0.02442347685436597</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4589,7 +4589,7 @@
         <v>147</v>
       </c>
       <c r="B183">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C183">
         <v>0.7551020408163265</v>
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.914588419992415</v>
+        <v>-2.91458841999239</v>
       </c>
       <c r="G183">
-        <v>-0.02365272069573177</v>
+        <v>-0.0242779817526273</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4612,7 +4612,7 @@
         <v>147</v>
       </c>
       <c r="B184">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C184">
         <v>0.7619047619047619</v>
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.917604997940472</v>
+        <v>-2.917292367411987</v>
       </c>
       <c r="G184">
-        <v>-0.0235072255939921</v>
+        <v>-0.02381985612242654</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4635,7 +4635,7 @@
         <v>147</v>
       </c>
       <c r="B185">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C185">
         <v>0.7687074829931972</v>
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.920621575888529</v>
+        <v>-2.919996314831584</v>
       </c>
       <c r="G185">
-        <v>-0.02367436102071163</v>
+        <v>-0.02336173049222656</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4658,7 +4658,7 @@
         <v>147</v>
       </c>
       <c r="B186">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C186">
         <v>0.7755102040816326</v>
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.923325523308127</v>
+        <v>-2.922700262251181</v>
       </c>
       <c r="G186">
-        <v>-0.02290360486205156</v>
+        <v>-0.02290360486202625</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4681,7 +4681,7 @@
         <v>147</v>
       </c>
       <c r="B187">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C187">
         <v>0.782312925170068</v>
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.926029470727724</v>
+        <v>-2.925716840199239</v>
       </c>
       <c r="G187">
-        <v>-0.0227581097603119</v>
+        <v>-0.02275810976028703</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4704,7 +4704,7 @@
         <v>147</v>
       </c>
       <c r="B188">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C188">
         <v>0.7891156462585034</v>
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.929046048675781</v>
+        <v>-2.928733418147297</v>
       </c>
       <c r="G188">
-        <v>-0.02261261465857212</v>
+        <v>-0.02261261465854769</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4727,7 +4727,7 @@
         <v>147</v>
       </c>
       <c r="B189">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C189">
         <v>0.7959183673469388</v>
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.931749996095378</v>
+        <v>-2.931749996095355</v>
       </c>
       <c r="G189">
-        <v>-0.02246711955683112</v>
+        <v>-0.02246711955680802</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4750,7 +4750,7 @@
         <v>147</v>
       </c>
       <c r="B190">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C190">
         <v>0.8027210884353742</v>
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.934766574043436</v>
+        <v>-2.934453943514953</v>
       </c>
       <c r="G190">
-        <v>-0.02164361323001263</v>
+        <v>-0.0220089939266086</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4773,7 +4773,7 @@
         <v>147</v>
       </c>
       <c r="B191">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C191">
         <v>0.8095238095238095</v>
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.937783151991494</v>
+        <v>-2.937157890934551</v>
       </c>
       <c r="G191">
-        <v>-0.02217612935335217</v>
+        <v>-0.02155086829640912</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4796,7 +4796,7 @@
         <v>147</v>
       </c>
       <c r="B192">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C192">
         <v>0.8163265306122449</v>
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.940487099411091</v>
+        <v>-2.940174468882609</v>
       </c>
       <c r="G192">
-        <v>-0.02140537319469121</v>
+        <v>-0.02140537319467034</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4819,7 +4819,7 @@
         <v>147</v>
       </c>
       <c r="B193">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C193">
         <v>0.8231292517006803</v>
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.943191046830688</v>
+        <v>-2.943191046830667</v>
       </c>
       <c r="G193">
-        <v>-0.02125987809295149</v>
+        <v>-0.02125987809293017</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4842,7 +4842,7 @@
         <v>147</v>
       </c>
       <c r="B194">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C194">
         <v>0.8299319727891157</v>
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.946207624778745</v>
+        <v>-2.945894994250264</v>
       </c>
       <c r="G194">
-        <v>-0.02080175246275112</v>
+        <v>-0.02080175246273069</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4865,7 +4865,7 @@
         <v>147</v>
       </c>
       <c r="B195">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C195">
         <v>0.8367346938775511</v>
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.948911572198342</v>
+        <v>-2.948911572198323</v>
       </c>
       <c r="G195">
-        <v>-0.02065625736101101</v>
+        <v>-0.02065625736099191</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4888,7 +4888,7 @@
         <v>147</v>
       </c>
       <c r="B196">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C196">
         <v>0.8435374149659864</v>
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.9519281501464</v>
+        <v>-2.951928150146381</v>
       </c>
       <c r="G196">
-        <v>-0.02051076225927173</v>
+        <v>-0.02051076225925308</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4911,7 +4911,7 @@
         <v>147</v>
       </c>
       <c r="B197">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C197">
         <v>0.8503401360544217</v>
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.954944728094457</v>
+        <v>-2.95494472809444</v>
       </c>
       <c r="G197">
-        <v>-0.02036526715753173</v>
+        <v>-0.02036526715751397</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4934,7 +4934,7 @@
         <v>147</v>
       </c>
       <c r="B198">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C198">
         <v>0.8571428571428571</v>
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.957504726361625</v>
+        <v>-2.957036377242337</v>
       </c>
       <c r="G198">
-        <v>-0.01929484325563313</v>
+        <v>-0.01929484325561448</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4957,7 +4957,7 @@
         <v>147</v>
       </c>
       <c r="B199">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C199">
         <v>0.8639455782312925</v>
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.959596375509523</v>
+        <v>-2.959128026390235</v>
       </c>
       <c r="G199">
-        <v>-0.01869276847300322</v>
+        <v>-0.01822441935371494</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4980,7 +4980,7 @@
         <v>147</v>
       </c>
       <c r="B200">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C200">
         <v>0.8707482993197279</v>
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.962025704222315</v>
+        <v>-2.961688024657402</v>
       </c>
       <c r="G200">
-        <v>-0.01762234457110506</v>
+        <v>-0.01762234457108508</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5003,7 +5003,7 @@
         <v>147</v>
       </c>
       <c r="B201">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C201">
         <v>0.8775510204081632</v>
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.96424802292459</v>
+        <v>-2.963311324686031</v>
       </c>
       <c r="G201">
-        <v>-0.01608357154993767</v>
+        <v>-0.01608357154991547</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5026,7 +5026,7 @@
         <v>147</v>
       </c>
       <c r="B202">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C202">
         <v>0.8843537414965986</v>
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.96667735163738</v>
+        <v>-2.966546682082984</v>
       </c>
       <c r="G202">
-        <v>-0.0158191763321997</v>
+        <v>-0.01615685589707211</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5049,7 +5049,7 @@
         <v>147</v>
       </c>
       <c r="B203">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C203">
         <v>0.891156462585034</v>
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.969106680350172</v>
+        <v>-2.968431321220365</v>
       </c>
       <c r="G203">
-        <v>-0.01474875243030155</v>
+        <v>-0.01487942198465525</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5072,7 +5072,7 @@
         <v>147</v>
       </c>
       <c r="B204">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C204">
         <v>0.8979591836734694</v>
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.971198329498071</v>
+        <v>-2.970392300813887</v>
       </c>
       <c r="G204">
-        <v>-0.01401600809329573</v>
+        <v>-0.0136783285283798</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5095,7 +5095,7 @@
         <v>147</v>
       </c>
       <c r="B205">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C205">
         <v>0.9047619047619048</v>
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.973289978645969</v>
+        <v>-2.972821629526678</v>
       </c>
       <c r="G205">
-        <v>-0.01307625374577301</v>
+        <v>-0.01294558419137312</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5118,7 +5118,7 @@
         <v>147</v>
       </c>
       <c r="B206">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C206">
         <v>0.9115646258503401</v>
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.97571930735876</v>
+        <v>-2.975250958239469</v>
       </c>
       <c r="G206">
-        <v>-0.01213806656213784</v>
+        <v>-0.01221283985436733</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5141,7 +5141,7 @@
         <v>147</v>
       </c>
       <c r="B207">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C207">
         <v>0.9183673469387755</v>
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.97781095650666</v>
+        <v>-2.977810956506636</v>
       </c>
       <c r="G207">
-        <v>-0.01161076507176054</v>
+        <v>-0.01161076507173744</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5164,7 +5164,7 @@
         <v>147</v>
       </c>
       <c r="B208">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C208">
         <v>0.9251700680272109</v>
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.980296181481574</v>
+        <v>-2.980240285219427</v>
       </c>
       <c r="G208">
-        <v>-0.0108780207347543</v>
+        <v>-0.01087802073473121</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5187,7 +5187,7 @@
         <v>147</v>
       </c>
       <c r="B209">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C209">
         <v>0.9319727891156463</v>
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.982669613932242</v>
+        <v>-2.982669613932219</v>
       </c>
       <c r="G209">
-        <v>-0.01014527639774848</v>
+        <v>-0.01014527639772539</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5210,7 +5210,7 @@
         <v>147</v>
       </c>
       <c r="B210">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C210">
         <v>0.9387755102040817</v>
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.984817159342265</v>
+        <v>-2.984817159342243</v>
       </c>
       <c r="G210">
-        <v>-0.009130748757973622</v>
+        <v>-0.009130748757952306</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5233,7 +5233,7 @@
         <v>147</v>
       </c>
       <c r="B211">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C211">
         <v>0.9455782312925171</v>
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.986964704752287</v>
+        <v>-2.986964704752268</v>
       </c>
       <c r="G211">
-        <v>-0.008116221118198763</v>
+        <v>-0.008116221118180111</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5256,7 +5256,7 @@
         <v>147</v>
       </c>
       <c r="B212">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C212">
         <v>0.9523809523809523</v>
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.98911225016231</v>
+        <v>-2.989112250162294</v>
       </c>
       <c r="G212">
-        <v>-0.007101693478424057</v>
+        <v>-0.007101693478408069</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5279,7 +5279,7 @@
         <v>147</v>
       </c>
       <c r="B213">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C213">
         <v>0.9591836734693877</v>
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-2.991259795572332</v>
+        <v>-2.991259795572318</v>
       </c>
       <c r="G213">
-        <v>-0.006087165838648753</v>
+        <v>-0.006087165838634986</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5302,7 +5302,7 @@
         <v>147</v>
       </c>
       <c r="B214">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C214">
         <v>0.9659863945578231</v>
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-2.993407340982355</v>
+        <v>-2.993407340982343</v>
       </c>
       <c r="G214">
-        <v>-0.005072638198874324</v>
+        <v>-0.005072638198862778</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5325,7 +5325,7 @@
         <v>147</v>
       </c>
       <c r="B215">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C215">
         <v>0.9727891156462585</v>
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-2.995554886392377</v>
+        <v>-2.995554886392368</v>
       </c>
       <c r="G215">
-        <v>-0.004058110559099465</v>
+        <v>-0.004058110559090583</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5348,7 +5348,7 @@
         <v>147</v>
       </c>
       <c r="B216">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C216">
         <v>0.9795918367346939</v>
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-2.997702431802399</v>
+        <v>-2.997702431802393</v>
       </c>
       <c r="G216">
-        <v>-0.003043582919324599</v>
+        <v>-0.003043582919318381</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5371,7 +5371,7 @@
         <v>147</v>
       </c>
       <c r="B217">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C217">
         <v>0.9863945578231292</v>
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-2.999849977212422</v>
+        <v>-2.999849977212418</v>
       </c>
       <c r="G217">
-        <v>-0.002029055279549732</v>
+        <v>-0.002029055279545292</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5394,7 +5394,7 @@
         <v>147</v>
       </c>
       <c r="B218">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C218">
         <v>0.9931972789115646</v>
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-3.001997522622445</v>
+        <v>-3.001997522622443</v>
       </c>
       <c r="G218">
-        <v>-0.001014527639774866</v>
+        <v>-0.00101452763977309</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5417,7 +5417,7 @@
         <v>147</v>
       </c>
       <c r="B219">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-3.004145068032467</v>
+        <v>-3.004145068032468</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5440,7 +5440,7 @@
         <v>309</v>
       </c>
       <c r="B220">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-2.631196380133129</v>
+        <v>-2.631196380133147</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>-1.77635683940025e-14</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5463,7 +5463,7 @@
         <v>309</v>
       </c>
       <c r="B221">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C221">
         <v>0.0970873786407767</v>
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.677694091973775</v>
+        <v>-2.676490962514133</v>
       </c>
       <c r="G221">
-        <v>0.002661706618874771</v>
+        <v>0.001466847445290131</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5486,7 +5486,7 @@
         <v>309</v>
       </c>
       <c r="B222">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C222">
         <v>0.1974110032362459</v>
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.728020768958483</v>
+        <v>-2.72849564270039</v>
       </c>
       <c r="G222">
-        <v>-0.0005659709599350471</v>
+        <v>-0.002217688587131228</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5509,7 +5509,7 @@
         <v>309</v>
       </c>
       <c r="B223">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C223">
         <v>0.2977346278317152</v>
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.784113494588732</v>
+        <v>-2.78749776107002</v>
       </c>
       <c r="G223">
-        <v>-0.008607105083761057</v>
+        <v>-0.01289966280292432</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5532,7 +5532,7 @@
         <v>309</v>
       </c>
       <c r="B224">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C224">
         <v>0.3980582524271845</v>
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.845332442740399</v>
+        <v>-2.84729541997542</v>
       </c>
       <c r="G224">
-        <v>-0.021579004173923</v>
+        <v>-0.02437717755448698</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5555,7 +5555,7 @@
         <v>309</v>
       </c>
       <c r="B225">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C225">
         <v>0.4983818770226537</v>
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.905656761096613</v>
+        <v>-2.905604285842225</v>
       </c>
       <c r="G225">
-        <v>-0.03423473425477486</v>
+        <v>-0.03436589926745537</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5578,7 +5578,7 @@
         <v>309</v>
       </c>
       <c r="B226">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C226">
         <v>0.598705501618123</v>
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.948945447768051</v>
+        <v>-2.948506516487283</v>
       </c>
       <c r="G226">
-        <v>-0.02902146008214235</v>
+        <v>-0.02894798575867652</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5601,7 +5601,7 @@
         <v>309</v>
       </c>
       <c r="B227">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C227">
         <v>0.6990291262135923</v>
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.991020806948518</v>
+        <v>-2.990661926116104</v>
       </c>
       <c r="G227">
-        <v>-0.0218338312233014</v>
+        <v>-0.02278325123366109</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B228">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C228">
         <v>0.7993527508090615</v>
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.036015972153115</v>
+        <v>-3.03587204632551</v>
       </c>
       <c r="G228">
-        <v>-0.01969424981835199</v>
+        <v>-0.0196732272892296</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5647,7 +5647,7 @@
         <v>309</v>
       </c>
       <c r="B229">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C229">
         <v>0.8996763754045307</v>
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.078223882005334</v>
+        <v>-3.07812374010101</v>
       </c>
       <c r="G229">
-        <v>-0.01370491881521763</v>
+        <v>-0.01360477691089312</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5670,7 +5670,7 @@
         <v>309</v>
       </c>
       <c r="B230">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.112839107343953</v>
+        <v>-3.11283910734396</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>-6.217248937900877e-15</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5693,7 +5693,7 @@
         <v>561</v>
       </c>
       <c r="B231">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-2.689721342252404</v>
+        <v>-2.689721342252327</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>7.682743330406083e-14</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5716,7 +5716,7 @@
         <v>561</v>
       </c>
       <c r="B232">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C232">
         <v>0.09982174688057041</v>
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.733198463687337</v>
+        <v>-2.732763479010833</v>
       </c>
       <c r="G232">
-        <v>0.006766216553027338</v>
+        <v>0.006105676401912508</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5739,7 +5739,7 @@
         <v>561</v>
       </c>
       <c r="B233">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C233">
         <v>0.1996434937611408</v>
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.78305872332269</v>
+        <v>-2.783967006479799</v>
       </c>
       <c r="G233">
-        <v>0.007149872150302272</v>
+        <v>0.00404996209329056</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5762,7 +5762,7 @@
         <v>561</v>
       </c>
       <c r="B234">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C234">
         <v>0.2994652406417112</v>
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.835975532126324</v>
+        <v>-2.840310021248909</v>
       </c>
       <c r="G234">
-        <v>0.004260985750306645</v>
+        <v>-0.003145239515477627</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5785,7 +5785,7 @@
         <v>561</v>
       </c>
       <c r="B235">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C235">
         <v>0.3992869875222816</v>
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.894556773009858</v>
+        <v>-2.896740770741163</v>
       </c>
       <c r="G235">
-        <v>-0.006267745300134298</v>
+        <v>-0.01042817584738875</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5808,7 +5808,7 @@
         <v>561</v>
       </c>
       <c r="B236">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C236">
         <v>0.499108734402852</v>
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.958526047342143</v>
+        <v>-2.958447232431133</v>
       </c>
       <c r="G236">
-        <v>-0.02222702944894772</v>
+        <v>-0.02298682437701549</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5831,7 +5831,7 @@
         <v>561</v>
       </c>
       <c r="B237">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C237">
         <v>0.5989304812834224</v>
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013429154736025</v>
+        <v>-3.013280097455052</v>
       </c>
       <c r="G237">
-        <v>-0.02856768685908451</v>
+        <v>-0.02867187624059264</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5854,7 +5854,7 @@
         <v>561</v>
       </c>
       <c r="B238">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C238">
         <v>0.6987522281639929</v>
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.057332808307637</v>
+        <v>-3.056718975778266</v>
       </c>
       <c r="G238">
-        <v>-0.02291999178246606</v>
+        <v>-0.02296294140346311</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5877,7 +5877,7 @@
         <v>561</v>
       </c>
       <c r="B239">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C239">
         <v>0.7985739750445633</v>
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.100120109378834</v>
+        <v>-3.100046267908795</v>
       </c>
       <c r="G239">
-        <v>-0.01662277897930009</v>
+        <v>-0.01714242037365032</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5900,7 +5900,7 @@
         <v>561</v>
       </c>
       <c r="B240">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C240">
         <v>0.8983957219251337</v>
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.144169997739556</v>
+        <v>-3.144225156114622</v>
       </c>
       <c r="G240">
-        <v>-0.01189934021018441</v>
+        <v>-0.01217349541913376</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5923,7 +5923,7 @@
         <v>561</v>
       </c>
       <c r="B241">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.182077113376551</v>
+        <v>-3.182077113376498</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>5.284661597215745e-14</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5946,7 +5946,7 @@
         <v>923</v>
       </c>
       <c r="B242">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-2.73018641722108</v>
+        <v>-2.730186417221104</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>-2.442490654175344e-14</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5969,7 +5969,7 @@
         <v>923</v>
       </c>
       <c r="B243">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C243">
         <v>0.09967497291440953</v>
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.772568046163412</v>
+        <v>-2.772680647041966</v>
       </c>
       <c r="G243">
-        <v>0.008715378368267412</v>
+        <v>0.007319627427045727</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5992,7 +5992,7 @@
         <v>923</v>
       </c>
       <c r="B244">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C244">
         <v>0.1993499458288191</v>
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.818724835415692</v>
+        <v>-2.82242329352968</v>
       </c>
       <c r="G244">
-        <v>0.01201750427633241</v>
+        <v>0.007390838187264048</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6015,7 +6015,7 @@
         <v>923</v>
       </c>
       <c r="B245">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C245">
         <v>0.2990249187432286</v>
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.870418240988167</v>
+        <v>-2.875984103398528</v>
       </c>
       <c r="G245">
-        <v>0.009770751777637532</v>
+        <v>0.003643885566348093</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6038,7 +6038,7 @@
         <v>923</v>
       </c>
       <c r="B246">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C246">
         <v>0.399783315276273</v>
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.927833651941091</v>
+        <v>-2.934566245550414</v>
       </c>
       <c r="G246">
-        <v>0.002282888125656468</v>
+        <v>-0.004582944367520048</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6061,7 +6061,7 @@
         <v>923</v>
       </c>
       <c r="B247">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C247">
         <v>0.4994582881906826</v>
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.990235540260886</v>
+        <v>-2.994168692366293</v>
       </c>
       <c r="G247">
-        <v>-0.009809487038388243</v>
+        <v>-0.01437153393546731</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6084,7 +6084,7 @@
         <v>923</v>
       </c>
       <c r="B248">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C248">
         <v>0.5991332611050921</v>
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.057000029651587</v>
+        <v>-3.057133018043072</v>
       </c>
       <c r="G248">
-        <v>-0.02734761830524413</v>
+        <v>-0.02752200236431346</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6107,7 +6107,7 @@
         <v>923</v>
       </c>
       <c r="B249">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C249">
         <v>0.6998916576381365</v>
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.103801531257019</v>
+        <v>-3.104006535529315</v>
       </c>
       <c r="G249">
-        <v>-0.02360961544038265</v>
+        <v>-0.02404020763253811</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6130,7 +6130,7 @@
         <v>923</v>
       </c>
       <c r="B250">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C250">
         <v>0.7995666305525461</v>
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.146015966134337</v>
+        <v>-3.146132142978582</v>
       </c>
       <c r="G250">
-        <v>-0.01581485505185931</v>
+        <v>-0.01635195783387289</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6153,7 +6153,7 @@
         <v>923</v>
       </c>
       <c r="B251">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C251">
         <v>0.8992416034669556</v>
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.190983340374864</v>
+        <v>-3.191006880172271</v>
       </c>
       <c r="G251">
-        <v>-0.01127978397129642</v>
+        <v>-0.01141283777963015</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6176,7 +6176,7 @@
         <v>923</v>
       </c>
       <c r="B252">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.229949354610659</v>
+        <v>-3.229949354610418</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>2.41140440948584e-13</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6199,7 +6199,7 @@
         <v>1415</v>
       </c>
       <c r="B253">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-2.75980554892964</v>
+        <v>-2.75980554892974</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>-9.992007221626409e-14</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6222,7 +6222,7 @@
         <v>1415</v>
       </c>
       <c r="B254">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C254">
         <v>0.09964664310954063</v>
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.80052436913116</v>
+        <v>-2.801715839603767</v>
       </c>
       <c r="G254">
-        <v>0.01058073414629002</v>
+        <v>0.008429673270414106</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6245,7 +6245,7 @@
         <v>1415</v>
       </c>
       <c r="B255">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C255">
         <v>0.2</v>
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.846119187492588</v>
+        <v>-2.849043204369211</v>
       </c>
       <c r="G255">
-        <v>0.01524606679400797</v>
+        <v>0.01179929347039455</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6268,7 +6268,7 @@
         <v>1415</v>
       </c>
       <c r="B256">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C256">
         <v>0.2996466431095406</v>
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.896500639970031</v>
+        <v>-2.902328937642779</v>
       </c>
       <c r="G256">
-        <v>0.0158212654522889</v>
+        <v>0.008853524141368307</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6291,7 +6291,7 @@
         <v>1415</v>
       </c>
       <c r="B257">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C257">
         <v>0.4</v>
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.952090926609042</v>
+        <v>-2.960023067063878</v>
       </c>
       <c r="G257">
-        <v>0.01017427717712227</v>
+        <v>0.001856379685693632</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6314,7 +6314,7 @@
         <v>1415</v>
       </c>
       <c r="B258">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C258">
         <v>0.4996466431095407</v>
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.0126251660195</v>
+        <v>-3.018522369358365</v>
       </c>
       <c r="G258">
-        <v>-0.00023445459305238</v>
+        <v>-0.00630295866425179</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6337,7 +6337,7 @@
         <v>1415</v>
       </c>
       <c r="B259">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C259">
         <v>0.6</v>
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.079220980689925</v>
+        <v>-3.081681656431202</v>
       </c>
       <c r="G259">
-        <v>-0.01628408388362379</v>
+        <v>-0.0187652607716644</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6360,7 +6360,7 @@
         <v>1415</v>
       </c>
       <c r="B260">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C260">
         <v>0.6996466431095406</v>
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135534493863736</v>
+        <v>-3.135451494444085</v>
       </c>
       <c r="G260">
-        <v>-0.02211379003659075</v>
+        <v>-0.02219513484000657</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6383,7 +6383,7 @@
         <v>1415</v>
       </c>
       <c r="B261">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C261">
         <v>0.8</v>
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.180802166383145</v>
+        <v>-3.180427847577763</v>
       </c>
       <c r="G261">
-        <v>-0.01598034786775493</v>
+        <v>-0.0164745030082587</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6406,7 +6406,7 @@
         <v>1415</v>
       </c>
       <c r="B262">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C262">
         <v>0.8996466431095407</v>
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.223870414740894</v>
+        <v>-3.224031864774229</v>
       </c>
       <c r="G262">
-        <v>-0.009525655970546942</v>
+        <v>-0.009738556260183884</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6429,7 +6429,7 @@
         <v>1415</v>
       </c>
       <c r="B263">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.26499029347947</v>
+        <v>-3.26499029348004</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-5.702105454474804e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6452,7 +6452,7 @@
         <v>2057</v>
       </c>
       <c r="B264">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-2.782412269773912</v>
+        <v>-2.782412269774368</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-4.560796185160143e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6475,7 +6475,7 @@
         <v>2057</v>
       </c>
       <c r="B265">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C265">
         <v>0.09965969859017987</v>
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.822178483862678</v>
+        <v>-2.823103152226188</v>
       </c>
       <c r="G265">
-        <v>0.01170554173700067</v>
+        <v>0.01006808663450087</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6498,7 +6498,7 @@
         <v>2057</v>
       </c>
       <c r="B266">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C266">
         <v>0.1998055420515314</v>
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.866901547725988</v>
+        <v>-2.871064012618505</v>
       </c>
       <c r="G266">
-        <v>0.01845620837995821</v>
+        <v>0.01311380005621299</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6521,7 +6521,7 @@
         <v>2057</v>
       </c>
       <c r="B267">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C267">
         <v>0.2999513855128829</v>
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.916339949022771</v>
+        <v>-2.92221175040318</v>
       </c>
       <c r="G267">
-        <v>0.01937000722939275</v>
+        <v>0.01297263608556753</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6544,7 +6544,7 @@
         <v>2057</v>
       </c>
       <c r="B268">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C268">
         <v>0.3996110841030627</v>
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.970634478467093</v>
+        <v>-2.976875396666203</v>
       </c>
       <c r="G268">
-        <v>0.01597952235226674</v>
+        <v>0.009067958909321439</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6567,7 +6567,7 @@
         <v>2057</v>
       </c>
       <c r="B269">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C269">
         <v>0.4997569275644142</v>
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.03043623484528</v>
+        <v>-3.035926231317457</v>
       </c>
       <c r="G269">
-        <v>0.006707989541238524</v>
+        <v>0.001023698072096346</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6590,7 +6590,7 @@
         <v>2057</v>
       </c>
       <c r="B270">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C270">
         <v>0.5999027710257657</v>
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.095840001088006</v>
+        <v>-3.098811109908986</v>
       </c>
       <c r="G270">
-        <v>-0.007337527235406816</v>
+        <v>-0.01085460670540317</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6613,7 +6613,7 @@
         <v>2057</v>
       </c>
       <c r="B271">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C271">
         <v>0.6995624696159456</v>
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.161522630962865</v>
+        <v>-3.161538159132517</v>
       </c>
       <c r="G271">
-        <v>-0.0227614458400649</v>
+        <v>-0.02282268684215705</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6636,7 +6636,7 @@
         <v>2057</v>
       </c>
       <c r="B272">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C272">
         <v>0.7997083130772971</v>
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.207540191593968</v>
+        <v>-3.207149972047774</v>
       </c>
       <c r="G272">
-        <v>-0.01752625852510659</v>
+        <v>-0.01742792594338538</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6659,7 +6659,7 @@
         <v>2057</v>
       </c>
       <c r="B273">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C273">
         <v>0.8998541565386485</v>
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.249471600103254</v>
+        <v>-3.24981369292842</v>
       </c>
       <c r="G273">
-        <v>-0.00847975098763476</v>
+        <v>-0.009085073010002387</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6682,7 +6682,7 @@
         <v>2057</v>
       </c>
       <c r="B274">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.291735193732447</v>
+        <v>-3.2917351937335</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-1.052935516554498e-12</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6705,7 +6705,7 @@
         <v>2869</v>
       </c>
       <c r="B275">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-2.800227823166039</v>
+        <v>-2.800227823166563</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-5.240252676230739e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6728,7 +6728,7 @@
         <v>2869</v>
       </c>
       <c r="B276">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C276">
         <v>0.09968630184733357</v>
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.839195022894593</v>
+        <v>-2.839824072846777</v>
       </c>
       <c r="G276">
-        <v>0.01213041120418001</v>
+        <v>0.01150136125199586</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6751,7 +6751,7 @@
         <v>2869</v>
       </c>
       <c r="B277">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C277">
         <v>0.1997211571976298</v>
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.882955242324018</v>
+        <v>-2.886252730777964</v>
       </c>
       <c r="G277">
-        <v>0.0196464656827775</v>
+        <v>0.016348977228831</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6774,7 +6774,7 @@
         <v>2869</v>
       </c>
       <c r="B278">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C278">
         <v>0.2997560125479261</v>
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.931665584372711</v>
+        <v>-2.937091124612444</v>
       </c>
       <c r="G278">
-        <v>0.02233233993515293</v>
+        <v>0.01678685730237328</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6797,7 +6797,7 @@
         <v>2869</v>
       </c>
       <c r="B279">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C279">
         <v>0.3997908678982224</v>
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.985697996864266</v>
+        <v>-2.991274796490515</v>
       </c>
       <c r="G279">
-        <v>0.02020208205114926</v>
+        <v>0.01387945933232482</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6820,7 +6820,7 @@
         <v>2869</v>
       </c>
       <c r="B280">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C280">
         <v>0.4998257232485186</v>
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.044498532210172</v>
+        <v>-3.050139151941365</v>
       </c>
       <c r="G280">
-        <v>0.01236365785186733</v>
+        <v>0.00629137778949751</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6843,7 +6843,7 @@
         <v>2869</v>
       </c>
       <c r="B281">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C281">
         <v>0.5998605785988149</v>
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.108775915292585</v>
+        <v>-3.112018902274127</v>
       </c>
       <c r="G281">
-        <v>-0.0007235657470519019</v>
+        <v>-0.004312098635242512</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6866,7 +6866,7 @@
         <v>2869</v>
       </c>
       <c r="B282">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C282">
         <v>0.6998954339491111</v>
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.177839124998784</v>
+        <v>-3.178375830717789</v>
       </c>
       <c r="G282">
-        <v>-0.01875556199597317</v>
+        <v>-0.01939275317088218</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6889,7 +6889,7 @@
         <v>2869</v>
       </c>
       <c r="B283">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C283">
         <v>0.7999302892994075</v>
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227212251344733</v>
+        <v>-3.227499712985812</v>
       </c>
       <c r="G283">
-        <v>-0.01681251891297131</v>
+        <v>-0.01724036153088204</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6912,7 +6912,7 @@
         <v>2869</v>
       </c>
       <c r="B284">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C284">
         <v>0.8999651446497037</v>
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.269752994494998</v>
+        <v>-3.27005528064681</v>
       </c>
       <c r="G284">
-        <v>-0.00818406242135733</v>
+        <v>-0.008519655283857508</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6935,7 +6935,7 @@
         <v>2869</v>
       </c>
       <c r="B285">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.312811899270975</v>
+        <v>-3.312811899271309</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-3.343991750170971e-13</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6958,7 +6958,7 @@
         <v>3871</v>
       </c>
       <c r="B286">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-2.814626610423942</v>
+        <v>-2.814626610422591</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1.35091937636389e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6981,7 +6981,7 @@
         <v>3871</v>
       </c>
       <c r="B287">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C287">
         <v>0.09997416688194265</v>
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.852954856812285</v>
+        <v>-2.854503486949508</v>
       </c>
       <c r="G287">
-        <v>0.01346532474685791</v>
+        <v>0.01163179237234502</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7004,7 +7004,7 @@
         <v>3871</v>
       </c>
       <c r="B288">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C288">
         <v>0.1999483337638853</v>
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896289438770923</v>
+        <v>-2.900230147612862</v>
       </c>
       <c r="G288">
-        <v>0.02195663427740735</v>
+        <v>0.01741380060690156</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7027,7 +7027,7 @@
         <v>3871</v>
       </c>
       <c r="B289">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C289">
         <v>0.2999225006458279</v>
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.944310082210095</v>
+        <v>-2.948820532344188</v>
       </c>
       <c r="G289">
-        <v>0.02487332197734138</v>
+        <v>0.02033208477348647</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7050,7 +7050,7 @@
         <v>3871</v>
       </c>
       <c r="B290">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C290">
         <v>0.3998966675277706</v>
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.997776369969771</v>
+        <v>-3.002995368682233</v>
       </c>
       <c r="G290">
-        <v>0.02375693452071803</v>
+        <v>0.0176659173333531</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7073,7 +7073,7 @@
         <v>3871</v>
       </c>
       <c r="B291">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C291">
         <v>0.4998708344097132</v>
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.056007444742254</v>
+        <v>-3.060511371626007</v>
       </c>
       <c r="G291">
-        <v>0.01631643478946421</v>
+        <v>0.01165858328749003</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7096,7 +7096,7 @@
         <v>3871</v>
       </c>
       <c r="B292">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C292">
         <v>0.5998450012916559</v>
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.119309588426238</v>
+        <v>-3.122797093535273</v>
       </c>
       <c r="G292">
-        <v>0.004583922414351571</v>
+        <v>0.000881530276134912</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7119,7 +7119,7 @@
         <v>3871</v>
       </c>
       <c r="B293">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C293">
         <v>0.6998191681735986</v>
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.187605045953104</v>
+        <v>-3.188733232472893</v>
       </c>
       <c r="G293">
-        <v>-0.0121539716443787</v>
+        <v>-0.01354593976357454</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7142,7 +7142,7 @@
         <v>3871</v>
       </c>
       <c r="B294">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C294">
         <v>0.7997933350555412</v>
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.242431344504606</v>
+        <v>-3.242485738990079</v>
       </c>
       <c r="G294">
-        <v>-0.01573538289737619</v>
+        <v>-0.01578977738284937</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7165,7 +7165,7 @@
         <v>3871</v>
       </c>
       <c r="B295">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C295">
         <v>0.8997675019374839</v>
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.286388746061367</v>
+        <v>-3.286449262590382</v>
       </c>
       <c r="G295">
-        <v>-0.007909059436278898</v>
+        <v>-0.008244632085241566</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7188,7 +7188,7 @@
         <v>3871</v>
       </c>
       <c r="B296">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.329846396738705</v>
+        <v>-3.329846396737072</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1.63247193540883e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.417146695911884</v>
+        <v>-2.417170900185444</v>
       </c>
       <c r="G20">
         <v>-0.009978058694751102</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.427731237693991</v>
+        <v>-2.428369419512172</v>
       </c>
       <c r="G21">
         <v>-0.01265632309654485</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.495480765873922</v>
+        <v>-2.496732925236727</v>
       </c>
       <c r="G27">
         <v>-0.03296818699459814</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.564754609430809</v>
+        <v>-2.56515556451921</v>
       </c>
       <c r="G35">
         <v>-0.03899181150898134</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.57149189789535</v>
+        <v>-2.572945093957781</v>
       </c>
       <c r="G36">
         <v>-0.03782282259320913</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.593987692211568</v>
+        <v>-2.594769302120401</v>
       </c>
       <c r="G39">
         <v>-0.03659978476848846</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.602939486379408</v>
+        <v>-2.603230417712574</v>
       </c>
       <c r="G40">
         <v>-0.03764530155601498</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.617175372949352</v>
+        <v>-2.618581285628383</v>
       </c>
       <c r="G42">
         <v>-0.03606863336533372</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.716003589315219</v>
+        <v>-2.717020064487908</v>
       </c>
       <c r="G55">
         <v>-0.0321152437871316</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.721829291329321</v>
+        <v>-2.722845766502011</v>
       </c>
       <c r="G56">
         <v>-0.03003466842092128</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.734497170530214</v>
+        <v>-2.735513645702904</v>
       </c>
       <c r="G58">
         <v>-0.02688999286118821</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.55373456178595</v>
+        <v>-2.554169814418925</v>
       </c>
       <c r="G76">
         <v>-0.001765939874502909</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.557111067526153</v>
+        <v>-2.557201398701938</v>
       </c>
       <c r="G77">
         <v>-0.00198037256490835</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.560421481651894</v>
+        <v>-2.560554111215117</v>
       </c>
       <c r="G78">
         <v>-0.002128713640852542</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.563682785424394</v>
+        <v>-2.564239945560212</v>
       </c>
       <c r="G79">
         <v>-0.002227944363554446</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.567483821737189</v>
+        <v>-2.567812928423181</v>
       </c>
       <c r="G80">
         <v>-0.002866907626552173</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.573773825427</v>
+        <v>-2.575116787623228</v>
       </c>
       <c r="G82">
         <v>-0.002832765216768784</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.57766887809385</v>
+        <v>-2.578663233654627</v>
       </c>
       <c r="G83">
         <v>-0.003565744833821327</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.582849952738557</v>
+        <v>-2.584390983118497</v>
       </c>
       <c r="G85">
         <v>-0.002422673378934093</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.586272473496404</v>
+        <v>-2.58820964111938</v>
       </c>
       <c r="G86">
         <v>-0.00268312108698332</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.604429010176863</v>
+        <v>-2.606201502432559</v>
       </c>
       <c r="G91">
         <v>-0.00502929251845563</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.618562884498202</v>
+        <v>-2.619168258811907</v>
       </c>
       <c r="G95">
         <v>-0.006514874640604962</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.622047523112502</v>
+        <v>-2.624918030515287</v>
       </c>
       <c r="G96">
         <v>-0.006837440205107459</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.631970621053739</v>
+        <v>-2.632219421495221</v>
       </c>
       <c r="G98">
         <v>-0.01043639204674962</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.643306724245376</v>
+        <v>-2.646174953106967</v>
       </c>
       <c r="G102">
         <v>-0.009124203039197809</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.654122891018398</v>
+        <v>-2.655642777172603</v>
       </c>
       <c r="G104">
         <v>-0.01361622371262583</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.657998835979133</v>
+        <v>-2.658009580678522</v>
       </c>
       <c r="G105">
         <v>-0.0143300956235628</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.669737149906535</v>
+        <v>-2.673123855129701</v>
       </c>
       <c r="G108">
         <v>-0.01658219040157327</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.674817591690689</v>
+        <v>-2.675509669599623</v>
       </c>
       <c r="G109">
         <v>-0.01850055913592996</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.680924456240733</v>
+        <v>-2.682078053175026</v>
       </c>
       <c r="G111">
         <v>-0.01828327758637882</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.686738630387632</v>
+        <v>-2.688179580044936</v>
       </c>
       <c r="G112">
         <v>-0.0209353786834805</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.690221345226122</v>
+        <v>-2.690858062641326</v>
       </c>
       <c r="G113">
         <v>-0.02125602047217323</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.700362896152155</v>
+        <v>-2.700387841922791</v>
       </c>
       <c r="G115">
         <v>-0.02507342529861178</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.702754548686601</v>
+        <v>-2.704752692070523</v>
       </c>
       <c r="G116">
         <v>-0.0243030047832602</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.711870774444793</v>
+        <v>-2.713936140223395</v>
       </c>
       <c r="G118">
         <v>-0.02709508444185782</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.71559937802222</v>
+        <v>-2.716935581467974</v>
       </c>
       <c r="G119">
         <v>-0.02766161496948727</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.725802032903252</v>
+        <v>-2.726811873267561</v>
       </c>
       <c r="G121">
         <v>-0.03154012375092363</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.733900109873641</v>
+        <v>-2.734876707871235</v>
       </c>
       <c r="G123">
         <v>-0.0333140546217181</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.748391826956433</v>
+        <v>-2.748422378933931</v>
       </c>
       <c r="G126">
         <v>-0.03831955255511854</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.77277136620926</v>
+        <v>-2.772843683950064</v>
       </c>
       <c r="G134">
         <v>-0.03740250740956741</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.778504108700301</v>
+        <v>-2.778598207375976</v>
       </c>
       <c r="G136">
         <v>-0.03681110380101305</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.789299849773301</v>
+        <v>-2.789443036908397</v>
       </c>
       <c r="G140">
         <v>-0.03495855267482439</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.792093903278018</v>
+        <v>-2.792260319694496</v>
       </c>
       <c r="G141">
         <v>-0.03459053312974314</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.802909020335195</v>
+        <v>-2.802982294680179</v>
       </c>
       <c r="G145">
         <v>-0.03275735798773072</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.81191885771453</v>
+        <v>-2.812100033650354</v>
       </c>
       <c r="G148">
         <v>-0.03228097621767412</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.816646618512839</v>
+        <v>-2.817177791751658</v>
       </c>
       <c r="G150">
         <v>-0.0306845909163882</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.819252474666205</v>
+        <v>-2.81976888838568</v>
       </c>
       <c r="G151">
         <v>-0.03012837401995672</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.825681026193708</v>
+        <v>-2.825914566033634</v>
       </c>
       <c r="G153">
         <v>-0.03023277944786495</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.82793808641989</v>
+        <v>-2.828776320814324</v>
       </c>
       <c r="G154">
         <v>-0.02932776662424974</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.830985350508042</v>
+        <v>-2.831179027118022</v>
       </c>
       <c r="G155">
         <v>-0.02921295766260457</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.84925606620402</v>
+        <v>-2.849785167222049</v>
       </c>
       <c r="G161">
         <v>-0.02851123505979869</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.851591071231748</v>
+        <v>-2.852257069169986</v>
       </c>
       <c r="G162">
         <v>-0.02768416703772936</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.854810175155198</v>
+        <v>-2.855118823950674</v>
       </c>
       <c r="G163">
         <v>-0.02774119791138208</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.861059763651519</v>
+        <v>-2.861368743328817</v>
       </c>
       <c r="G165">
         <v>-0.02766664030810839</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.869479912966396</v>
+        <v>-2.870342470691659</v>
       </c>
       <c r="G168">
         <v>-0.02660057047359377</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.875529086987982</v>
+        <v>-2.876278170053394</v>
       </c>
       <c r="G170">
         <v>-0.02632559839558501</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.878781995990713</v>
+        <v>-2.879055059088073</v>
       </c>
       <c r="G171">
         <v>-0.02641643434851848</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885099616644827</v>
+        <v>-2.885208474839846</v>
       </c>
       <c r="G173">
         <v>-0.02640990890303763</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.908555264096274</v>
+        <v>-2.908867894624735</v>
       </c>
       <c r="G181">
         <v>-0.02456897195610608</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.919996314831584</v>
+        <v>-2.920308945360046</v>
       </c>
       <c r="G185">
         <v>-0.02336173049222656</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.925716840199239</v>
+        <v>-2.9260294707277</v>
       </c>
       <c r="G187">
         <v>-0.02275810976028703</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.937157890934551</v>
+        <v>-2.937470521463011</v>
       </c>
       <c r="G191">
         <v>-0.02155086829640912</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.940174468882609</v>
+        <v>-2.940487099411069</v>
       </c>
       <c r="G192">
         <v>-0.02140537319467034</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.959128026390235</v>
+        <v>-2.959596375509505</v>
       </c>
       <c r="G199">
         <v>-0.01822441935371494</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.963311324686031</v>
+        <v>-2.963986683815818</v>
       </c>
       <c r="G201">
         <v>-0.01608357154991547</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.970392300813887</v>
+        <v>-2.970860649933156</v>
       </c>
       <c r="G204">
         <v>-0.0136783285283798</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.972821629526678</v>
+        <v>-2.973159309091571</v>
       </c>
       <c r="G205">
         <v>-0.01294558419137312</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.975250958239469</v>
+        <v>-2.975381627793845</v>
       </c>
       <c r="G206">
         <v>-0.01221283985436733</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.948506516487283</v>
+        <v>-2.948663752188</v>
       </c>
       <c r="G226">
         <v>-0.02894798575867652</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.990661926116104</v>
+        <v>-2.991243232628563</v>
       </c>
       <c r="G227">
         <v>-0.02278325123366109</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.07812374010101</v>
+        <v>-3.07822388200535</v>
       </c>
       <c r="G229">
         <v>-0.01360477691089312</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.840310021248909</v>
+        <v>-2.841422115755976</v>
       </c>
       <c r="G234">
         <v>-0.003145239515477627</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.896740770741163</v>
+        <v>-2.89923613982218</v>
       </c>
       <c r="G235">
         <v>-0.01042817584738875</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.958447232431133</v>
+        <v>-2.958716646466364</v>
       </c>
       <c r="G236">
         <v>-0.02298682437701549</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013280097455052</v>
+        <v>-3.013393987350317</v>
       </c>
       <c r="G237">
         <v>-0.02867187624059264</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.056718975778266</v>
+        <v>-3.056794684952312</v>
       </c>
       <c r="G238">
         <v>-0.02296294140346311</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.100046267908795</v>
+        <v>-3.100081858066674</v>
       </c>
       <c r="G239">
         <v>-0.01714242037365032</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.772680647041966</v>
+        <v>-2.772932626098645</v>
       </c>
       <c r="G243">
         <v>0.007319627427045727</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.994168692366293</v>
+        <v>-2.994320427648272</v>
       </c>
       <c r="G247">
         <v>-0.01437153393546731</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.146132142978582</v>
+        <v>-3.146177880383791</v>
       </c>
       <c r="G250">
         <v>-0.01635195783387289</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.849043204369211</v>
+        <v>-2.849624190840533</v>
       </c>
       <c r="G255">
         <v>0.01179929347039455</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.018522369358365</v>
+        <v>-3.019133655343728</v>
       </c>
       <c r="G258">
         <v>-0.00630295866425179</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135451494444085</v>
+        <v>-3.136102425860702</v>
       </c>
       <c r="G260">
         <v>-0.02219513484000657</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.180427847577763</v>
+        <v>-3.180493115526539</v>
       </c>
       <c r="G261">
         <v>-0.0164745030082587</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.224031864774229</v>
+        <v>-3.224096450292092</v>
       </c>
       <c r="G262">
         <v>-0.009738556260183884</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.035926231317457</v>
+        <v>-3.036480542004887</v>
       </c>
       <c r="G269">
         <v>0.001023698072096346</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.207149972047774</v>
+        <v>-3.207362301741215</v>
       </c>
       <c r="G272">
         <v>-0.01742792594338538</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.839824072846777</v>
+        <v>-2.84029773543315</v>
       </c>
       <c r="G276">
         <v>0.01150136125199586</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.886252730777964</v>
+        <v>-2.887174036503507</v>
       </c>
       <c r="G277">
         <v>0.016348977228831</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.991274796490515</v>
+        <v>-2.991536179736043</v>
       </c>
       <c r="G279">
         <v>0.01387945933232482</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.050139151941365</v>
+        <v>-3.050214187154442</v>
       </c>
       <c r="G280">
         <v>0.00629137778949751</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.27005528064681</v>
+        <v>-3.270105370301348</v>
       </c>
       <c r="G284">
         <v>-0.008519655283857508</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.948820532344188</v>
+        <v>-2.949057940379182</v>
       </c>
       <c r="G289">
         <v>0.02033208477348647</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.002995368682233</v>
+        <v>-3.003013511972313</v>
       </c>
       <c r="G290">
         <v>0.0176659173333531</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.060511371626007</v>
+        <v>-3.060720798709976</v>
       </c>
       <c r="G291">
         <v>0.01165858328749003</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.122797093535273</v>
+        <v>-3.122889795560041</v>
       </c>
       <c r="G292">
         <v>0.000881530276134912</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.242485738990079</v>
+        <v>-3.242633031722981</v>
       </c>
       <c r="G294">
         <v>-0.01578977738284937</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.286449262590382</v>
+        <v>-3.286484938608999</v>
       </c>
       <c r="G295">
         <v>-0.008244632085241566</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.417170900185444</v>
+        <v>-2.417784877730063</v>
       </c>
       <c r="G20">
         <v>-0.009978058694751102</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.472421341128722</v>
+        <v>-2.472525315000907</v>
       </c>
       <c r="G25">
         <v>-0.02572131701002411</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.632282592915399</v>
+        <v>-2.633289011109426</v>
       </c>
       <c r="G44">
         <v>-0.03536329857075504</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.550457443242257</v>
+        <v>-2.550590072805479</v>
       </c>
       <c r="G75">
         <v>-0.001650894380606616</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.554169814418925</v>
+        <v>-2.554302443982147</v>
       </c>
       <c r="G76">
         <v>-0.001765939874502909</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.557201398701938</v>
+        <v>-2.557908669211834</v>
       </c>
       <c r="G77">
         <v>-0.00198037256490835</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.560554111215117</v>
+        <v>-2.561185787755528</v>
       </c>
       <c r="G78">
         <v>-0.002128713640852542</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.564239945560212</v>
+        <v>-2.564535809879488</v>
       </c>
       <c r="G79">
         <v>-0.002227944363554446</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.567812928423181</v>
+        <v>-2.568414052986093</v>
       </c>
       <c r="G80">
         <v>-0.002866907626552173</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.569848136627502</v>
+        <v>-2.571930000255321</v>
       </c>
       <c r="G81">
         <v>-0.00206914946706771</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.580575894045311</v>
+        <v>-2.581650576758221</v>
       </c>
       <c r="G84">
         <v>-0.00331068773548493</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.561185787755528</v>
+        <v>-2.56139807964949</v>
       </c>
       <c r="G78">
         <v>-0.002128713640852542</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.564535809879488</v>
+        <v>-2.565200782001945</v>
       </c>
       <c r="G79">
         <v>-0.002227944363554446</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.58820964111938</v>
+        <v>-2.588482224328368</v>
       </c>
       <c r="G86">
         <v>-0.00268312108698332</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.596314294575087</v>
+        <v>-2.596751885866226</v>
       </c>
       <c r="G88">
         <v>-0.006400796066071912</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.01262293291183</v>
       </c>
       <c r="G2">
-        <v>-2.220446049250313e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.084574053208413</v>
       </c>
       <c r="G3">
-        <v>-0.0436117100287261</v>
+        <v>-0.04361171002872433</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.107672793717847</v>
       </c>
       <c r="G4">
-        <v>-0.03837104027030103</v>
+        <v>-0.03837104027029992</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.13077153422728</v>
       </c>
       <c r="G5">
-        <v>-0.03313037051187639</v>
+        <v>-0.03313037051187551</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.149523674423096</v>
       </c>
       <c r="G6">
-        <v>-0.02354310043983254</v>
+        <v>-0.02354310043983232</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.172458636632815</v>
       </c>
       <c r="G7">
-        <v>-0.0181386523816931</v>
+        <v>-0.01813865238169332</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.195393598842534</v>
       </c>
       <c r="G8">
-        <v>-0.01273420432355299</v>
+        <v>-0.01273420432355366</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.222511383066157</v>
       </c>
       <c r="G9">
-        <v>-0.01151257827931729</v>
+        <v>-0.0115125782793184</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.245446345275876</v>
       </c>
       <c r="G10">
-        <v>-0.006108130221177066</v>
+        <v>-0.006108130221178842</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.272564129499499</v>
       </c>
       <c r="G11">
-        <v>-0.004886504176941253</v>
+        <v>-0.004886504176943474</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.295499091709217</v>
       </c>
       <c r="G12">
-        <v>0.0005179438811991899</v>
+        <v>0.0005179438811966364</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.32261687593284</v>
       </c>
       <c r="G13">
-        <v>0.001739569925435003</v>
+        <v>0.001739569925432227</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.349734660156463</v>
       </c>
       <c r="G14">
-        <v>0.002961195969671482</v>
+        <v>0.002961195969668096</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.381035266393989</v>
       </c>
       <c r="G15">
-        <v>3.996802888650564e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.375543527695873</v>
       </c>
       <c r="G16">
-        <v>7.993605777301127e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.38546568338624</v>
       </c>
       <c r="G17">
-        <v>-0.002015878310046126</v>
+        <v>-0.002015878310053232</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.396026020894789</v>
       </c>
       <c r="G18">
-        <v>-0.004669938438281562</v>
+        <v>-0.004669938438289112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-2.406586358403337</v>
       </c>
       <c r="G19">
-        <v>-0.007323998566516998</v>
+        <v>-0.007323998566524104</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.417784877730063</v>
+        <v>-2.417146695911884</v>
       </c>
       <c r="G20">
-        <v>-0.009978058694751102</v>
+        <v>-0.009978058694758651</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.428369419512172</v>
+        <v>-2.428369419512171</v>
       </c>
       <c r="G21">
-        <v>-0.01265632309654485</v>
+        <v>-0.01329450491473194</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.439543734565341</v>
+        <v>-2.438905552747161</v>
       </c>
       <c r="G22">
-        <v>-0.01656254258758239</v>
+        <v>-0.01592436076940862</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.45076645816563</v>
+        <v>-2.449465890255708</v>
       </c>
       <c r="G23">
-        <v>-0.0198789888075579</v>
+        <v>-0.01857842089764272</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.461326795674177</v>
+        <v>-2.456207082725839</v>
       </c>
       <c r="G24">
-        <v>-0.022533048935792</v>
+        <v>-0.01741333598746042</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.472525315000907</v>
+        <v>-2.467734843095642</v>
       </c>
       <c r="G25">
-        <v>-0.02572131701002411</v>
+        <v>-0.02103481897695025</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.484258042273634</v>
+        <v>-2.479880485015661</v>
       </c>
       <c r="G26">
-        <v>-0.02965174077462285</v>
+        <v>-0.02527418351665589</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.496732925236727</v>
+        <v>-2.484930017894896</v>
       </c>
       <c r="G27">
-        <v>-0.03296818699459814</v>
+        <v>-0.02241743901557691</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.508593830655197</v>
+        <v>-2.487953617725094</v>
       </c>
       <c r="G28">
-        <v>-0.03817497439555995</v>
+        <v>-0.01753476146546262</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.521706895436472</v>
+        <v>-2.491754425468793</v>
       </c>
       <c r="G29">
-        <v>-0.04338176179652198</v>
+        <v>-0.01342929182884789</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.528824838721445</v>
+        <v>-2.504193054968594</v>
       </c>
       <c r="G30">
-        <v>-0.04259342770118257</v>
+        <v>-0.01796164394833655</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.535541826918018</v>
+        <v>-2.512115563990998</v>
       </c>
       <c r="G31">
-        <v>-0.04140413851744262</v>
+        <v>-0.0179778755904263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.543421079843859</v>
+        <v>-2.516642813853098</v>
       </c>
       <c r="G32">
-        <v>-0.04137711406296996</v>
+        <v>-0.0145988480722139</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.55053902312883</v>
+        <v>-2.531190728547959</v>
       </c>
       <c r="G33">
-        <v>-0.04058877996762833</v>
+        <v>-0.02124048538676138</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.558037621234238</v>
+        <v>-2.531721510511725</v>
       </c>
       <c r="G34">
-        <v>-0.04018110069272285</v>
+        <v>-0.01386498997021413</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.56515556451921</v>
+        <v>-2.550918607547575</v>
       </c>
       <c r="G35">
-        <v>-0.03899181150898134</v>
+        <v>-0.02515580962575115</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.572945093957781</v>
+        <v>-2.556138554317386</v>
       </c>
       <c r="G36">
-        <v>-0.03782282259320913</v>
+        <v>-0.02246947901524887</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.580824346883622</v>
+        <v>-2.560248678341497</v>
       </c>
       <c r="G37">
-        <v>-0.03924899420116845</v>
+        <v>-0.01867332565904656</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.587942290168595</v>
+        <v>-2.571273950394958</v>
       </c>
       <c r="G38">
-        <v>-0.03846066010582838</v>
+        <v>-0.02179232033219369</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.594769302120401</v>
+        <v>-2.586386087948176</v>
       </c>
       <c r="G39">
-        <v>-0.03659978476848846</v>
+        <v>-0.02899818050509917</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.603230417712574</v>
+        <v>-2.590166298033085</v>
       </c>
       <c r="G40">
-        <v>-0.03764530155601498</v>
+        <v>-0.02487211320969496</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.609920422793711</v>
+        <v>-2.605515359308002</v>
       </c>
       <c r="G41">
-        <v>-0.03671996059000571</v>
+        <v>-0.03231489710429925</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.618581285628383</v>
+        <v>-2.600623130669334</v>
       </c>
       <c r="G42">
-        <v>-0.03606863336533372</v>
+        <v>-0.01951639108531711</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.625164649630427</v>
+        <v>-2.615010610872895</v>
       </c>
       <c r="G43">
-        <v>-0.03615163266609578</v>
+        <v>-0.02599759390856526</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.633289011109426</v>
+        <v>-2.629183305616248</v>
       </c>
       <c r="G44">
-        <v>-0.03536329857075504</v>
+        <v>-0.03226401127160483</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.640743708507571</v>
+        <v>-2.622543675323601</v>
       </c>
       <c r="G45">
-        <v>-0.03591813678261357</v>
+        <v>-0.0177181035986449</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.647861651792543</v>
+        <v>-2.642588902563659</v>
       </c>
       <c r="G46">
-        <v>-0.03512980268727262</v>
+        <v>-0.02985705345839018</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.656322767384713</v>
+        <v>-2.643869582887536</v>
       </c>
       <c r="G47">
-        <v>-0.03568464089913026</v>
+        <v>-0.02323145640195357</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.663440710669686</v>
+        <v>-2.654096799670273</v>
       </c>
       <c r="G48">
-        <v>-0.03489630680378963</v>
+        <v>-0.02555239580437696</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.671230240108259</v>
+        <v>-2.661183559513761</v>
       </c>
       <c r="G49">
-        <v>-0.03477955886204942</v>
+        <v>-0.02473287826755211</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.679019769546831</v>
+        <v>-2.673859116376296</v>
       </c>
       <c r="G50">
-        <v>-0.03466281092030843</v>
+        <v>-0.02950215774977416</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.686809298985402</v>
+        <v>-2.678791103878269</v>
       </c>
       <c r="G51">
-        <v>-0.03454606297856733</v>
+        <v>-0.02652786787143413</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.694598828423972</v>
+        <v>-2.680656651439408</v>
       </c>
       <c r="G52">
-        <v>-0.034429315036824</v>
+        <v>-0.02048713805225921</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.702388357862544</v>
+        <v>-2.684578982512066</v>
       </c>
       <c r="G53">
-        <v>-0.0343125670950829</v>
+        <v>-0.01650319174460446</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.710177887301116</v>
+        <v>-2.702677353885089</v>
       </c>
       <c r="G54">
-        <v>-0.03419581915334136</v>
+        <v>-0.02669528573731383</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.717020064487908</v>
+        <v>-2.704121458441308</v>
       </c>
       <c r="G55">
-        <v>-0.0321152437871316</v>
+        <v>-0.02023311291322005</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.722845766502011</v>
+        <v>-2.722845766502009</v>
       </c>
       <c r="G56">
-        <v>-0.03003466842092128</v>
+        <v>-0.03105114359360805</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.729687943688802</v>
+        <v>-2.723796461415395</v>
       </c>
       <c r="G57">
-        <v>-0.0299870434000884</v>
+        <v>-0.02409556112668065</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.735513645702904</v>
+        <v>-2.72704872017493</v>
       </c>
       <c r="G58">
-        <v>-0.02688999286118821</v>
+        <v>-0.01944154250590269</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.741339347717006</v>
+        <v>-2.73270340187386</v>
       </c>
       <c r="G59">
-        <v>-0.02582589266766711</v>
+        <v>-0.01718994682451891</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.74716504973111</v>
+        <v>-2.743927050652012</v>
       </c>
       <c r="G60">
-        <v>-0.02374531730145785</v>
+        <v>-0.02050731822235741</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.752990751745212</v>
+        <v>-2.752818954090583</v>
       </c>
       <c r="G61">
-        <v>-0.02166474193524764</v>
+        <v>-0.02149294428061616</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.758730554932002</v>
+        <v>-2.757542282104685</v>
       </c>
       <c r="G62">
-        <v>-0.01949826774172386</v>
+        <v>-0.01830999491440488</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.764470358118791</v>
+        <v>-2.764298560464162</v>
       </c>
       <c r="G63">
-        <v>-0.0173317935482003</v>
+        <v>-0.01715999589356854</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>-2.77021016130558</v>
       </c>
       <c r="G64">
-        <v>-0.0151653193546763</v>
+        <v>-0.01516531935467291</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.775949964492368</v>
+        <v>-2.775864065665054</v>
       </c>
       <c r="G65">
-        <v>-0.01299884516115191</v>
+        <v>-0.01291294633383361</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.781689767679157</v>
+        <v>-2.781689767679158</v>
       </c>
       <c r="G66">
-        <v>-0.01083237096762701</v>
+        <v>-0.01083237096762418</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.787429570865946</v>
+        <v>-2.787429570865947</v>
       </c>
       <c r="G67">
-        <v>-0.008665896774103482</v>
+        <v>-0.008665896774100512</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.793169374052736</v>
       </c>
       <c r="G68">
-        <v>-0.00649942258057995</v>
+        <v>-0.006499422580575925</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-2.798909177239524</v>
       </c>
       <c r="G69">
-        <v>-0.004332948387055072</v>
+        <v>-0.004332948387050478</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-2.804648980426311</v>
       </c>
       <c r="G70">
-        <v>-0.002166474193529756</v>
+        <v>-0.002166474193525461</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-2.810388783613099</v>
       </c>
       <c r="G71">
-        <v>-4.884981308350689e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-2.539320329712253</v>
       </c>
       <c r="G72">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-2.543032700888921</v>
       </c>
       <c r="G73">
-        <v>-0.0005502981268654672</v>
+        <v>-0.0005502981268707963</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-2.546745072065589</v>
       </c>
       <c r="G74">
-        <v>-0.001100596253736708</v>
+        <v>-0.001100596253742037</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.550590072805479</v>
+        <v>-2.550457443242257</v>
       </c>
       <c r="G75">
-        <v>-0.001650894380606616</v>
+        <v>-0.001650894380612389</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.554302443982147</v>
+        <v>-2.554063668471944</v>
       </c>
       <c r="G76">
-        <v>-0.001765939874502909</v>
+        <v>-0.002095046560501412</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.557908669211834</v>
+        <v>-2.556709110475227</v>
       </c>
       <c r="G77">
-        <v>-0.00198037256490835</v>
+        <v>-0.001578415513987963</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.56139807964949</v>
+        <v>-2.560182706141692</v>
       </c>
       <c r="G78">
-        <v>-0.002128713640852542</v>
+        <v>-0.001889938130654745</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.565200782001945</v>
+        <v>-2.563354714915373</v>
       </c>
       <c r="G79">
-        <v>-0.002227944363554446</v>
+        <v>-0.001899873854538825</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.568414052986093</v>
+        <v>-2.566951532393285</v>
       </c>
       <c r="G80">
-        <v>-0.002866907626552173</v>
+        <v>-0.002334618282652912</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.571930000255321</v>
+        <v>-2.570427818448966</v>
       </c>
       <c r="G81">
-        <v>-0.00206914946706771</v>
+        <v>-0.002648831288536435</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.575116787623228</v>
+        <v>-2.572205777690288</v>
       </c>
       <c r="G82">
-        <v>-0.002832765216768784</v>
+        <v>-0.001264717480061517</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.578663233654627</v>
+        <v>-2.576408048032899</v>
       </c>
       <c r="G83">
-        <v>-0.003565744833821327</v>
+        <v>-0.002304914772874866</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.581650576758221</v>
+        <v>-2.577498089591131</v>
       </c>
       <c r="G84">
-        <v>-0.00331068773548493</v>
+        <v>-0.0002328832813094373</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.584390983118497</v>
+        <v>-2.57952469428318</v>
       </c>
       <c r="G85">
-        <v>-0.002422673378934093</v>
+        <v>0.0009025850764383669</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.588482224328368</v>
+        <v>-2.587789380681654</v>
       </c>
       <c r="G86">
-        <v>-0.00268312108698332</v>
+        <v>-0.004200028272237422</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.591199951364515</v>
+        <v>-2.58695721778242</v>
       </c>
       <c r="G87">
-        <v>-0.004448525905296652</v>
+        <v>-0.0002057923232063885</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.596751885866226</v>
+        <v>-2.590041831930086</v>
       </c>
       <c r="G88">
-        <v>-0.006400796066071912</v>
+        <v>-0.0001283334210753218</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.599216058797943</v>
+        <v>-2.596181892855419</v>
       </c>
       <c r="G89">
-        <v>-0.006140487239130188</v>
+        <v>-0.003106321296610481</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.60243686972059</v>
+        <v>-2.595876331802636</v>
       </c>
       <c r="G90">
-        <v>-0.006199225111979789</v>
+        <v>0.0003613128059689608</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.606201502432559</v>
+        <v>-2.602204696819987</v>
       </c>
       <c r="G91">
-        <v>-0.00502929251845563</v>
+        <v>-0.002804979161584065</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.610301297482391</v>
+        <v>-2.603435146473334</v>
       </c>
       <c r="G92">
-        <v>-0.007739506774186111</v>
+        <v>-0.0008733557651336987</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.61348622609738</v>
+        <v>-2.603320313106662</v>
       </c>
       <c r="G93">
-        <v>-0.00776236233937766</v>
+        <v>0.002403550651336239</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.618922670051645</v>
+        <v>-2.604704367925252</v>
       </c>
       <c r="G94">
-        <v>-0.01003673324384513</v>
+        <v>0.004181568882542841</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.619168258811907</v>
+        <v>-2.608913012867873</v>
       </c>
       <c r="G95">
-        <v>-0.006514874640604962</v>
+        <v>0.003134996989718974</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.624918030515287</v>
+        <v>-2.611687198232257</v>
       </c>
       <c r="G96">
-        <v>-0.006837440205107459</v>
+        <v>0.003522884675132509</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.627964393392527</v>
+        <v>-2.618389822117825</v>
       </c>
       <c r="G97">
-        <v>-0.009592237435335438</v>
+        <v>-1.766616063703097e-05</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.632219421495221</v>
+        <v>-2.619664756276272</v>
       </c>
       <c r="G98">
-        <v>-0.01043639204674962</v>
+        <v>0.001869472730712918</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.634772365973877</v>
+        <v>-2.623553049579616</v>
       </c>
       <c r="G99">
-        <v>-0.01007606391709093</v>
+        <v>0.001143252477165735</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.639265106092817</v>
+        <v>-2.62898500308522</v>
       </c>
       <c r="G100">
-        <v>-0.01140673098623335</v>
+        <v>-0.001126627978640826</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.643103712516319</v>
+        <v>-2.632530213413464</v>
       </c>
       <c r="G101">
-        <v>-0.01208326435993845</v>
+        <v>-0.001509765257087903</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.646174953106967</v>
+        <v>-2.631770558311209</v>
       </c>
       <c r="G102">
-        <v>-0.009124203039197809</v>
+        <v>0.002411962894965036</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.648974595608977</v>
+        <v>-2.634929882702326</v>
       </c>
       <c r="G103">
-        <v>-0.01163000135300152</v>
+        <v>0.002414711553645255</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.655642777172603</v>
+        <v>-2.646039301083935</v>
       </c>
       <c r="G104">
-        <v>-0.01361622371262583</v>
+        <v>-0.005532633778166263</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.658009580678522</v>
+        <v>-2.647770399342094</v>
       </c>
       <c r="G105">
-        <v>-0.0143300956235628</v>
+        <v>-0.004101658986527923</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.661250477886545</v>
+        <v>-2.643002897474791</v>
       </c>
       <c r="G106">
-        <v>-0.01441966448117782</v>
+        <v>0.003827915930571857</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.665704385413751</v>
+        <v>-2.645617390485584</v>
       </c>
       <c r="G107">
-        <v>-0.0157114989585867</v>
+        <v>0.004375495969577203</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.673123855129701</v>
+        <v>-2.65190960776061</v>
       </c>
       <c r="G108">
-        <v>-0.01658219040157327</v>
+        <v>0.001245351744348033</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.675509669599623</v>
+        <v>-2.657267090845449</v>
       </c>
       <c r="G109">
-        <v>-0.01850055913592996</v>
+        <v>-0.0009500582906933897</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.678851507851459</v>
+        <v>-2.657090597907856</v>
       </c>
       <c r="G110">
-        <v>-0.01937240224690173</v>
+        <v>0.00238850769669674</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.682078053175026</v>
+        <v>-2.670307005322986</v>
       </c>
       <c r="G111">
-        <v>-0.01828327758637882</v>
+        <v>-0.007665826668636022</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.688179580044936</v>
+        <v>-2.665827362015865</v>
       </c>
       <c r="G112">
-        <v>-0.0209353786834805</v>
+        <v>-2.411031171689615e-05</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.690858062641326</v>
+        <v>-2.664921983499497</v>
       </c>
       <c r="G113">
-        <v>-0.02125602047217323</v>
+        <v>0.004043341254447608</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.695945580440579</v>
+        <v>-2.676101007039547</v>
       </c>
       <c r="G114">
-        <v>-0.02381818263683266</v>
+        <v>-0.003973609235804698</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.700387841922791</v>
+        <v>-2.669306880236004</v>
       </c>
       <c r="G115">
-        <v>-0.02507342529861178</v>
+        <v>0.005982590617535699</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.704752692070523</v>
+        <v>-2.678665307614895</v>
       </c>
       <c r="G116">
-        <v>-0.0243030047832602</v>
+        <v>-0.0002137637115571245</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.707649860877265</v>
+        <v>-2.683980762602369</v>
       </c>
       <c r="G117">
-        <v>-0.02603624392412707</v>
+        <v>-0.002367145649234237</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.713936140223395</v>
+        <v>-2.685137442568062</v>
       </c>
       <c r="G118">
-        <v>-0.02709508444185782</v>
+        <v>-0.0003617525651302689</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.716935581467974</v>
+        <v>-2.683132262972077</v>
       </c>
       <c r="G119">
-        <v>-0.02766161496948727</v>
+        <v>0.004805500080653058</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.721676598576514</v>
+        <v>-2.685924713297054</v>
       </c>
       <c r="G120">
-        <v>-0.03057676247398344</v>
+        <v>0.005175122805473276</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.726811873267561</v>
+        <v>-2.694215779320356</v>
       </c>
       <c r="G121">
-        <v>-0.03154012375092363</v>
+        <v>4.612983196805587e-05</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.730336876557512</v>
+        <v>-2.696719607861569</v>
       </c>
       <c r="G122">
-        <v>-0.03291289435538691</v>
+        <v>0.0007043743405532599</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.734876707871235</v>
+        <v>-2.695537356162369</v>
       </c>
       <c r="G123">
-        <v>-0.0333140546217181</v>
+        <v>0.005048699089549968</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.738912504548309</v>
+        <v>-2.702003647056552</v>
       </c>
       <c r="G124">
-        <v>-0.03516437624658919</v>
+        <v>0.001744481245164131</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.743776401673228</v>
+        <v>-2.705183542976231</v>
       </c>
       <c r="G125">
-        <v>-0.0368662003217104</v>
+        <v>0.00172665837528263</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.748422378933931</v>
+        <v>-2.708818353606922</v>
       </c>
       <c r="G126">
-        <v>-0.03831955255511854</v>
+        <v>0.001253920794388907</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.753068356194636</v>
+        <v>-2.711211682735979</v>
       </c>
       <c r="G127">
-        <v>-0.0398340087435245</v>
+        <v>0.002022664715129352</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.755862409699353</v>
+        <v>-2.719690182006429</v>
       </c>
       <c r="G128">
-        <v>-0.03946598919844346</v>
+        <v>-0.00329376150552263</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.75865646320407</v>
+        <v>-2.723513068866363</v>
       </c>
       <c r="G129">
-        <v>-0.0390979696533631</v>
+        <v>-0.003954575315660014</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.761450516708786</v>
+        <v>-2.72725474159071</v>
       </c>
       <c r="G130">
-        <v>-0.03872995010828273</v>
+        <v>-0.004534174990209916</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.764244570213503</v>
+        <v>-2.725766412565353</v>
       </c>
       <c r="G131">
-        <v>-0.0383619305632017</v>
+        <v>0.0001162270849455194</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.767038623718219</v>
+        <v>-2.733804360818961</v>
       </c>
       <c r="G132">
-        <v>-0.03799391101812089</v>
+        <v>-0.004759648118866089</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.769977312704544</v>
+        <v>-2.734659686121349</v>
       </c>
       <c r="G133">
-        <v>-0.03777052695464822</v>
+        <v>-0.002452900371455957</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.772843683950064</v>
+        <v>-2.736458802041156</v>
       </c>
       <c r="G134">
-        <v>-0.03740250740956741</v>
+        <v>-0.001089943241466163</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.775637737454781</v>
+        <v>-2.739999240263433</v>
       </c>
       <c r="G135">
-        <v>-0.03710680560529056</v>
+        <v>-0.00146830841394574</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.778598207375976</v>
+        <v>-2.731071330103564</v>
       </c>
       <c r="G136">
-        <v>-0.03681110380101305</v>
+        <v>0.01062167479572107</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.781370479945821</v>
+        <v>-2.743065244106662</v>
       </c>
       <c r="G137">
-        <v>-0.0365154019967362</v>
+        <v>0.001789833842420707</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.784164533450538</v>
+        <v>-2.746187466535736</v>
       </c>
       <c r="G138">
-        <v>-0.03614738245165583</v>
+        <v>0.001829684463143799</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.787125003371733</v>
+        <v>-2.747666561769052</v>
       </c>
       <c r="G139">
-        <v>-0.03594577932305354</v>
+        <v>0.003512662279625101</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.789443036908397</v>
+        <v>-2.754333006614502</v>
       </c>
       <c r="G140">
-        <v>-0.03495855267482439</v>
+        <v>8.290483972439588e-06</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.792260319694496</v>
+        <v>-2.76488174412367</v>
       </c>
       <c r="G141">
-        <v>-0.03459053312974314</v>
+        <v>-0.007378373975398311</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.795037208729174</v>
+        <v>-2.765517735779724</v>
       </c>
       <c r="G142">
-        <v>-0.03437176553110244</v>
+        <v>-0.004852292581655204</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.797814097763852</v>
+        <v>-2.763172582664163</v>
       </c>
       <c r="G143">
-        <v>-0.03398658151598322</v>
+        <v>0.0006549335837040537</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.801067006766584</v>
+        <v>-2.770896402640043</v>
       </c>
       <c r="G144">
-        <v>-0.03407741746891801</v>
+        <v>-0.003906813342378745</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.802982294680179</v>
+        <v>-2.772537828358421</v>
       </c>
       <c r="G145">
-        <v>-0.03275735798773072</v>
+        <v>-0.002386166010959867</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.806285740488844</v>
+        <v>-2.782908329109135</v>
       </c>
       <c r="G146">
-        <v>-0.03297200509158316</v>
+        <v>-0.009594593711876653</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.808702489166015</v>
+        <v>-2.779975076108973</v>
       </c>
       <c r="G147">
-        <v>-0.03222668071895596</v>
+        <v>-0.00349926766191655</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.812100033650354</v>
+        <v>-2.783147918840175</v>
       </c>
       <c r="G148">
-        <v>-0.03228097621767412</v>
+        <v>-0.003510037343321226</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.81432593386335</v>
+        <v>-2.788093325275244</v>
       </c>
       <c r="G149">
-        <v>-0.03152597931669709</v>
+        <v>-0.005293370728593372</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.817177791751658</v>
+        <v>-2.794264131150882</v>
       </c>
       <c r="G150">
-        <v>-0.0306845909163882</v>
+        <v>-0.008302103554433504</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.81976888838568</v>
+        <v>-2.788428027481379</v>
       </c>
       <c r="G151">
-        <v>-0.03012837401995672</v>
+        <v>0.0006960731648670837</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.824104476454406</v>
+        <v>-2.800691692642103</v>
       </c>
       <c r="G152">
-        <v>-0.03181830275836117</v>
+        <v>-0.00840551894606012</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.825914566033634</v>
+        <v>-2.804640122014286</v>
       </c>
       <c r="G153">
-        <v>-0.03023277944786495</v>
+        <v>-0.009191875268445449</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.828776320814324</v>
+        <v>-2.796007688029262</v>
       </c>
       <c r="G154">
-        <v>-0.02932776662424974</v>
+        <v>0.002602631766375207</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.831179027118022</v>
+        <v>-2.810050972768344</v>
       </c>
       <c r="G155">
-        <v>-0.02921295766260457</v>
+        <v>-0.008278579922909257</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.836188975560663</v>
+        <v>-2.81335574709077</v>
       </c>
       <c r="G156">
-        <v>-0.03125450966542842</v>
+        <v>-0.008421281195537755</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.837875446967947</v>
+        <v>-2.820667130124442</v>
       </c>
       <c r="G157">
-        <v>-0.02977890802291538</v>
+        <v>-0.01257059117941184</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.841217838181521</v>
+        <v>-2.813065758037359</v>
       </c>
       <c r="G158">
-        <v>-0.02995922618669167</v>
+        <v>-0.001807146042531294</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.843721664118841</v>
+        <v>-2.818401037374366</v>
       </c>
       <c r="G159">
-        <v>-0.02930097907421403</v>
+        <v>-0.003980352329741699</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.846991113717332</v>
+        <v>-2.819042654960922</v>
       </c>
       <c r="G160">
-        <v>-0.02940835562290856</v>
+        <v>-0.00145989686649961</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.849785167222049</v>
+        <v>-2.829034167199977</v>
       </c>
       <c r="G161">
-        <v>-0.02851123505979869</v>
+        <v>-0.008289336055756991</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.852257069169986</v>
+        <v>-2.82392053586639</v>
       </c>
       <c r="G162">
-        <v>-0.02768416703772936</v>
+        <v>-1.363167237289353e-05</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.855118823950674</v>
+        <v>-2.830881556575272</v>
       </c>
       <c r="G163">
-        <v>-0.02774119791138208</v>
+        <v>-0.003812579331457511</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.858848376795736</v>
+        <v>-2.833425474254041</v>
       </c>
       <c r="G164">
-        <v>-0.02861732650212223</v>
+        <v>-0.003194423960429016</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.861368743328817</v>
+        <v>-2.851895590754974</v>
       </c>
       <c r="G165">
-        <v>-0.02766664030810839</v>
+        <v>-0.01850246741156458</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.864512794136528</v>
+        <v>-2.845907267348184</v>
       </c>
       <c r="G166">
-        <v>-0.02795759774332041</v>
+        <v>-0.009352070954978142</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.867362624786288</v>
+        <v>-2.849067224675579</v>
       </c>
       <c r="G167">
-        <v>-0.02764535534328227</v>
+        <v>-0.00934995523257498</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.870342470691659</v>
+        <v>-2.852728849449498</v>
       </c>
       <c r="G168">
-        <v>-0.02660057047359377</v>
+        <v>-0.009849506956697063</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.873517821614478</v>
+        <v>-2.848980552718718</v>
       </c>
       <c r="G169">
-        <v>-0.02747640607187785</v>
+        <v>-0.002939137176119488</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.876278170053394</v>
+        <v>-2.856772257572532</v>
       </c>
       <c r="G170">
-        <v>-0.02632559839558501</v>
+        <v>-0.007568768980136031</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.879055059088073</v>
+        <v>-2.854750411265745</v>
       </c>
       <c r="G171">
-        <v>-0.02641643434851848</v>
+        <v>-0.002384849623551899</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.882506308496666</v>
+        <v>-2.872592013385244</v>
       </c>
       <c r="G172">
-        <v>-0.02697867380467356</v>
+        <v>-0.01706437869325306</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885208474839846</v>
+        <v>-2.868585000767847</v>
       </c>
       <c r="G173">
-        <v>-0.02640990890303763</v>
+        <v>-0.009895293026059293</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.8884420078584</v>
+        <v>-2.871257272695188</v>
       </c>
       <c r="G174">
-        <v>-0.02659022706681335</v>
+        <v>-0.009405491903602181</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.891511335974615</v>
+        <v>-2.878317918553027</v>
       </c>
       <c r="G175">
-        <v>-0.02649748213323078</v>
+        <v>-0.01330406471164414</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.894580664090829</v>
+        <v>-2.875449025471053</v>
       </c>
       <c r="G176">
-        <v>-0.02640473719964775</v>
+        <v>-0.007273098579873349</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.897739474417885</v>
+        <v>-2.876047500767042</v>
       </c>
       <c r="G177">
-        <v>-0.02640147447690655</v>
+        <v>-0.004709500826064916</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.900443421837483</v>
+        <v>-2.880541047399523</v>
       </c>
       <c r="G178">
-        <v>-0.02594334884670668</v>
+        <v>-0.006040974408747402</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.90314736925708</v>
+        <v>-2.883345231905874</v>
       </c>
       <c r="G179">
-        <v>-0.02548522321650637</v>
+        <v>-0.005683085865301529</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.905851316676677</v>
+        <v>-2.895307190599778</v>
       </c>
       <c r="G180">
-        <v>-0.02502709758630595</v>
+        <v>-0.0144829715094088</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.908867894624735</v>
+        <v>-2.896729359578034</v>
       </c>
       <c r="G181">
-        <v>-0.02456897195610608</v>
+        <v>-0.0127430674378668</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.911571842044332</v>
+        <v>-2.900066764126251</v>
       </c>
       <c r="G182">
-        <v>-0.02442347685436597</v>
+        <v>-0.01291839893628632</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.91458841999239</v>
+        <v>-2.903144024540711</v>
       </c>
       <c r="G183">
-        <v>-0.0242779817526273</v>
+        <v>-0.01283358630094966</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.917292367411987</v>
+        <v>-2.907160143834219</v>
       </c>
       <c r="G184">
-        <v>-0.02381985612242654</v>
+        <v>-0.01368763254465943</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.920308945360046</v>
+        <v>-2.905213491359099</v>
       </c>
       <c r="G185">
-        <v>-0.02336173049222656</v>
+        <v>-0.008578907019741733</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.922700262251181</v>
+        <v>-2.912226742626094</v>
       </c>
       <c r="G186">
-        <v>-0.02290360486202625</v>
+        <v>-0.01243008523693989</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.9260294707277</v>
+        <v>-2.910175925469816</v>
       </c>
       <c r="G187">
-        <v>-0.02275810976028703</v>
+        <v>-0.007217195030864265</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.928733418147297</v>
+        <v>-2.920441239224401</v>
       </c>
       <c r="G188">
-        <v>-0.02261261465854769</v>
+        <v>-0.01432043573565245</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.931749996095355</v>
+        <v>-2.922155028659482</v>
       </c>
       <c r="G189">
-        <v>-0.02246711955680802</v>
+        <v>-0.01287215212093606</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.934453943514953</v>
+        <v>-2.921073364044465</v>
       </c>
       <c r="G190">
-        <v>-0.0220089939266086</v>
+        <v>-0.008628414456121836</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.937470521463011</v>
+        <v>-2.928341241884564</v>
       </c>
       <c r="G191">
-        <v>-0.02155086829640912</v>
+        <v>-0.0127342192464231</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.940487099411069</v>
+        <v>-2.933539371566111</v>
       </c>
       <c r="G192">
-        <v>-0.02140537319467034</v>
+        <v>-0.0147702758781727</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.943191046830667</v>
+        <v>-2.932502155686989</v>
       </c>
       <c r="G193">
-        <v>-0.02125987809293017</v>
+        <v>-0.01057098694925357</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.945894994250264</v>
+        <v>-2.928679101255137</v>
       </c>
       <c r="G194">
-        <v>-0.02080175246273069</v>
+        <v>-0.003585859467603814</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.948911572198323</v>
+        <v>-2.930072440770231</v>
       </c>
       <c r="G195">
-        <v>-0.02065625736099191</v>
+        <v>-0.001817125932900066</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.951928150146381</v>
+        <v>-2.938701048743613</v>
       </c>
       <c r="G196">
-        <v>-0.02051076225925308</v>
+        <v>-0.007283660856484964</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.95494472809444</v>
+        <v>-2.944926718843933</v>
       </c>
       <c r="G197">
-        <v>-0.02036526715751397</v>
+        <v>-0.01034725790700769</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.957036377242337</v>
+        <v>-2.94528282354644</v>
       </c>
       <c r="G198">
-        <v>-0.01929484325561448</v>
+        <v>-0.007541289559717557</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.959596375509505</v>
+        <v>-2.952527760229342</v>
       </c>
       <c r="G199">
-        <v>-0.01822441935371494</v>
+        <v>-0.01162415319282173</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.961688024657402</v>
+        <v>-2.955613172271308</v>
       </c>
       <c r="G200">
-        <v>-0.01762234457108508</v>
+        <v>-0.01154749218499079</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.963986683815818</v>
+        <v>-2.960266361431907</v>
       </c>
       <c r="G201">
-        <v>-0.01608357154991547</v>
+        <v>-0.01303860829579206</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.966546682082984</v>
+        <v>-2.963940577058533</v>
       </c>
       <c r="G202">
-        <v>-0.01615685589707211</v>
+        <v>-0.01355075087262125</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.968431321220365</v>
+        <v>-2.963619077199327</v>
       </c>
       <c r="G203">
-        <v>-0.01487942198465525</v>
+        <v>-0.0100671779636175</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.970860649933156</v>
+        <v>-2.964574827269677</v>
       </c>
       <c r="G204">
-        <v>-0.0136783285283798</v>
+        <v>-0.007860854984170773</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.973159309091571</v>
+        <v>-2.971808647836214</v>
       </c>
       <c r="G205">
-        <v>-0.01294558419137312</v>
+        <v>-0.0119326025009098</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.975381627793845</v>
+        <v>-2.971544852746301</v>
       </c>
       <c r="G206">
-        <v>-0.01221283985436733</v>
+        <v>-0.00850673436119917</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.977810956506636</v>
+        <v>-2.976811254414227</v>
       </c>
       <c r="G207">
-        <v>-0.01161076507173744</v>
+        <v>-0.01061106297932768</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.980240285219427</v>
+        <v>-2.976159335129568</v>
       </c>
       <c r="G208">
-        <v>-0.01087802073473121</v>
+        <v>-0.006797070644871395</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.982669613932219</v>
+        <v>-2.980228373690906</v>
       </c>
       <c r="G209">
-        <v>-0.01014527639772539</v>
+        <v>-0.007704036156412547</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.984817159342243</v>
+        <v>-2.984122923182335</v>
       </c>
       <c r="G210">
-        <v>-0.009130748757952306</v>
+        <v>-0.008436512598043483</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.986964704752268</v>
+        <v>-2.98627046859236</v>
       </c>
       <c r="G211">
-        <v>-0.008116221118180111</v>
+        <v>-0.007421984958271233</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.989112250162294</v>
+        <v>-2.985696315882649</v>
       </c>
       <c r="G212">
-        <v>-0.007101693478408069</v>
+        <v>-0.003685759198763169</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-2.991259795572318</v>
+        <v>-2.990390763034285</v>
       </c>
       <c r="G213">
-        <v>-0.006087165838634986</v>
+        <v>-0.005218133300601363</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>-2.993407340982343</v>
       </c>
       <c r="G214">
-        <v>-0.005072638198862778</v>
+        <v>-0.005072638198862514</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>-2.995554886392368</v>
       </c>
       <c r="G215">
-        <v>-0.004058110559090583</v>
+        <v>-0.004058110559090278</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-2.997702431802393</v>
       </c>
       <c r="G216">
-        <v>-0.003043582919318381</v>
+        <v>-0.003043582919318041</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-2.999849977212418</v>
       </c>
       <c r="G217">
-        <v>-0.002029055279545292</v>
+        <v>-0.002029055279544917</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-3.001997522622443</v>
       </c>
       <c r="G218">
-        <v>-0.00101452763977309</v>
+        <v>-0.00101452763977268</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-3.004145068032468</v>
       </c>
       <c r="G219">
-        <v>-4.440892098500626e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-2.631196380133147</v>
       </c>
       <c r="G220">
-        <v>-1.77635683940025e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.676490962514133</v>
+        <v>-2.674311658001959</v>
       </c>
       <c r="G221">
-        <v>0.001466847445290131</v>
+        <v>0.003646151957480193</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.72849564270039</v>
+        <v>-2.715336269140473</v>
       </c>
       <c r="G222">
-        <v>-0.002217688587131228</v>
+        <v>0.0109416849728019</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.78749776107002</v>
+        <v>-2.7667961774302</v>
       </c>
       <c r="G223">
-        <v>-0.01289966280292432</v>
+        <v>0.007801920836910448</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.84729541997542</v>
+        <v>-2.817552722113723</v>
       </c>
       <c r="G224">
-        <v>-0.02437717755448698</v>
+        <v>0.005365520307222704</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.905604285842225</v>
+        <v>-2.859985124735336</v>
       </c>
       <c r="G225">
-        <v>-0.03436589926745537</v>
+        <v>0.01125326183944519</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.948663752188</v>
+        <v>-2.92007990004411</v>
       </c>
       <c r="G226">
-        <v>-0.02894798575867652</v>
+        <v>-0.0005213693154924037</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.991243232628563</v>
+        <v>-2.969474976398728</v>
       </c>
       <c r="G227">
-        <v>-0.02278325123366109</v>
+        <v>-0.001596301516275767</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.03587204632551</v>
+        <v>-3.022326597641625</v>
       </c>
       <c r="G228">
-        <v>-0.0196732272892296</v>
+        <v>-0.006127778605336309</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.07822388200535</v>
+        <v>-3.068965739402858</v>
       </c>
       <c r="G229">
-        <v>-0.01360477691089312</v>
+        <v>-0.004446776212734482</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.11283910734396</v>
       </c>
       <c r="G230">
-        <v>-6.217248937900877e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-2.689721342252327</v>
       </c>
       <c r="G231">
-        <v>7.682743330406083e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.732763479010833</v>
+        <v>-2.730023888119772</v>
       </c>
       <c r="G232">
-        <v>0.006105676401912508</v>
+        <v>0.008845267292900694</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.783967006479799</v>
+        <v>-2.775550750356831</v>
       </c>
       <c r="G233">
-        <v>0.00404996209329056</v>
+        <v>0.01246621821618588</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.841422115755976</v>
+        <v>-2.816891943978355</v>
       </c>
       <c r="G234">
-        <v>-0.003145239515477627</v>
+        <v>0.02027283775500743</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.89923613982218</v>
+        <v>-2.86807255616282</v>
       </c>
       <c r="G235">
-        <v>-0.01042817584738875</v>
+        <v>0.01824003873088764</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.958716646466364</v>
+        <v>-2.926542290415591</v>
       </c>
       <c r="G236">
-        <v>-0.02298682437701549</v>
+        <v>0.008918117638461398</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013393987350317</v>
+        <v>-2.975300223748566</v>
       </c>
       <c r="G237">
-        <v>-0.02867187624059264</v>
+        <v>0.009307997465831441</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.056794684952312</v>
+        <v>-3.027509702397749</v>
       </c>
       <c r="G238">
-        <v>-0.02296294140346311</v>
+        <v>0.006246331976993535</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.100081858066674</v>
+        <v>-3.084996131592509</v>
       </c>
       <c r="G239">
-        <v>-0.01714242037365032</v>
+        <v>-0.002092284057421345</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.144225156114622</v>
+        <v>-3.136590051563285</v>
       </c>
       <c r="G240">
-        <v>-0.01217349541913376</v>
+        <v>-0.004538390867852571</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.182077113376498</v>
       </c>
       <c r="G241">
-        <v>5.284661597215745e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-2.730186417221104</v>
       </c>
       <c r="G242">
-        <v>-2.442490654175344e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.772932626098645</v>
+        <v>-2.770275341747003</v>
       </c>
       <c r="G243">
-        <v>0.007319627427045727</v>
+        <v>0.009724932722006585</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.82242329352968</v>
+        <v>-2.812723362283808</v>
       </c>
       <c r="G244">
-        <v>0.007390838187264048</v>
+        <v>0.0170907694331075</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.875984103398528</v>
+        <v>-2.858376622244922</v>
       </c>
       <c r="G245">
-        <v>0.003643885566348093</v>
+        <v>0.02125136671989947</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.934566245550414</v>
+        <v>-2.913012924976357</v>
       </c>
       <c r="G246">
-        <v>-0.004582944367520048</v>
+        <v>0.0169703762064557</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.994320427648272</v>
+        <v>-2.958736008199476</v>
       </c>
       <c r="G247">
-        <v>-0.01437153393546731</v>
+        <v>0.02106115023124211</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.057133018043072</v>
+        <v>-3.015888431790294</v>
       </c>
       <c r="G248">
-        <v>-0.02752200236431346</v>
+        <v>0.01372258388832992</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.104006535529315</v>
+        <v>-3.070434582063574</v>
       </c>
       <c r="G249">
-        <v>-0.02404020763253811</v>
+        <v>0.009531745833041283</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.146177880383791</v>
+        <v>-3.127027359079883</v>
       </c>
       <c r="G250">
-        <v>-0.01635195783387289</v>
+        <v>0.002752826064638114</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.191006880172271</v>
+        <v>-3.179836673260326</v>
       </c>
       <c r="G251">
-        <v>-0.01141283777963015</v>
+        <v>-0.000242630867899607</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.229949354610418</v>
       </c>
       <c r="G252">
-        <v>2.41140440948584e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-2.75980554892974</v>
       </c>
       <c r="G253">
-        <v>-9.992007221626409e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.801715839603767</v>
+        <v>-2.798479110990838</v>
       </c>
       <c r="G254">
-        <v>0.008429673270414106</v>
+        <v>0.01166640188348955</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.849624190840533</v>
+        <v>-2.841716035649341</v>
       </c>
       <c r="G255">
-        <v>0.01179929347039455</v>
+        <v>0.01912646219045877</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.902328937642779</v>
+        <v>-2.888028355774861</v>
       </c>
       <c r="G256">
-        <v>0.008853524141368307</v>
+        <v>0.0231541060095275</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.960023067063878</v>
+        <v>-2.936307248658021</v>
       </c>
       <c r="G257">
-        <v>0.001856379685693632</v>
+        <v>0.02557219809183908</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.019133655343728</v>
+        <v>-2.989994413009226</v>
       </c>
       <c r="G258">
-        <v>-0.00630295866425179</v>
+        <v>0.02222499768522224</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.081681656431202</v>
+        <v>-3.040884375902968</v>
       </c>
       <c r="G259">
-        <v>-0.0187652607716644</v>
+        <v>0.02203201975695213</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.136102425860702</v>
+        <v>-3.097259470754989</v>
       </c>
       <c r="G260">
-        <v>-0.02219513484000657</v>
+        <v>0.01599688884951955</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.180493115526539</v>
+        <v>-3.156194354675052</v>
       </c>
       <c r="G261">
-        <v>-0.0164745030082587</v>
+        <v>0.007758989894928181</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.224096450292092</v>
+        <v>-3.212525033468005</v>
       </c>
       <c r="G262">
-        <v>-0.009738556260183884</v>
+        <v>0.001768275046563184</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.26499029348004</v>
       </c>
       <c r="G263">
-        <v>-5.702105454474804e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-2.782412269774368</v>
       </c>
       <c r="G264">
-        <v>-4.560796185160143e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.823103152226188</v>
+        <v>-2.821685087253536</v>
       </c>
       <c r="G265">
-        <v>0.01006808663450087</v>
+        <v>0.01148615160766875</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.871064012618505</v>
+        <v>-2.863950366792276</v>
       </c>
       <c r="G266">
-        <v>0.01311380005621299</v>
+        <v>0.02022744588301739</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.92221175040318</v>
+        <v>-2.908249859517933</v>
       </c>
       <c r="G267">
-        <v>0.01297263608556753</v>
+        <v>0.02693452697144982</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.976875396666203</v>
+        <v>-2.95558601285597</v>
       </c>
       <c r="G268">
-        <v>0.009067958909321439</v>
+        <v>0.03035734272024904</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.036480542004887</v>
+        <v>-3.008139268856843</v>
       </c>
       <c r="G269">
-        <v>0.001023698072096346</v>
+        <v>0.02881066053346482</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.098811109908986</v>
+        <v>-3.062351363630956</v>
       </c>
       <c r="G270">
-        <v>-0.01085460670540317</v>
+        <v>0.02560513957344135</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.161538159132517</v>
+        <v>-3.118125905844683</v>
       </c>
       <c r="G271">
-        <v>-0.02282268684215705</v>
+        <v>0.02058956644654975</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.207362301741215</v>
+        <v>-3.177009898709678</v>
       </c>
       <c r="G272">
-        <v>-0.01742792594338538</v>
+        <v>0.01271214739564419</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.24981369292842</v>
+        <v>-3.236948037810803</v>
       </c>
       <c r="G273">
-        <v>-0.009085073010002387</v>
+        <v>0.003780582108608543</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.2917351937335</v>
       </c>
       <c r="G274">
-        <v>-1.052935516554498e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-2.800227823166563</v>
       </c>
       <c r="G275">
-        <v>-5.240252676230739e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.84029773543315</v>
+        <v>-2.837906207521192</v>
       </c>
       <c r="G276">
-        <v>0.01150136125199586</v>
+        <v>0.01341922657808547</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.887174036503507</v>
+        <v>-2.879809640317261</v>
       </c>
       <c r="G277">
-        <v>0.016348977228831</v>
+        <v>0.02279206769001973</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.937091124612444</v>
+        <v>-2.924860000792156</v>
       </c>
       <c r="G278">
-        <v>0.01678685730237328</v>
+        <v>0.02901798112312859</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.991536179736043</v>
+        <v>-2.971377371292946</v>
       </c>
       <c r="G279">
-        <v>0.01387945933232482</v>
+        <v>0.03377688453034211</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.050214187154442</v>
+        <v>-3.023509697181296</v>
       </c>
       <c r="G280">
-        <v>0.00629137778949751</v>
+        <v>0.03292083254999567</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.112018902274127</v>
+        <v>-3.075885610264625</v>
       </c>
       <c r="G281">
-        <v>-0.004312098635242512</v>
+        <v>0.03182119337466993</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.178375830717789</v>
+        <v>-3.134078161037488</v>
       </c>
       <c r="G282">
-        <v>-0.01939275317088218</v>
+        <v>0.02490491650980997</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227499712985812</v>
+        <v>-3.194399803541189</v>
       </c>
       <c r="G283">
-        <v>-0.01724036153088204</v>
+        <v>0.01585954791411237</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.270105370301348</v>
+        <v>-3.25620748150786</v>
       </c>
       <c r="G284">
-        <v>-0.008519655283857508</v>
+        <v>0.005328143855445389</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.312811899271309</v>
       </c>
       <c r="G285">
-        <v>-3.343991750170971e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-2.814626610422591</v>
       </c>
       <c r="G286">
-        <v>1.35091937636389e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.854503486949508</v>
+        <v>-2.852529319432889</v>
       </c>
       <c r="G287">
-        <v>0.01163179237234502</v>
+        <v>0.01360595988758506</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.900230147612862</v>
+        <v>-2.893611241898673</v>
       </c>
       <c r="G288">
-        <v>0.01741380060690156</v>
+        <v>0.02403270631968368</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.949057940379182</v>
+        <v>-2.937676553217167</v>
       </c>
       <c r="G289">
-        <v>0.02033208477348647</v>
+        <v>0.03147606389907232</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.003013511972313</v>
+        <v>-2.985729461335558</v>
       </c>
       <c r="G290">
-        <v>0.0176659173333531</v>
+        <v>0.03493182467856393</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.060720798709976</v>
+        <v>-3.036139062740301</v>
       </c>
       <c r="G291">
-        <v>0.01165858328749003</v>
+        <v>0.0360308921717043</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.122889795560041</v>
+        <v>-3.088947445697187</v>
       </c>
       <c r="G292">
-        <v>0.000881530276134912</v>
+        <v>0.03473117811270088</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.188733232472893</v>
+        <v>-3.146087193169671</v>
       </c>
       <c r="G293">
-        <v>-0.01354593976357454</v>
+        <v>0.02910009953809967</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.242633031722981</v>
+        <v>-3.207769109719764</v>
       </c>
       <c r="G294">
-        <v>-0.01578977738284937</v>
+        <v>0.01892685188588905</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.286484938608999</v>
+        <v>-3.270489239805145</v>
       </c>
       <c r="G295">
-        <v>-0.008244632085241566</v>
+        <v>0.007715390698390501</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.329846396737072</v>
       </c>
       <c r="G296">
-        <v>1.63247193540883e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.417146695911884</v>
+        <v>-2.417784877730063</v>
       </c>
       <c r="G20">
         <v>-0.009978058694758651</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.438905552747161</v>
+        <v>-2.43892975702072</v>
       </c>
       <c r="G22">
         <v>-0.01592436076940862</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.449465890255708</v>
+        <v>-2.450128276347448</v>
       </c>
       <c r="G23">
         <v>-0.01857842089764272</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.456207082725839</v>
+        <v>-2.457222015358862</v>
       </c>
       <c r="G24">
         <v>-0.01741333598746042</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.467734843095642</v>
+        <v>-2.472525315000907</v>
       </c>
       <c r="G25">
         <v>-0.02103481897695025</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.487953617725094</v>
+        <v>-2.494984425410768</v>
       </c>
       <c r="G28">
         <v>-0.01753476146546262</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.491754425468793</v>
+        <v>-2.503956376370105</v>
       </c>
       <c r="G29">
         <v>-0.01342929182884789</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.504193054968594</v>
+        <v>-2.51090906859811</v>
       </c>
       <c r="G30">
         <v>-0.01796164394833655</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.512115563990998</v>
+        <v>-2.524269535342219</v>
       </c>
       <c r="G31">
         <v>-0.0179778755904263</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.516642813853098</v>
+        <v>-2.530605757083395</v>
       </c>
       <c r="G32">
         <v>-0.0145988480722139</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.531190728547959</v>
+        <v>-2.532489888512932</v>
       </c>
       <c r="G33">
         <v>-0.02124048538676138</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.531721510511725</v>
+        <v>-2.548707077559119</v>
       </c>
       <c r="G34">
         <v>-0.01386498997021413</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.556138554317386</v>
+        <v>-2.556363115918155</v>
       </c>
       <c r="G36">
         <v>-0.02246947901524887</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.560248678341497</v>
+        <v>-2.564615993335364</v>
       </c>
       <c r="G37">
         <v>-0.01867332565904656</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.571273950394958</v>
+        <v>-2.578513588155803</v>
       </c>
       <c r="G38">
         <v>-0.02179232033219369</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.590166298033085</v>
+        <v>-2.596790647515393</v>
       </c>
       <c r="G40">
         <v>-0.02487211320969496</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.605515359308002</v>
+        <v>-2.607479186732471</v>
       </c>
       <c r="G41">
         <v>-0.03231489710429925</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.600623130669334</v>
+        <v>-2.605089642486095</v>
       </c>
       <c r="G42">
         <v>-0.01951639108531711</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.629183305616248</v>
+        <v>-2.630590857159523</v>
       </c>
       <c r="G44">
         <v>-0.03226401127160483</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.622543675323601</v>
+        <v>-2.632128456625883</v>
       </c>
       <c r="G45">
         <v>-0.0177181035986449</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.642588902563659</v>
+        <v>-2.644261798654964</v>
       </c>
       <c r="G46">
         <v>-0.02985705345839018</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.643869582887536</v>
+        <v>-2.651670673273101</v>
       </c>
       <c r="G47">
         <v>-0.02323145640195357</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.654096799670273</v>
+        <v>-2.656661337970586</v>
       </c>
       <c r="G48">
         <v>-0.02555239580437696</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.661183559513761</v>
+        <v>-2.668775734108122</v>
       </c>
       <c r="G49">
         <v>-0.02473287826755211</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.673859116376296</v>
+        <v>-2.675619663651752</v>
       </c>
       <c r="G50">
         <v>-0.02950215774977416</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.678791103878269</v>
+        <v>-2.680256117821155</v>
       </c>
       <c r="G51">
         <v>-0.02652786787143413</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.680656651439408</v>
+        <v>-2.687361332429431</v>
       </c>
       <c r="G52">
         <v>-0.02048713805225921</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.684578982512066</v>
+        <v>-2.697513350761827</v>
       </c>
       <c r="G53">
         <v>-0.01650319174460446</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.702677353885089</v>
+        <v>-2.704200506200393</v>
       </c>
       <c r="G54">
         <v>-0.02669528573731383</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.704121458441308</v>
+        <v>-2.71309240963897</v>
       </c>
       <c r="G55">
         <v>-0.02023311291322005</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.723796461415395</v>
+        <v>-2.726707641091643</v>
       </c>
       <c r="G57">
         <v>-0.02409556112668065</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.72704872017493</v>
+        <v>-2.731430969105743</v>
       </c>
       <c r="G58">
         <v>-0.01944154250590269</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.73270340187386</v>
+        <v>-2.737325794040756</v>
       </c>
       <c r="G59">
         <v>-0.01718994682451891</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.743927050652012</v>
+        <v>-2.746993252076483</v>
       </c>
       <c r="G60">
         <v>-0.02050731822235741</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.757542282104685</v>
+        <v>-2.758644656104688</v>
       </c>
       <c r="G62">
         <v>-0.01830999491440488</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.764298560464162</v>
+        <v>-2.764470358118791</v>
       </c>
       <c r="G63">
         <v>-0.01715999589356854</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.775864065665054</v>
+        <v>-2.775949964492368</v>
       </c>
       <c r="G65">
         <v>-0.01291294633383361</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.550457443242257</v>
+        <v>-2.550590072805479</v>
       </c>
       <c r="G75">
         <v>-0.001650894380612389</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.554063668471944</v>
+        <v>-2.554169814418924</v>
       </c>
       <c r="G76">
         <v>-0.002095046560501412</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.556709110475227</v>
+        <v>-2.557882185595591</v>
       </c>
       <c r="G77">
         <v>-0.001578415513987963</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.560182706141692</v>
+        <v>-2.561488410825278</v>
       </c>
       <c r="G78">
         <v>-0.001889938130654745</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.563354714915373</v>
+        <v>-2.565110450826158</v>
       </c>
       <c r="G79">
         <v>-0.001899873854538825</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.566951532393285</v>
+        <v>-2.567585899322912</v>
       </c>
       <c r="G80">
         <v>-0.002334618282652912</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.570427818448966</v>
+        <v>-2.570581943968969</v>
       </c>
       <c r="G81">
         <v>-0.002648831288536435</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.572205777690288</v>
+        <v>-2.575537261661975</v>
       </c>
       <c r="G82">
         <v>-0.001264717480061517</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.576408048032899</v>
+        <v>-2.576491366892034</v>
       </c>
       <c r="G83">
         <v>-0.002304914772874866</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.577498089591131</v>
+        <v>-2.579970888160889</v>
       </c>
       <c r="G84">
         <v>-0.0002328832813094373</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.57952469428318</v>
+        <v>-2.583551219565551</v>
       </c>
       <c r="G85">
         <v>0.0009025850764383669</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.58695721778242</v>
+        <v>-2.589539325605479</v>
       </c>
       <c r="G87">
         <v>-0.0002057923232063885</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.590041831930086</v>
+        <v>-2.590576297908104</v>
       </c>
       <c r="G88">
         <v>-0.0001283334210753218</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.596181892855419</v>
+        <v>-2.596575503360716</v>
       </c>
       <c r="G89">
         <v>-0.003106321296610481</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.595876331802636</v>
+        <v>-2.598299157457169</v>
       </c>
       <c r="G90">
         <v>0.0003613128059689608</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.603320313106662</v>
+        <v>-2.605524432082282</v>
       </c>
       <c r="G93">
         <v>0.002403550651336239</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.604704367925252</v>
+        <v>-2.610062121119579</v>
       </c>
       <c r="G94">
         <v>0.004181568882542841</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.608913012867873</v>
+        <v>-2.612266086725382</v>
       </c>
       <c r="G95">
         <v>0.003134996989718974</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.611687198232257</v>
+        <v>-2.616646188865372</v>
       </c>
       <c r="G96">
         <v>0.003522884675132509</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.618389822117825</v>
+        <v>-2.621484862444434</v>
       </c>
       <c r="G97">
         <v>-1.766616063703097e-05</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.623553049579616</v>
+        <v>-2.629695679329706</v>
       </c>
       <c r="G99">
         <v>0.001143252477165735</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.631770558311209</v>
+        <v>-2.637590807817614</v>
       </c>
       <c r="G102">
         <v>0.002411962894965036</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.643002897474791</v>
+        <v>-2.649257395610243</v>
       </c>
       <c r="G106">
         <v>0.003827915930571857</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.645617390485584</v>
+        <v>-2.649269801766632</v>
       </c>
       <c r="G107">
         <v>0.004375495969577203</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.65190960776061</v>
+        <v>-2.655990596503541</v>
       </c>
       <c r="G108">
         <v>0.001245351744348033</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.657267090845449</v>
+        <v>-2.664397790721281</v>
       </c>
       <c r="G109">
         <v>-0.0009500582906933897</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.657090597907856</v>
+        <v>-2.663712720502558</v>
       </c>
       <c r="G110">
         <v>0.00238850769669674</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.665827362015865</v>
+        <v>-2.669377501525728</v>
       </c>
       <c r="G112">
         <v>-2.411031171689615e-05</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.664921983499497</v>
+        <v>-2.670531742933337</v>
       </c>
       <c r="G113">
         <v>0.004043341254447608</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.669306880236004</v>
+        <v>-2.678157980317497</v>
       </c>
       <c r="G115">
         <v>0.005982590617535699</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.683980762602369</v>
+        <v>-2.684589396804973</v>
       </c>
       <c r="G117">
         <v>-0.002367145649234237</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.683132262972077</v>
+        <v>-2.693273147579962</v>
       </c>
       <c r="G119">
         <v>0.004805500080653058</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.685924713297054</v>
+        <v>-2.686679985062014</v>
       </c>
       <c r="G120">
         <v>0.005175122805473276</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.694215779320356</v>
+        <v>-2.694634485740721</v>
       </c>
       <c r="G121">
         <v>4.612983196805587e-05</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.695537356162369</v>
+        <v>-2.704940348558477</v>
       </c>
       <c r="G123">
         <v>0.005048699089549968</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.702003647056552</v>
+        <v>-2.709018646808521</v>
       </c>
       <c r="G124">
         <v>0.001744481245164131</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.705183542976231</v>
+        <v>-2.705882301202736</v>
       </c>
       <c r="G125">
         <v>0.00172665837528263</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.708818353606922</v>
+        <v>-2.71201154869684</v>
       </c>
       <c r="G126">
         <v>0.001253920794388907</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.711211682735979</v>
+        <v>-2.715551538338753</v>
       </c>
       <c r="G127">
         <v>0.002022664715129352</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.719690182006429</v>
+        <v>-2.719938368192144</v>
       </c>
       <c r="G128">
         <v>-0.00329376150552263</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.725766412565353</v>
+        <v>-2.731416529752202</v>
       </c>
       <c r="G131">
         <v>0.0001162270849455194</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.734659686121349</v>
+        <v>-2.735274550111394</v>
       </c>
       <c r="G133">
         <v>-0.002452900371455957</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.736458802041156</v>
+        <v>-2.741754527010396</v>
       </c>
       <c r="G134">
         <v>-0.001089943241466163</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.731071330103564</v>
+        <v>-2.748847027375111</v>
       </c>
       <c r="G136">
         <v>0.01062167479572107</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.743065244106662</v>
+        <v>-2.750117974949825</v>
       </c>
       <c r="G137">
         <v>0.001789833842420707</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.746187466535736</v>
+        <v>-2.755616053647131</v>
       </c>
       <c r="G138">
         <v>0.001829684463143799</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.747666561769052</v>
+        <v>-2.75790841115543</v>
       </c>
       <c r="G139">
         <v>0.003512662279625101</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.754333006614502</v>
+        <v>-2.757559615400797</v>
       </c>
       <c r="G140">
         <v>8.290483972439588e-06</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.765517735779724</v>
+        <v>-2.767775891704778</v>
       </c>
       <c r="G142">
         <v>-0.004852292581655204</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.763172582664163</v>
+        <v>-2.767975589923474</v>
       </c>
       <c r="G143">
         <v>0.0006549335837040537</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.772537828358421</v>
+        <v>-2.778827987552658</v>
       </c>
       <c r="G145">
         <v>-0.002386166010959867</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.779975076108973</v>
+        <v>-2.785780500283459</v>
       </c>
       <c r="G147">
         <v>-0.00349926766191655</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.783147918840175</v>
+        <v>-2.792732465734433</v>
       </c>
       <c r="G148">
         <v>-0.003510037343321226</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.794264131150882</v>
+        <v>-2.800907231973978</v>
       </c>
       <c r="G150">
         <v>-0.008302103554433504</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.788428027481379</v>
+        <v>-2.797903285330567</v>
       </c>
       <c r="G151">
         <v>0.0006960731648670837</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.800691692642103</v>
+        <v>-2.802510438912091</v>
       </c>
       <c r="G152">
         <v>-0.00840551894606012</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.804640122014286</v>
+        <v>-2.806224741000106</v>
       </c>
       <c r="G153">
         <v>-0.009191875268445449</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.796007688029262</v>
+        <v>-2.805020325064046</v>
       </c>
       <c r="G154">
         <v>0.002602631766375207</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.810050972768344</v>
+        <v>-2.812469516622401</v>
       </c>
       <c r="G155">
         <v>-0.008278579922909257</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.81335574709077</v>
+        <v>-2.818849745544256</v>
       </c>
       <c r="G156">
         <v>-0.008421281195537755</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.813065758037359</v>
+        <v>-2.823221198673891</v>
       </c>
       <c r="G158">
         <v>-0.001807146042531294</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.818401037374366</v>
+        <v>-2.823361601298157</v>
       </c>
       <c r="G159">
         <v>-0.003980352329741699</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.819042654960922</v>
+        <v>-2.823635006641288</v>
       </c>
       <c r="G160">
         <v>-0.00145989686649961</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.829034167199977</v>
+        <v>-2.830924770823204</v>
       </c>
       <c r="G161">
         <v>-0.008289336055756991</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.82392053586639</v>
+        <v>-2.834596607152986</v>
       </c>
       <c r="G162">
         <v>-1.363167237289353e-05</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.830881556575272</v>
+        <v>-2.838662894150997</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.833425474254041</v>
+        <v>-2.850427967311159</v>
       </c>
       <c r="G164">
         <v>-0.003194423960429016</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.849067224675579</v>
+        <v>-2.850116435234763</v>
       </c>
       <c r="G167">
         <v>-0.00934995523257498</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.852728849449498</v>
+        <v>-2.85741217963206</v>
       </c>
       <c r="G168">
         <v>-0.009849506956697063</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.848980552718718</v>
+        <v>-2.860459604109739</v>
       </c>
       <c r="G169">
         <v>-0.002939137176119488</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.856772257572532</v>
+        <v>-2.863553097524643</v>
       </c>
       <c r="G170">
         <v>-0.007568768980136031</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.854750411265745</v>
+        <v>-2.861055973780776</v>
       </c>
       <c r="G171">
         <v>-0.002384849623551899</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.868585000767847</v>
+        <v>-2.871709249708493</v>
       </c>
       <c r="G173">
         <v>-0.009895293026059293</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.871257272695188</v>
+        <v>-2.875920338783535</v>
       </c>
       <c r="G174">
         <v>-0.009405491903602181</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.875449025471053</v>
+        <v>-2.886087779040277</v>
       </c>
       <c r="G176">
         <v>-0.007273098579873349</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.876047500767042</v>
+        <v>-2.884686592142594</v>
       </c>
       <c r="G177">
         <v>-0.004709500826064916</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.880541047399523</v>
+        <v>-2.885784159150189</v>
       </c>
       <c r="G178">
         <v>-0.006040974408747402</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.883345231905874</v>
+        <v>-2.888746990662598</v>
       </c>
       <c r="G179">
         <v>-0.005683085865301529</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.895307190599778</v>
+        <v>-2.8978665454509</v>
       </c>
       <c r="G180">
         <v>-0.0144829715094088</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.896729359578034</v>
+        <v>-2.898648376575744</v>
       </c>
       <c r="G181">
         <v>-0.0127430674378668</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.903144024540711</v>
+        <v>-2.905004645477446</v>
       </c>
       <c r="G183">
         <v>-0.01283358630094966</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.907160143834219</v>
+        <v>-2.910459769868122</v>
       </c>
       <c r="G184">
         <v>-0.01368763254465943</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.905213491359099</v>
+        <v>-2.909621931673516</v>
       </c>
       <c r="G185">
         <v>-0.008578907019741733</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.912226742626094</v>
+        <v>-2.914364135194491</v>
       </c>
       <c r="G186">
         <v>-0.01243008523693989</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.910175925469816</v>
+        <v>-2.916295324492507</v>
       </c>
       <c r="G187">
         <v>-0.007217195030864265</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.921073364044465</v>
+        <v>-2.925269982214862</v>
       </c>
       <c r="G190">
         <v>-0.008628414456121836</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.928341241884564</v>
+        <v>-2.928425477926091</v>
       </c>
       <c r="G191">
         <v>-0.0127342192464231</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.932502155686989</v>
+        <v>-2.934199514222823</v>
       </c>
       <c r="G193">
         <v>-0.01057098694925357</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.928679101255137</v>
+        <v>-2.938959140830855</v>
       </c>
       <c r="G194">
         <v>-0.003585859467603814</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.930072440770231</v>
+        <v>-2.942004422586583</v>
       </c>
       <c r="G195">
         <v>-0.001817125932900066</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.938701048743613</v>
+        <v>-2.945293902468017</v>
       </c>
       <c r="G196">
         <v>-0.007283660856484964</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.944926718843933</v>
+        <v>-2.946516734044348</v>
       </c>
       <c r="G197">
         <v>-0.01034725790700769</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.94528282354644</v>
+        <v>-2.951664646219008</v>
       </c>
       <c r="G198">
         <v>-0.007541289559717557</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.952527760229342</v>
+        <v>-2.953954252666064</v>
       </c>
       <c r="G199">
         <v>-0.01162415319282173</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.955613172271308</v>
+        <v>-2.957219199310141</v>
       </c>
       <c r="G200">
         <v>-0.01154749218499079</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.963619077199327</v>
+        <v>-2.965355773792534</v>
       </c>
       <c r="G203">
         <v>-0.0100671779636175</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.964574827269677</v>
+        <v>-2.96497386837226</v>
       </c>
       <c r="G204">
         <v>-0.007860854984170773</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.971808647836214</v>
+        <v>-2.972989318313059</v>
       </c>
       <c r="G205">
         <v>-0.0119326025009098</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.971544852746301</v>
+        <v>-2.973382223609026</v>
       </c>
       <c r="G206">
         <v>-0.00850673436119917</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.976811254414227</v>
+        <v>-2.977585069465997</v>
       </c>
       <c r="G207">
         <v>-0.01061106297932768</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.976159335129568</v>
+        <v>-2.979546049059519</v>
       </c>
       <c r="G208">
         <v>-0.006797070644871395</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.980228373690906</v>
+        <v>-2.981106345234277</v>
       </c>
       <c r="G209">
         <v>-0.007704036156412547</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.984122923182335</v>
+        <v>-2.984309488998838</v>
       </c>
       <c r="G210">
         <v>-0.008436512598043483</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.98627046859236</v>
+        <v>-2.98673881771163</v>
       </c>
       <c r="G211">
         <v>-0.007421984958271233</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.985696315882649</v>
+        <v>-2.988830466859527</v>
       </c>
       <c r="G212">
         <v>-0.003685759198763169</v>
@@ -5291,7 +5291,7 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-2.990390763034285</v>
+        <v>-2.991259795572318</v>
       </c>
       <c r="G213">
         <v>-0.005218133300601363</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.674311658001959</v>
+        <v>-2.675024524283515</v>
       </c>
       <c r="G221">
         <v>0.003646151957480193</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.715336269140473</v>
+        <v>-2.71900014959176</v>
       </c>
       <c r="G222">
         <v>0.0109416849728019</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.817552722113723</v>
+        <v>-2.818923668469205</v>
       </c>
       <c r="G224">
         <v>0.005365520307222704</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.859985124735336</v>
+        <v>-2.869878156561187</v>
       </c>
       <c r="G225">
         <v>0.01125326183944519</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.92007990004411</v>
+        <v>-2.924779887420269</v>
       </c>
       <c r="G226">
         <v>-0.0005213693154924037</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.022326597641625</v>
+        <v>-3.022890262717516</v>
       </c>
       <c r="G228">
         <v>-0.006127778605336309</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.068965739402858</v>
+        <v>-3.07101709264951</v>
       </c>
       <c r="G229">
         <v>-0.004446776212734482</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.730023888119772</v>
+        <v>-2.730789034015127</v>
       </c>
       <c r="G232">
         <v>0.008845267292900694</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.816891943978355</v>
+        <v>-2.819224408374231</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.86807255616282</v>
+        <v>-2.87001049252953</v>
       </c>
       <c r="G235">
         <v>0.01824003873088764</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-2.975300223748566</v>
+        <v>-2.978785792714284</v>
       </c>
       <c r="G237">
         <v>0.009307997465831441</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.027509702397749</v>
+        <v>-3.03283281726386</v>
       </c>
       <c r="G238">
         <v>0.006246331976993535</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.084996131592509</v>
+        <v>-3.085641993141514</v>
       </c>
       <c r="G239">
         <v>-0.002092284057421345</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.770275341747003</v>
+        <v>-2.770429100916077</v>
       </c>
       <c r="G243">
         <v>0.009724932722006585</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.812723362283808</v>
+        <v>-2.815214003792027</v>
       </c>
       <c r="G244">
         <v>0.0170907694331075</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.858376622244922</v>
+        <v>-2.859528855386304</v>
       </c>
       <c r="G245">
         <v>0.02125136671989947</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.958736008199476</v>
+        <v>-2.962009258218412</v>
       </c>
       <c r="G247">
         <v>0.02106115023124211</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.070434582063574</v>
+        <v>-3.074592085116548</v>
       </c>
       <c r="G249">
         <v>0.009531745833041283</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.179836673260326</v>
+        <v>-3.183343612945405</v>
       </c>
       <c r="G251">
         <v>-0.000242630867899607</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.798479110990838</v>
+        <v>-2.798969237410762</v>
       </c>
       <c r="G254">
         <v>0.01166640188348955</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.841716035649341</v>
+        <v>-2.84342722097852</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.888028355774861</v>
+        <v>-2.88993663037953</v>
       </c>
       <c r="G256">
         <v>0.0231541060095275</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.936307248658021</v>
+        <v>-2.937876329342051</v>
       </c>
       <c r="G257">
         <v>0.02557219809183908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-2.989994413009226</v>
+        <v>-2.99082809110886</v>
       </c>
       <c r="G258">
         <v>0.02222499768522224</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.040884375902968</v>
+        <v>-3.043797880948949</v>
       </c>
       <c r="G259">
         <v>0.02203201975695213</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.097259470754989</v>
+        <v>-3.099734116230317</v>
       </c>
       <c r="G260">
         <v>0.01599688884951955</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.156194354675052</v>
+        <v>-3.157305063742624</v>
       </c>
       <c r="G261">
         <v>0.007758989894928181</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.212525033468005</v>
+        <v>-3.213771182856302</v>
       </c>
       <c r="G262">
         <v>0.001768275046563184</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.863950366792276</v>
+        <v>-2.864517650683224</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.908249859517933</v>
+        <v>-2.910938658038575</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.95558601285597</v>
+        <v>-2.956930350837558</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.008139268856843</v>
+        <v>-3.008425168265832</v>
       </c>
       <c r="G269">
         <v>0.02881066053346482</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.062351363630956</v>
+        <v>-3.063648957522863</v>
       </c>
       <c r="G270">
         <v>0.02560513957344135</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.118125905844683</v>
+        <v>-3.120028734210072</v>
       </c>
       <c r="G271">
         <v>0.02058956644654975</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.177009898709678</v>
+        <v>-3.178285379023497</v>
       </c>
       <c r="G272">
         <v>0.01271214739564419</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.236948037810803</v>
+        <v>-3.237388375989723</v>
       </c>
       <c r="G273">
         <v>0.003780582108608543</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.837906207521192</v>
+        <v>-2.838803837322058</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.879809640317261</v>
+        <v>-2.880038367426028</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.924860000792156</v>
+        <v>-2.925343860318011</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.971377371292946</v>
+        <v>-2.972623943615829</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.023509697181296</v>
+        <v>-3.024898307657057</v>
       </c>
       <c r="G280">
         <v>0.03292083254999567</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.075885610264625</v>
+        <v>-3.078881633179464</v>
       </c>
       <c r="G281">
         <v>0.03182119337466993</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.134078161037488</v>
+        <v>-3.135894537513476</v>
       </c>
       <c r="G282">
         <v>0.02490491650980997</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.194399803541189</v>
+        <v>-3.194818924485439</v>
       </c>
       <c r="G283">
         <v>0.01585954791411237</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.25620748150786</v>
+        <v>-3.256312225119471</v>
       </c>
       <c r="G284">
         <v>0.005328143855445389</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.852529319432889</v>
+        <v>-2.853190487760616</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.893611241898673</v>
+        <v>-2.893904813695549</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.937676553217167</v>
+        <v>-2.938261050044238</v>
       </c>
       <c r="G289">
         <v>0.03147606389907232</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.088947445697187</v>
+        <v>-3.090258810524167</v>
       </c>
       <c r="G292">
         <v>0.03473117811270088</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.146087193169671</v>
+        <v>-3.148314095416616</v>
       </c>
       <c r="G293">
         <v>0.02910009953809967</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.457222015358862</v>
+        <v>-2.461326795674178</v>
       </c>
       <c r="G24">
         <v>-0.01741333598746042</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.479880485015661</v>
+        <v>-2.484896224091815</v>
       </c>
       <c r="G26">
         <v>-0.02527418351665589</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.484930017894896</v>
+        <v>-2.496732925236727</v>
       </c>
       <c r="G27">
         <v>-0.02241743901557691</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.494984425410768</v>
+        <v>-2.509207808199819</v>
       </c>
       <c r="G28">
         <v>-0.01753476146546262</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.503956376370105</v>
+        <v>-2.521706895436472</v>
       </c>
       <c r="G29">
         <v>-0.01342929182884789</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.51090906859811</v>
+        <v>-2.528824838721444</v>
       </c>
       <c r="G30">
         <v>-0.01796164394833655</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.524269535342219</v>
+        <v>-2.535922481738452</v>
       </c>
       <c r="G31">
         <v>-0.0179778755904263</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.530605757083395</v>
+        <v>-2.543421079843857</v>
       </c>
       <c r="G32">
         <v>-0.0145988480722139</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.532489888512932</v>
+        <v>-2.550158368308396</v>
       </c>
       <c r="G33">
         <v>-0.02124048538676138</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.548707077559119</v>
+        <v>-2.557656966413804</v>
       </c>
       <c r="G34">
         <v>-0.01386498997021413</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.550918607547575</v>
+        <v>-2.565155564519209</v>
       </c>
       <c r="G35">
         <v>-0.02515580962575115</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.556363115918155</v>
+        <v>-2.572273507804182</v>
       </c>
       <c r="G36">
         <v>-0.02246947901524887</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.564615993335364</v>
+        <v>-2.580949535873841</v>
       </c>
       <c r="G37">
         <v>-0.01867332565904656</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.578513588155803</v>
+        <v>-2.588322944989029</v>
       </c>
       <c r="G38">
         <v>-0.02179232033219369</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.586386087948176</v>
+        <v>-2.595185422443786</v>
       </c>
       <c r="G39">
         <v>-0.02899818050509917</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.596790647515393</v>
+        <v>-2.603320141199842</v>
       </c>
       <c r="G40">
         <v>-0.02487211320969496</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.607479186732471</v>
+        <v>-2.611600349214081</v>
       </c>
       <c r="G41">
         <v>-0.03231489710429925</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.605089642486095</v>
+        <v>-2.619389878652652</v>
       </c>
       <c r="G42">
         <v>-0.01951639108531711</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.615010610872895</v>
+        <v>-2.625836235784026</v>
       </c>
       <c r="G43">
         <v>-0.02599759390856526</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.630590857159523</v>
+        <v>-2.632954179068999</v>
       </c>
       <c r="G44">
         <v>-0.03226401127160483</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.632128456625883</v>
+        <v>-2.640072122353971</v>
       </c>
       <c r="G45">
         <v>-0.0177181035986449</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.644261798654964</v>
+        <v>-2.648533237946143</v>
       </c>
       <c r="G46">
         <v>-0.02985705345839018</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.651670673273101</v>
+        <v>-2.656322767384713</v>
       </c>
       <c r="G47">
         <v>-0.02323145640195357</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.656661337970586</v>
+        <v>-2.663440710669685</v>
       </c>
       <c r="G48">
         <v>-0.02555239580437696</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.668775734108122</v>
+        <v>-2.671230240108258</v>
       </c>
       <c r="G49">
         <v>-0.02473287826755211</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.675619663651752</v>
+        <v>-2.67901976954683</v>
       </c>
       <c r="G50">
         <v>-0.02950215774977416</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.680256117821155</v>
+        <v>-2.686809298985402</v>
       </c>
       <c r="G51">
         <v>-0.02652786787143413</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.687361332429431</v>
+        <v>-2.694598828423973</v>
       </c>
       <c r="G52">
         <v>-0.02048713805225921</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.697513350761827</v>
+        <v>-2.702388357862544</v>
       </c>
       <c r="G53">
         <v>-0.01650319174460446</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.704200506200393</v>
+        <v>-2.710177887301116</v>
       </c>
       <c r="G54">
         <v>-0.02669528573731383</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.71309240963897</v>
+        <v>-2.717020064487908</v>
       </c>
       <c r="G55">
         <v>-0.02023311291322005</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.726707641091643</v>
+        <v>-2.729687943688803</v>
       </c>
       <c r="G57">
         <v>-0.02409556112668065</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.731430969105743</v>
+        <v>-2.735513645702905</v>
       </c>
       <c r="G58">
         <v>-0.01944154250590269</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.737325794040756</v>
+        <v>-2.741339347717007</v>
       </c>
       <c r="G59">
         <v>-0.01718994682451891</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.746993252076483</v>
+        <v>-2.747165049731109</v>
       </c>
       <c r="G60">
         <v>-0.02050731822235741</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.752818954090583</v>
+        <v>-2.752990751745212</v>
       </c>
       <c r="G61">
         <v>-0.02149294428061616</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.758644656104688</v>
+        <v>-2.758730554932002</v>
       </c>
       <c r="G62">
         <v>-0.01830999491440488</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.554169814418924</v>
+        <v>-2.554302443982147</v>
       </c>
       <c r="G76">
         <v>-0.002095046560501412</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.561488410825278</v>
+        <v>-2.561727186335482</v>
       </c>
       <c r="G78">
         <v>-0.001889938130654745</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.567585899322912</v>
+        <v>-2.568955451566048</v>
       </c>
       <c r="G80">
         <v>-0.002334618282652912</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.570581943968969</v>
+        <v>-2.571255972112145</v>
       </c>
       <c r="G81">
         <v>-0.002648831288536435</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.576491366892034</v>
+        <v>-2.578595424164485</v>
       </c>
       <c r="G83">
         <v>-0.002304914772874866</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.579970888160889</v>
+        <v>-2.582960914623012</v>
       </c>
       <c r="G84">
         <v>-0.0002328832813094373</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.583551219565551</v>
+        <v>-2.585113878258046</v>
       </c>
       <c r="G85">
         <v>0.0009025850764383669</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.587789380681654</v>
+        <v>-2.588435835816288</v>
       </c>
       <c r="G86">
         <v>-0.004200028272237422</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.589539325605479</v>
+        <v>-2.592568681031703</v>
       </c>
       <c r="G87">
         <v>-0.0002057923232063885</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.590576297908104</v>
+        <v>-2.596090652137367</v>
       </c>
       <c r="G88">
         <v>-0.0001283334210753218</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.596575503360716</v>
+        <v>-2.599216699108735</v>
       </c>
       <c r="G89">
         <v>-0.003106321296610481</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.598299157457169</v>
+        <v>-2.60322250914038</v>
       </c>
       <c r="G90">
         <v>0.0003613128059689608</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.602204696819987</v>
+        <v>-2.605765266837951</v>
       </c>
       <c r="G91">
         <v>-0.002804979161584065</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.603435146473334</v>
+        <v>-2.610389748141874</v>
       </c>
       <c r="G92">
         <v>-0.0008733557651336987</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.605524432082282</v>
+        <v>-2.613573842373359</v>
       </c>
       <c r="G93">
         <v>0.002403550651336239</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.610062121119579</v>
+        <v>-2.619168162924404</v>
       </c>
       <c r="G94">
         <v>0.004181568882542841</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.612266086725382</v>
+        <v>-2.622944757902266</v>
       </c>
       <c r="G95">
         <v>0.003134996989718974</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.616646188865372</v>
+        <v>-2.623458337566102</v>
       </c>
       <c r="G96">
         <v>0.003522884675132509</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.621484862444434</v>
+        <v>-2.628382632436715</v>
       </c>
       <c r="G97">
         <v>-1.766616063703097e-05</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.619664756276272</v>
+        <v>-2.634426868723941</v>
       </c>
       <c r="G98">
         <v>0.001869472730712918</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.629695679329706</v>
+        <v>-2.636780940603357</v>
       </c>
       <c r="G99">
         <v>0.001143252477165735</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.62898500308522</v>
+        <v>-2.642867057648452</v>
       </c>
       <c r="G100">
         <v>-0.001126627978640826</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.632530213413464</v>
+        <v>-2.643914183887924</v>
       </c>
       <c r="G101">
         <v>-0.001509765257087903</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.637590807817614</v>
+        <v>-2.648783334816248</v>
       </c>
       <c r="G102">
         <v>0.002411962894965036</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.634929882702326</v>
+        <v>-2.648913855212438</v>
       </c>
       <c r="G103">
         <v>0.002414711553645255</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.646039301083935</v>
+        <v>-2.653889975336104</v>
       </c>
       <c r="G104">
         <v>-0.005532633778166263</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.647770399342094</v>
+        <v>-2.658403390435319</v>
       </c>
       <c r="G105">
         <v>-0.004101658986527923</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.649257395610243</v>
+        <v>-2.66416132818174</v>
       </c>
       <c r="G106">
         <v>0.003827915930571857</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.649269801766632</v>
+        <v>-2.665805728105285</v>
       </c>
       <c r="G107">
         <v>0.004375495969577203</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.655990596503541</v>
+        <v>-2.673166153517134</v>
       </c>
       <c r="G108">
         <v>0.001245351744348033</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.664397790721281</v>
+        <v>-2.678514768106528</v>
       </c>
       <c r="G109">
         <v>-0.0009500582906933897</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.663712720502558</v>
+        <v>-2.679715490606963</v>
       </c>
       <c r="G110">
         <v>0.00238850769669674</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.670307005322986</v>
+        <v>-2.683628180963603</v>
       </c>
       <c r="G111">
         <v>-0.007665826668636022</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.669377501525728</v>
+        <v>-2.68700351327243</v>
       </c>
       <c r="G112">
         <v>-2.411031171689615e-05</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.670531742933337</v>
+        <v>-2.692457206179891</v>
       </c>
       <c r="G113">
         <v>0.004043341254447608</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.676101007039547</v>
+        <v>-2.696804703710824</v>
       </c>
       <c r="G114">
         <v>-0.003973609235804698</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.678157980317497</v>
+        <v>-2.70184011042449</v>
       </c>
       <c r="G115">
         <v>0.005982590617535699</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.678665307614895</v>
+        <v>-2.70335830048742</v>
       </c>
       <c r="G116">
         <v>-0.0002137637115571245</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.684589396804973</v>
+        <v>-2.708727321641291</v>
       </c>
       <c r="G117">
         <v>-0.002367145649234237</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.685137442568062</v>
+        <v>-2.712478519628148</v>
       </c>
       <c r="G118">
         <v>-0.0003617525651302689</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.693273147579962</v>
+        <v>-2.718522413264532</v>
       </c>
       <c r="G119">
         <v>0.004805500080653058</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.686679985062014</v>
+        <v>-2.721197371068348</v>
       </c>
       <c r="G120">
         <v>0.005175122805473276</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.694634485740721</v>
+        <v>-2.725850053864192</v>
       </c>
       <c r="G121">
         <v>4.612983196805587e-05</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.696719607861569</v>
+        <v>-2.73067772965344</v>
       </c>
       <c r="G122">
         <v>0.0007043743405532599</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.704940348558477</v>
+        <v>-2.734659428317811</v>
       </c>
       <c r="G123">
         <v>0.005048699089549968</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.709018646808521</v>
+        <v>-2.739305405578514</v>
       </c>
       <c r="G124">
         <v>0.001744481245164131</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.705882301202736</v>
+        <v>-2.743984625205932</v>
       </c>
       <c r="G125">
         <v>0.00172665837528263</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.71201154869684</v>
+        <v>-2.748422378933931</v>
       </c>
       <c r="G126">
         <v>0.001253920794388907</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.715551538338753</v>
+        <v>-2.753068356194636</v>
       </c>
       <c r="G127">
         <v>0.002022664715129352</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.719938368192144</v>
+        <v>-2.755862409699353</v>
       </c>
       <c r="G128">
         <v>-0.00329376150552263</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.723513068866363</v>
+        <v>-2.75865646320407</v>
       </c>
       <c r="G129">
         <v>-0.003954575315660014</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.72725474159071</v>
+        <v>-2.761450516708786</v>
       </c>
       <c r="G130">
         <v>-0.004534174990209916</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.731416529752202</v>
+        <v>-2.764316887954307</v>
       </c>
       <c r="G131">
         <v>0.0001162270849455194</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.733804360818961</v>
+        <v>-2.767110941459023</v>
       </c>
       <c r="G132">
         <v>-0.004759648118866089</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.735274550111394</v>
+        <v>-2.76990499496374</v>
       </c>
       <c r="G133">
         <v>-0.002452900371455957</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.741754527010396</v>
+        <v>-2.77277136620926</v>
       </c>
       <c r="G134">
         <v>-0.001089943241466163</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.739999240263433</v>
+        <v>-2.775565419713977</v>
       </c>
       <c r="G135">
         <v>-0.00146830841394574</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.748847027375111</v>
+        <v>-2.778504108700301</v>
       </c>
       <c r="G136">
         <v>0.01062167479572107</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.750117974949825</v>
+        <v>-2.781370479945821</v>
       </c>
       <c r="G137">
         <v>0.001789833842420707</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.755616053647131</v>
+        <v>-2.784164533450538</v>
       </c>
       <c r="G138">
         <v>0.001829684463143799</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.75790841115543</v>
+        <v>-2.78664898340368</v>
       </c>
       <c r="G139">
         <v>0.003512662279625101</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.757559615400797</v>
+        <v>-2.789609453324875</v>
       </c>
       <c r="G140">
         <v>8.290483972439588e-06</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.76488174412367</v>
+        <v>-2.792386342359553</v>
       </c>
       <c r="G141">
         <v>-0.007378373975398311</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.767775891704778</v>
+        <v>-2.796518973557586</v>
       </c>
       <c r="G142">
         <v>-0.004852292581655204</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.767975589923474</v>
+        <v>-2.798234964461139</v>
       </c>
       <c r="G143">
         <v>0.0006549335837040537</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.770896402640043</v>
+        <v>-2.80121019390168</v>
       </c>
       <c r="G144">
         <v>-0.003906813342378745</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.778827987552658</v>
+        <v>-2.80371180832486</v>
       </c>
       <c r="G145">
         <v>-0.002386166010959867</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.782908329109135</v>
+        <v>-2.807134879714912</v>
       </c>
       <c r="G146">
         <v>-0.009594593711876653</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.785780500283459</v>
+        <v>-2.809171487718541</v>
       </c>
       <c r="G147">
         <v>-0.00349926766191655</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.792732465734433</v>
+        <v>-2.812994515364998</v>
       </c>
       <c r="G148">
         <v>-0.003510037343321226</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.788093325275244</v>
+        <v>-2.815478965318142</v>
       </c>
       <c r="G149">
         <v>-0.005293370728593372</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.800907231973978</v>
+        <v>-2.818178920147183</v>
       </c>
       <c r="G150">
         <v>-0.008302103554433504</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.797903285330567</v>
+        <v>-2.819463901298938</v>
       </c>
       <c r="G151">
         <v>0.0006960731648670837</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.802510438912091</v>
+        <v>-2.823440259135005</v>
       </c>
       <c r="G152">
         <v>-0.00840551894606012</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.806224741000106</v>
+        <v>-2.826588926407549</v>
       </c>
       <c r="G153">
         <v>-0.009191875268445449</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.805020325064046</v>
+        <v>-2.830238516222003</v>
       </c>
       <c r="G154">
         <v>0.002602631766375207</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.812469516622401</v>
+        <v>-2.831561572284677</v>
       </c>
       <c r="G155">
         <v>-0.008278579922909257</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.818849745544256</v>
+        <v>-2.835961115658532</v>
       </c>
       <c r="G156">
         <v>-0.008421281195537755</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.820667130124442</v>
+        <v>-2.838738335575032</v>
       </c>
       <c r="G157">
         <v>-0.01257059117941184</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.823221198673891</v>
+        <v>-2.841309531906502</v>
       </c>
       <c r="G158">
         <v>-0.001807146042531294</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.823361601298157</v>
+        <v>-2.844031267670415</v>
       </c>
       <c r="G159">
         <v>-0.003980352329741699</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.823635006641288</v>
+        <v>-2.847926943939497</v>
       </c>
       <c r="G160">
         <v>-0.00145989686649961</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.830924770823204</v>
+        <v>-2.85002485613543</v>
       </c>
       <c r="G161">
         <v>-0.008289336055756991</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.834596607152986</v>
+        <v>-2.853403456921398</v>
       </c>
       <c r="G162">
         <v>-1.363167237289353e-05</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.838662894150997</v>
+        <v>-2.855982005550215</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.850427967311159</v>
+        <v>-2.858084534210979</v>
       </c>
       <c r="G164">
         <v>-0.003194423960429016</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.851895590754974</v>
+        <v>-2.86133744321371</v>
       </c>
       <c r="G165">
         <v>-0.01850246741156458</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.845907267348184</v>
+        <v>-2.865844974288595</v>
       </c>
       <c r="G166">
         <v>-0.009352070954978142</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.850116435234763</v>
+        <v>-2.868496171540038</v>
       </c>
       <c r="G167">
         <v>-0.00934995523257498</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.85741217963206</v>
+        <v>-2.871016831065574</v>
       </c>
       <c r="G168">
         <v>-0.009849506956697063</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.860459604109739</v>
+        <v>-2.874175641392631</v>
       </c>
       <c r="G169">
         <v>-0.002939137176119488</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.863553097524643</v>
+        <v>-2.876660091345773</v>
       </c>
       <c r="G170">
         <v>-0.007568768980136031</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.861055973780776</v>
+        <v>-2.879347498169609</v>
       </c>
       <c r="G171">
         <v>-0.002384849623551899</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.872592013385244</v>
+        <v>-2.883347416168879</v>
       </c>
       <c r="G172">
         <v>-0.01706437869325306</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.871709249708493</v>
+        <v>-2.885283197531344</v>
       </c>
       <c r="G173">
         <v>-0.009895293026059293</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.875920338783535</v>
+        <v>-2.888823929150779</v>
       </c>
       <c r="G174">
         <v>-0.009405491903602181</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.878317918553027</v>
+        <v>-2.891600818185457</v>
       </c>
       <c r="G175">
         <v>-0.01330406471164414</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.886087779040277</v>
+        <v>-2.894670146301671</v>
       </c>
       <c r="G176">
         <v>-0.007273098579873349</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.884686592142594</v>
+        <v>-2.897739474417885</v>
       </c>
       <c r="G177">
         <v>-0.004709500826064916</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.885784159150189</v>
+        <v>-2.900443421837483</v>
       </c>
       <c r="G178">
         <v>-0.006040974408747402</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.888746990662598</v>
+        <v>-2.90314736925708</v>
       </c>
       <c r="G179">
         <v>-0.005683085865301529</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.8978665454509</v>
+        <v>-2.906163947205138</v>
       </c>
       <c r="G180">
         <v>-0.0144829715094088</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.898648376575744</v>
+        <v>-2.909180525153197</v>
       </c>
       <c r="G181">
         <v>-0.0127430674378668</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.900066764126251</v>
+        <v>-2.911884472572794</v>
       </c>
       <c r="G182">
         <v>-0.01291839893628632</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.905004645477446</v>
+        <v>-2.91458841999239</v>
       </c>
       <c r="G183">
         <v>-0.01283358630094966</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.910459769868122</v>
+        <v>-2.917292367411987</v>
       </c>
       <c r="G184">
         <v>-0.01368763254465943</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.909621931673516</v>
+        <v>-2.920495884105271</v>
       </c>
       <c r="G185">
         <v>-0.008578907019741733</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.914364135194491</v>
+        <v>-2.923325523308104</v>
       </c>
       <c r="G186">
         <v>-0.01243008523693989</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.916295324492507</v>
+        <v>-2.926029470727699</v>
       </c>
       <c r="G187">
         <v>-0.007217195030864265</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.920441239224401</v>
+        <v>-2.929046048675758</v>
       </c>
       <c r="G188">
         <v>-0.01432043573565245</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.922155028659482</v>
+        <v>-2.931437365566895</v>
       </c>
       <c r="G189">
         <v>-0.01287215212093606</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.925269982214862</v>
+        <v>-2.934766574043414</v>
       </c>
       <c r="G190">
         <v>-0.008628414456121836</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.928425477926091</v>
+        <v>-2.937470521463011</v>
       </c>
       <c r="G191">
         <v>-0.0127342192464231</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.933539371566111</v>
+        <v>-2.940174468882609</v>
       </c>
       <c r="G192">
         <v>-0.0147702758781727</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.934199514222823</v>
+        <v>-2.943191046830667</v>
       </c>
       <c r="G193">
         <v>-0.01057098694925357</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.938959140830855</v>
+        <v>-2.945894994250264</v>
       </c>
       <c r="G194">
         <v>-0.003585859467603814</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.942004422586583</v>
+        <v>-2.948911572198323</v>
       </c>
       <c r="G195">
         <v>-0.001817125932900066</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.945293902468017</v>
+        <v>-2.951928150146381</v>
       </c>
       <c r="G196">
         <v>-0.007283660856484964</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.946516734044348</v>
+        <v>-2.95494472809444</v>
       </c>
       <c r="G197">
         <v>-0.01034725790700769</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.951664646219008</v>
+        <v>-2.957504726361607</v>
       </c>
       <c r="G198">
         <v>-0.007541289559717557</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.953954252666064</v>
+        <v>-2.959596375509505</v>
       </c>
       <c r="G199">
         <v>-0.01162415319282173</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.957219199310141</v>
+        <v>-2.961688024657402</v>
       </c>
       <c r="G200">
         <v>-0.01154749218499079</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.960266361431907</v>
+        <v>-2.964117353370193</v>
       </c>
       <c r="G201">
         <v>-0.01303860829579206</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.963940577058533</v>
+        <v>-2.966677351637361</v>
       </c>
       <c r="G202">
         <v>-0.01355075087262125</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.965355773792534</v>
+        <v>-2.968769000785258</v>
       </c>
       <c r="G203">
         <v>-0.0100671779636175</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.96497386837226</v>
+        <v>-2.971254225760177</v>
       </c>
       <c r="G204">
         <v>-0.007860854984170773</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.972989318313059</v>
+        <v>-2.973289978645948</v>
       </c>
       <c r="G205">
         <v>-0.0119326025009098</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.973382223609026</v>
+        <v>-2.975719307358739</v>
       </c>
       <c r="G206">
         <v>-0.00850673436119917</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.977585069465997</v>
+        <v>-2.977810956506636</v>
       </c>
       <c r="G207">
         <v>-0.01061106297932768</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.979546049059519</v>
+        <v>-2.980240285219427</v>
       </c>
       <c r="G208">
         <v>-0.006797070644871395</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.981106345234277</v>
+        <v>-2.982669613932219</v>
       </c>
       <c r="G209">
         <v>-0.007704036156412547</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.984309488998838</v>
+        <v>-2.984817159342243</v>
       </c>
       <c r="G210">
         <v>-0.008436512598043483</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.98673881771163</v>
+        <v>-2.986964704752268</v>
       </c>
       <c r="G211">
         <v>-0.007421984958271233</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.988830466859527</v>
+        <v>-2.989112250162294</v>
       </c>
       <c r="G212">
         <v>-0.003685759198763169</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.675024524283515</v>
+        <v>-2.677788657125329</v>
       </c>
       <c r="G221">
         <v>0.003646151957480193</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.71900014959176</v>
+        <v>-2.729418803216184</v>
       </c>
       <c r="G222">
         <v>0.0109416849728019</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.7667961774302</v>
+        <v>-2.785677816813525</v>
       </c>
       <c r="G223">
         <v>0.007801920836910448</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.818923668469205</v>
+        <v>-2.844458511692709</v>
       </c>
       <c r="G224">
         <v>0.005365520307222704</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.869878156561187</v>
+        <v>-2.905473120829613</v>
       </c>
       <c r="G225">
         <v>0.01125326183944519</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.924779887420269</v>
+        <v>-2.949055657695921</v>
       </c>
       <c r="G226">
         <v>-0.0005213693154924037</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.969474976398728</v>
+        <v>-2.991207484743767</v>
       </c>
       <c r="G227">
         <v>-0.001596301516275767</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.022890262717516</v>
+        <v>-3.035780184977068</v>
       </c>
       <c r="G228">
         <v>-0.006127778605336309</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.07101709264951</v>
+        <v>-3.078223882005349</v>
       </c>
       <c r="G229">
         <v>-0.004446776212734482</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.730789034015127</v>
+        <v>-2.734777722943563</v>
       </c>
       <c r="G232">
         <v>0.008845267292900694</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.775550750356831</v>
+        <v>-2.785393334180525</v>
       </c>
       <c r="G233">
         <v>0.01246621821618588</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.819224408374231</v>
+        <v>-2.839546486401998</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.87001049252953</v>
+        <v>-2.89730159793788</v>
       </c>
       <c r="G235">
         <v>0.01824003873088764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.926542290415591</v>
+        <v>-2.959638222443554</v>
       </c>
       <c r="G236">
         <v>0.008918117638461398</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-2.978785792714284</v>
+        <v>-3.013301917636146</v>
       </c>
       <c r="G237">
         <v>0.009307997465831441</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.03283281726386</v>
+        <v>-3.057189051051187</v>
       </c>
       <c r="G238">
         <v>0.006246331976993535</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.085641993141514</v>
+        <v>-3.099575997396255</v>
       </c>
       <c r="G239">
         <v>-0.002092284057421345</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.136590051563285</v>
+        <v>-3.144225156114623</v>
       </c>
       <c r="G240">
         <v>-0.004538390867852571</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.770429100916077</v>
+        <v>-2.773053119156386</v>
       </c>
       <c r="G243">
         <v>0.009724932722006585</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.815214003792027</v>
+        <v>-2.822578180116115</v>
       </c>
       <c r="G244">
         <v>0.0170907694331075</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.859528855386304</v>
+        <v>-2.87898916515502</v>
       </c>
       <c r="G245">
         <v>0.02125136671989947</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.913012924976357</v>
+        <v>-2.937408360187101</v>
       </c>
       <c r="G246">
         <v>0.0169703762064557</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.962009258218412</v>
+        <v>-2.994370976632755</v>
       </c>
       <c r="G247">
         <v>0.02106115023124211</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.015888431790294</v>
+        <v>-3.057239695090719</v>
       </c>
       <c r="G248">
         <v>0.01372258388832992</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.074592085116548</v>
+        <v>-3.103790530241009</v>
       </c>
       <c r="G249">
         <v>0.009531745833041283</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.127027359079883</v>
+        <v>-3.146041904764209</v>
       </c>
       <c r="G250">
         <v>0.002752826064638114</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.183343612945405</v>
+        <v>-3.190953672081793</v>
       </c>
       <c r="G251">
         <v>-0.000242630867899607</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.798969237410762</v>
+        <v>-2.800934766308665</v>
       </c>
       <c r="G254">
         <v>0.01166640188348955</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.84342722097852</v>
+        <v>-2.846075063268905</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.88993663037953</v>
+        <v>-2.903434551185665</v>
       </c>
       <c r="G256">
         <v>0.0231541060095275</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.937876329342051</v>
+        <v>-2.962051619191768</v>
       </c>
       <c r="G257">
         <v>0.02557219809183908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-2.99082809110886</v>
+        <v>-3.021307453324016</v>
       </c>
       <c r="G258">
         <v>0.02222499768522224</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.043797880948949</v>
+        <v>-3.082211537406332</v>
       </c>
       <c r="G259">
         <v>0.02203201975695213</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.099734116230317</v>
+        <v>-3.135871798833111</v>
       </c>
       <c r="G260">
         <v>0.01599688884951955</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.157305063742624</v>
+        <v>-3.18054070759235</v>
       </c>
       <c r="G261">
         <v>0.007758989894928181</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.213771182856302</v>
+        <v>-3.224357751434736</v>
       </c>
       <c r="G262">
         <v>0.001768275046563184</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.821685087253536</v>
+        <v>-2.822713076189707</v>
       </c>
       <c r="G265">
         <v>0.01148615160766875</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.864517650683224</v>
+        <v>-2.867062614465901</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.910938658038575</v>
+        <v>-2.92469749430362</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.956930350837558</v>
+        <v>-2.980995154782822</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.008425168265832</v>
+        <v>-3.040429809355677</v>
       </c>
       <c r="G269">
         <v>0.02881066053346482</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.063648957522863</v>
+        <v>-3.101112043270958</v>
       </c>
       <c r="G270">
         <v>0.02560513957344135</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.120028734210072</v>
+        <v>-3.16158961712266</v>
       </c>
       <c r="G271">
         <v>0.02058956644654975</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.178285379023497</v>
+        <v>-3.207516041585257</v>
       </c>
       <c r="G272">
         <v>0.01271214739564419</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.237388375989723</v>
+        <v>-3.249850425165501</v>
       </c>
       <c r="G273">
         <v>0.003780582108608543</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.838803837322058</v>
+        <v>-2.839888986414526</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.880038367426028</v>
+        <v>-2.890021933776793</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.925343860318011</v>
+        <v>-2.941867541578888</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.972623943615829</v>
+        <v>-2.994838958126717</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.024898307657057</v>
+        <v>-3.055232140342008</v>
       </c>
       <c r="G280">
         <v>0.03292083254999567</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.078881633179464</v>
+        <v>-3.117617751577871</v>
       </c>
       <c r="G281">
         <v>0.03182119337466993</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.135894537513476</v>
+        <v>-3.178674524288809</v>
       </c>
       <c r="G282">
         <v>0.02490491650980997</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.194818924485439</v>
+        <v>-3.227484543154055</v>
       </c>
       <c r="G283">
         <v>0.01585954791411237</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.256312225119471</v>
+        <v>-3.270537270348916</v>
       </c>
       <c r="G284">
         <v>0.005328143855445389</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.853190487760616</v>
+        <v>-2.854002896556532</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.893904813695549</v>
+        <v>-2.901805971381233</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.938261050044238</v>
+        <v>-2.952562207671095</v>
       </c>
       <c r="G289">
         <v>0.03147606389907232</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.985729461335558</v>
+        <v>-3.009139316006505</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.036139062740301</v>
+        <v>-3.066955693606796</v>
       </c>
       <c r="G291">
         <v>0.0360308921717043</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.090258810524167</v>
+        <v>-3.127740824378304</v>
       </c>
       <c r="G292">
         <v>0.03473117811270088</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.148314095416616</v>
+        <v>-3.190342194553319</v>
       </c>
       <c r="G293">
         <v>0.02910009953809967</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.207769109719764</v>
+        <v>-3.243002295338462</v>
       </c>
       <c r="G294">
         <v>0.01892685188588905</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.270489239805145</v>
+        <v>-3.286992978236357</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.450128276347448</v>
+        <v>-2.45076645816563</v>
       </c>
       <c r="G23">
         <v>-0.01857842089764272</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.461326795674178</v>
+        <v>-2.46196497749236</v>
       </c>
       <c r="G24">
         <v>-0.01741333598746042</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.535922481738452</v>
+        <v>-2.535942782006417</v>
       </c>
       <c r="G31">
         <v>-0.0179778755904263</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.550158368308396</v>
+        <v>-2.55053902312883</v>
       </c>
       <c r="G33">
         <v>-0.02124048538676138</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.557656966413804</v>
+        <v>-2.558037621234237</v>
       </c>
       <c r="G34">
         <v>-0.01386498997021413</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.565155564519209</v>
+        <v>-2.566317829248477</v>
       </c>
       <c r="G35">
         <v>-0.02515580962575115</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.572273507804182</v>
+        <v>-2.572564439137345</v>
       </c>
       <c r="G36">
         <v>-0.02246947901524887</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.625836235784026</v>
+        <v>-2.626507821937626</v>
       </c>
       <c r="G43">
         <v>-0.02599759390856526</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.640072122353971</v>
+        <v>-2.64141529466117</v>
       </c>
       <c r="G45">
         <v>-0.0177181035986449</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.663440710669685</v>
+        <v>-2.664112296823285</v>
       </c>
       <c r="G48">
         <v>-0.02555239580437696</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.722845766502009</v>
+        <v>-2.723862241674699</v>
       </c>
       <c r="G56">
         <v>-0.03105114359360805</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.565110450826158</v>
+        <v>-2.565136934442398</v>
       </c>
       <c r="G79">
         <v>-0.001899873854538825</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.571255972112145</v>
+        <v>-2.572168775765526</v>
       </c>
       <c r="G81">
         <v>-0.002648831288536435</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.575537261661975</v>
+        <v>-2.576406677535622</v>
       </c>
       <c r="G82">
         <v>-0.001264717480061517</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.582960914623012</v>
+        <v>-2.583725273941978</v>
       </c>
       <c r="G84">
         <v>-0.0002328832813094373</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.585113878258046</v>
+        <v>-2.586724693423165</v>
       </c>
       <c r="G85">
         <v>0.0009025850764383669</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.588435835816288</v>
+        <v>-2.588780757273474</v>
       </c>
       <c r="G86">
         <v>-0.004200028272237422</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.592568681031703</v>
+        <v>-2.593172837778905</v>
       </c>
       <c r="G87">
         <v>-0.0002057923232063885</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.596090652137367</v>
+        <v>-2.597304989468199</v>
       </c>
       <c r="G88">
         <v>-0.0001283334210753218</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.599216699108735</v>
+        <v>-2.599784581304931</v>
       </c>
       <c r="G89">
         <v>-0.003106321296610481</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.60322250914038</v>
+        <v>-2.60355161582637</v>
       </c>
       <c r="G90">
         <v>0.0003613128059689608</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.605765266837951</v>
+        <v>-2.606363689184231</v>
       </c>
       <c r="G91">
         <v>-0.002804979161584065</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.610389748141874</v>
+        <v>-2.610966331880532</v>
       </c>
       <c r="G92">
         <v>-0.0008733557651336987</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.613573842373359</v>
+        <v>-2.614204482736801</v>
       </c>
       <c r="G93">
         <v>0.002403550651336239</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.619168162924404</v>
+        <v>-2.619348825275981</v>
       </c>
       <c r="G94">
         <v>0.004181568882542841</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.623458337566102</v>
+        <v>-2.624997136574307</v>
       </c>
       <c r="G96">
         <v>0.003522884675132509</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.628382632436715</v>
+        <v>-2.630109580519665</v>
       </c>
       <c r="G97">
         <v>-1.766616063703097e-05</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.634426868723941</v>
+        <v>-2.634686104013956</v>
       </c>
       <c r="G98">
         <v>0.001869472730712918</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.636780940603357</v>
+        <v>-2.637098289052</v>
       </c>
       <c r="G99">
         <v>0.001143252477165735</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.642867057648452</v>
+        <v>-2.643133406167199</v>
       </c>
       <c r="G100">
         <v>-0.001126627978640826</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.643914183887924</v>
+        <v>-2.645585766790468</v>
       </c>
       <c r="G101">
         <v>-0.001509765257087903</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.648913855212438</v>
+        <v>-2.651477231791261</v>
       </c>
       <c r="G103">
         <v>0.002414711553645255</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.653889975336104</v>
+        <v>-2.656751021771786</v>
       </c>
       <c r="G104">
         <v>-0.005532633778166263</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.658403390435319</v>
+        <v>-2.660669949565876</v>
       </c>
       <c r="G105">
         <v>-0.004101658986527923</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.66416132818174</v>
+        <v>-2.664462861859189</v>
       </c>
       <c r="G106">
         <v>0.003827915930571857</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.665805728105285</v>
+        <v>-2.668256508190926</v>
       </c>
       <c r="G107">
         <v>0.004375495969577203</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.683628180963603</v>
+        <v>-2.684663321576807</v>
       </c>
       <c r="G111">
         <v>-0.007665826668636022</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.68700351327243</v>
+        <v>-2.68901161023174</v>
       </c>
       <c r="G112">
         <v>-2.411031171689615e-05</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.692457206179891</v>
+        <v>-2.693588325563665</v>
       </c>
       <c r="G113">
         <v>0.004043341254447608</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.696804703710824</v>
+        <v>-2.697043479221028</v>
       </c>
       <c r="G114">
         <v>-0.003973609235804698</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.70184011042449</v>
+        <v>-2.702096291766827</v>
       </c>
       <c r="G115">
         <v>0.005982590617535699</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.70335830048742</v>
+        <v>-2.704612575784133</v>
       </c>
       <c r="G116">
         <v>-0.0002137637115571245</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.708727321641291</v>
+        <v>-2.709373776775924</v>
       </c>
       <c r="G117">
         <v>-0.002367145649234237</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.712478519628148</v>
+        <v>-2.713046401824344</v>
       </c>
       <c r="G118">
         <v>-0.0003617525651302689</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.725850053864192</v>
+        <v>-2.726355177893142</v>
       </c>
       <c r="G121">
         <v>4.612983196805587e-05</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.734659428317811</v>
+        <v>-2.735106427360719</v>
       </c>
       <c r="G123">
         <v>0.005048699089549968</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.739305405578514</v>
+        <v>-2.739544181088718</v>
       </c>
       <c r="G124">
         <v>0.001744481245164131</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.761450516708786</v>
+        <v>-2.76152283444959</v>
       </c>
       <c r="G130">
         <v>-0.004534174990209916</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.778504108700301</v>
+        <v>-2.778598207375976</v>
       </c>
       <c r="G136">
         <v>0.01062167479572107</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.781370479945821</v>
+        <v>-2.781464578621496</v>
       </c>
       <c r="G137">
         <v>0.001789833842420707</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.784164533450538</v>
+        <v>-2.784258632126213</v>
       </c>
       <c r="G138">
         <v>0.001829684463143799</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.78664898340368</v>
+        <v>-2.787146784306604</v>
       </c>
       <c r="G139">
         <v>0.003512662279625101</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.789609453324875</v>
+        <v>-2.78991905687645</v>
       </c>
       <c r="G140">
         <v>8.290483972439588e-06</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.792386342359553</v>
+        <v>-2.792807209056841</v>
       </c>
       <c r="G141">
         <v>-0.007378373975398311</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.798234964461139</v>
+        <v>-2.798854171564288</v>
       </c>
       <c r="G143">
         <v>0.0006549335837040537</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.80121019390168</v>
+        <v>-2.801669049399695</v>
       </c>
       <c r="G144">
         <v>-0.003906813342378745</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.80371180832486</v>
+        <v>-2.804004247406397</v>
       </c>
       <c r="G145">
         <v>-0.002386166010959867</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.809171487718541</v>
+        <v>-2.809558025475752</v>
       </c>
       <c r="G147">
         <v>-0.00349926766191655</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.818178920147183</v>
+        <v>-2.818251237887987</v>
       </c>
       <c r="G150">
         <v>-0.008302103554433504</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.819463901298938</v>
+        <v>-2.821233488744054</v>
       </c>
       <c r="G151">
         <v>0.0006960731648670837</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.823440259135005</v>
+        <v>-2.824725271197417</v>
       </c>
       <c r="G152">
         <v>-0.00840551894606012</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.826588926407549</v>
+        <v>-2.827352768992307</v>
       </c>
       <c r="G153">
         <v>-0.009191875268445449</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.830238516222003</v>
+        <v>-2.830823394385075</v>
       </c>
       <c r="G154">
         <v>0.002602631766375207</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.831561572284677</v>
+        <v>-2.83420410712928</v>
       </c>
       <c r="G155">
         <v>-0.008278579922909257</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.835961115658532</v>
+        <v>-2.836545993821603</v>
       </c>
       <c r="G156">
         <v>-0.008421281195537755</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.838738335575032</v>
+        <v>-2.838791085743188</v>
       </c>
       <c r="G157">
         <v>-0.01257059117941184</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.841309531906502</v>
+        <v>-2.842061157367874</v>
       </c>
       <c r="G158">
         <v>-0.001807146042531294</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.844031267670415</v>
+        <v>-2.84461552195921</v>
       </c>
       <c r="G159">
         <v>-0.003980352329741699</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.85002485613543</v>
+        <v>-2.850553626271638</v>
       </c>
       <c r="G161">
         <v>-0.008289336055756991</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.853403456921398</v>
+        <v>-2.853862643301234</v>
       </c>
       <c r="G162">
         <v>-1.363167237289353e-05</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.855982005550215</v>
+        <v>-2.856076104225889</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.858084534210979</v>
+        <v>-2.858852993260568</v>
       </c>
       <c r="G164">
         <v>-0.003194423960429016</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.86133744321371</v>
+        <v>-2.861922321376782</v>
       </c>
       <c r="G165">
         <v>-0.01850246741156458</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.865844974288595</v>
+        <v>-2.86606447175505</v>
       </c>
       <c r="G166">
         <v>-0.009352070954978142</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.871016831065574</v>
+        <v>-2.871398752357952</v>
       </c>
       <c r="G168">
         <v>-0.009849506956697063</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.874175641392631</v>
+        <v>-2.874342388690931</v>
       </c>
       <c r="G169">
         <v>-0.002939137176119488</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.876660091345773</v>
+        <v>-2.876952530427308</v>
       </c>
       <c r="G170">
         <v>-0.007568768980136031</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.879347498169609</v>
+        <v>-2.879436980380452</v>
       </c>
       <c r="G171">
         <v>-0.002384849623551899</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885283197531344</v>
+        <v>-2.885665118823722</v>
       </c>
       <c r="G173">
         <v>-0.009895293026059293</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.891600818185457</v>
+        <v>-2.891893257266993</v>
       </c>
       <c r="G175">
         <v>-0.01330406471164414</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.90314736925708</v>
+        <v>-2.903459999785541</v>
       </c>
       <c r="G179">
         <v>-0.005683085865301529</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.91458841999239</v>
+        <v>-2.914901050520851</v>
       </c>
       <c r="G183">
         <v>-0.01283358630094966</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.917292367411987</v>
+        <v>-2.917604997940449</v>
       </c>
       <c r="G184">
         <v>-0.01368763254465943</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.920495884105271</v>
+        <v>-2.920621575888507</v>
       </c>
       <c r="G185">
         <v>-0.008578907019741733</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.931437365566895</v>
+        <v>-2.931749996095356</v>
       </c>
       <c r="G189">
         <v>-0.01287215212093606</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.940174468882609</v>
+        <v>-2.94048709941107</v>
       </c>
       <c r="G192">
         <v>-0.0147702758781727</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.943191046830667</v>
+        <v>-2.943503677359127</v>
       </c>
       <c r="G193">
         <v>-0.01057098694925357</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.945894994250264</v>
+        <v>-2.946207624778725</v>
       </c>
       <c r="G194">
         <v>-0.003585859467603814</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.948911572198323</v>
+        <v>-2.949224202726783</v>
       </c>
       <c r="G195">
         <v>-0.001817125932900066</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.961688024657402</v>
+        <v>-2.962156373776672</v>
       </c>
       <c r="G200">
         <v>-0.01154749218499079</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.964117353370193</v>
+        <v>-2.964585702489463</v>
       </c>
       <c r="G201">
         <v>-0.01303860829579206</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.973289978645948</v>
+        <v>-2.973345874908075</v>
       </c>
       <c r="G205">
         <v>-0.0119326025009098</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.977810956506636</v>
+        <v>-2.97814863607153</v>
       </c>
       <c r="G207">
         <v>-0.01061106297932768</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.677788657125329</v>
+        <v>-2.679153973682819</v>
       </c>
       <c r="G221">
         <v>0.003646151957480193</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.729418803216184</v>
+        <v>-2.729966641847403</v>
       </c>
       <c r="G222">
         <v>0.0109416849728019</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.844458511692709</v>
+        <v>-2.844809021685045</v>
       </c>
       <c r="G224">
         <v>0.005365520307222704</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.905473120829613</v>
+        <v>-2.905814140612994</v>
       </c>
       <c r="G225">
         <v>0.01125326183944519</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.949055657695921</v>
+        <v>-2.949318161715887</v>
       </c>
       <c r="G226">
         <v>-0.0005213693154924037</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.991207484743767</v>
+        <v>-2.99170394833211</v>
       </c>
       <c r="G227">
         <v>-0.001596301516275767</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.035780184977068</v>
+        <v>-3.035983422366936</v>
       </c>
       <c r="G228">
         <v>-0.006127778605336309</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.078223882005349</v>
+        <v>-3.078372609149957</v>
       </c>
       <c r="G229">
         <v>-0.004446776212734482</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.734777722943563</v>
+        <v>-2.735788307963687</v>
       </c>
       <c r="G232">
         <v>0.008845267292900694</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.785393334180525</v>
+        <v>-2.789625076740675</v>
       </c>
       <c r="G233">
         <v>0.01246621821618588</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.839546486401998</v>
+        <v>-2.839796753781677</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.89730159793788</v>
+        <v>-2.897426731627719</v>
       </c>
       <c r="G235">
         <v>0.01824003873088764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.959638222443554</v>
+        <v>-2.95975613112046</v>
       </c>
       <c r="G236">
         <v>0.008918117638461398</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013301917636146</v>
+        <v>-3.013398104783657</v>
       </c>
       <c r="G237">
         <v>0.009307997465831441</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.099575997396255</v>
+        <v>-3.100371264294855</v>
       </c>
       <c r="G239">
         <v>-0.002092284057421345</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.773053119156386</v>
+        <v>-2.774597120163781</v>
       </c>
       <c r="G243">
         <v>0.009724932722006585</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.822578180116115</v>
+        <v>-2.822639665517406</v>
       </c>
       <c r="G244">
         <v>0.0170907694331075</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.87898916515502</v>
+        <v>-2.879950048949553</v>
       </c>
       <c r="G245">
         <v>0.02125136671989947</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.937408360187101</v>
+        <v>-2.937828066880318</v>
       </c>
       <c r="G246">
         <v>0.0169703762064557</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.057239695090719</v>
+        <v>-3.057263171796178</v>
       </c>
       <c r="G248">
         <v>0.01372258388832992</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.103790530241009</v>
+        <v>-3.103951623366393</v>
       </c>
       <c r="G249">
         <v>0.009531745833041283</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.190953672081793</v>
+        <v>-3.191092487113868</v>
       </c>
       <c r="G251">
         <v>-0.000242630867899607</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.800934766308665</v>
+        <v>-2.802441389640555</v>
       </c>
       <c r="G254">
         <v>0.01166640188348955</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.846075063268905</v>
+        <v>-2.851027059999794</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.903434551185665</v>
+        <v>-2.9045096426342</v>
       </c>
       <c r="G256">
         <v>0.0231541060095275</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.962051619191768</v>
+        <v>-2.963745043744668</v>
       </c>
       <c r="G257">
         <v>0.02557219809183908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.021307453324016</v>
+        <v>-3.021828372051932</v>
       </c>
       <c r="G258">
         <v>0.02222499768522224</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135871798833111</v>
+        <v>-3.135957728138194</v>
       </c>
       <c r="G260">
         <v>0.01599688884951955</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.18054070759235</v>
+        <v>-3.180715883130149</v>
       </c>
       <c r="G261">
         <v>0.007758989894928181</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.224357751434736</v>
+        <v>-3.224533281003484</v>
       </c>
       <c r="G262">
         <v>0.001768275046563184</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.822713076189707</v>
+        <v>-2.825101760935362</v>
       </c>
       <c r="G265">
         <v>0.01148615160766875</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.867062614465901</v>
+        <v>-2.871238626569502</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.92469749430362</v>
+        <v>-2.925190791323316</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.980995154782822</v>
+        <v>-2.982290018834133</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.040429809355677</v>
+        <v>-3.041158980117789</v>
       </c>
       <c r="G269">
         <v>0.02881066053346482</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.101112043270958</v>
+        <v>-3.101299743805719</v>
       </c>
       <c r="G270">
         <v>0.02560513957344135</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.207516041585257</v>
+        <v>-3.207859560168394</v>
       </c>
       <c r="G272">
         <v>0.01271214739564419</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.249850425165501</v>
+        <v>-3.249888281102865</v>
       </c>
       <c r="G273">
         <v>0.003780582108608543</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.839888986414526</v>
+        <v>-2.842782541043441</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.890021933776793</v>
+        <v>-2.890626918905706</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.941867541578888</v>
+        <v>-2.943002941688686</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.994838958126717</v>
+        <v>-2.997113527823257</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.055232140342008</v>
+        <v>-3.057672056033245</v>
       </c>
       <c r="G280">
         <v>0.03292083254999567</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.117617751577871</v>
+        <v>-3.118519809527568</v>
       </c>
       <c r="G281">
         <v>0.03182119337466993</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.178674524288809</v>
+        <v>-3.178759272055515</v>
       </c>
       <c r="G282">
         <v>0.02490491650980997</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227484543154055</v>
+        <v>-3.227512796893265</v>
       </c>
       <c r="G283">
         <v>0.01585954791411237</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.270537270348916</v>
+        <v>-3.270585047644757</v>
       </c>
       <c r="G284">
         <v>0.005328143855445389</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.854002896556532</v>
+        <v>-2.855896418735178</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.901805971381233</v>
+        <v>-2.904180406317555</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.952562207671095</v>
+        <v>-2.955694399732236</v>
       </c>
       <c r="G289">
         <v>0.03147606389907232</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.009139316006505</v>
+        <v>-3.012926032870384</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.066955693606796</v>
+        <v>-3.071385305598153</v>
       </c>
       <c r="G291">
         <v>0.0360308921717043</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.127740824378304</v>
+        <v>-3.130829985886597</v>
       </c>
       <c r="G292">
         <v>0.03473117811270088</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.190342194553319</v>
+        <v>-3.190652658864317</v>
       </c>
       <c r="G293">
         <v>0.02910009953809967</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.243002295338462</v>
+        <v>-3.243082586971202</v>
       </c>
       <c r="G294">
         <v>0.01892685188588905</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.286992978236357</v>
+        <v>-3.287017283200653</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.43892975702072</v>
+        <v>-2.439543734565344</v>
       </c>
       <c r="G22">
         <v>-0.01592436076940862</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.472525315000907</v>
+        <v>-2.473163496819088</v>
       </c>
       <c r="G25">
         <v>-0.02103481897695025</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.572564439137345</v>
+        <v>-2.573415472265483</v>
       </c>
       <c r="G36">
         <v>-0.02246947901524887</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.588322944989029</v>
+        <v>-2.588343245256994</v>
       </c>
       <c r="G38">
         <v>-0.02179232033219369</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.595185422443786</v>
+        <v>-2.595530611761269</v>
       </c>
       <c r="G39">
         <v>-0.02899818050509917</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.632954179068999</v>
+        <v>-2.633625765222599</v>
       </c>
       <c r="G44">
         <v>-0.03226401127160483</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.648533237946143</v>
+        <v>-2.649204824099742</v>
       </c>
       <c r="G46">
         <v>-0.02985705345839018</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.557882185595591</v>
+        <v>-2.558014815158814</v>
       </c>
       <c r="G77">
         <v>-0.001578415513987963</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.565136934442398</v>
+        <v>-2.56557218707537</v>
       </c>
       <c r="G79">
         <v>-0.001899873854538825</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.568955451566048</v>
+        <v>-2.569045782741838</v>
       </c>
       <c r="G80">
         <v>-0.002334618282652912</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.576406677535622</v>
+        <v>-2.576512823482604</v>
       </c>
       <c r="G82">
         <v>-0.001264717480061517</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.597304989468199</v>
+        <v>-2.597543764978401</v>
       </c>
       <c r="G88">
         <v>-0.0001283334210753218</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.60355161582637</v>
+        <v>-2.603641947002158</v>
       </c>
       <c r="G90">
         <v>0.0003613128059689608</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.606363689184231</v>
+        <v>-2.607128048503196</v>
       </c>
       <c r="G91">
         <v>-0.002804979161584065</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.614204482736801</v>
+        <v>-2.614533589422793</v>
       </c>
       <c r="G93">
         <v>0.002403550651336239</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.624997136574307</v>
+        <v>-2.625208339075969</v>
       </c>
       <c r="G96">
         <v>0.003522884675132509</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.648783334816248</v>
+        <v>-2.649022110326452</v>
       </c>
       <c r="G102">
         <v>0.002411962894965036</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.668256508190926</v>
+        <v>-2.668335081129364</v>
       </c>
       <c r="G107">
         <v>0.004375495969577203</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.679715490606963</v>
+        <v>-2.679911967729732</v>
       </c>
       <c r="G110">
         <v>0.00238850769669674</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.693588325563665</v>
+        <v>-2.693905674012307</v>
       </c>
       <c r="G113">
         <v>0.004043341254447608</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.697043479221028</v>
+        <v>-2.69778130170842</v>
       </c>
       <c r="G114">
         <v>-0.003973609235804698</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.704612575784133</v>
+        <v>-2.705489104886509</v>
       </c>
       <c r="G116">
         <v>-0.0002137637115571245</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.713046401824344</v>
+        <v>-2.713714770545324</v>
       </c>
       <c r="G118">
         <v>-0.0003617525651302689</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.721197371068348</v>
+        <v>-2.722005064951715</v>
       </c>
       <c r="G120">
         <v>0.005175122805473276</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.73067772965344</v>
+        <v>-2.730725687463071</v>
       </c>
       <c r="G122">
         <v>0.0007043743405532599</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.78991905687645</v>
+        <v>-2.790013155552124</v>
       </c>
       <c r="G140">
         <v>8.290483972439588e-06</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.792807209056841</v>
+        <v>-2.793099648138377</v>
       </c>
       <c r="G141">
         <v>-0.007378373975398311</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.798854171564288</v>
+        <v>-2.798926489305091</v>
       </c>
       <c r="G143">
         <v>0.0006549335837040537</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.807134879714912</v>
+        <v>-2.807309658567066</v>
       </c>
       <c r="G146">
         <v>-0.009594593711876653</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.812994515364998</v>
+        <v>-2.81374580994455</v>
       </c>
       <c r="G148">
         <v>-0.003510037343321226</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.815478965318142</v>
+        <v>-2.816071582042612</v>
       </c>
       <c r="G149">
         <v>-0.005293370728593372</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.821233488744054</v>
+        <v>-2.821745425292045</v>
       </c>
       <c r="G151">
         <v>0.0006960731648670837</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.836545993821603</v>
+        <v>-2.836626673998083</v>
       </c>
       <c r="G156">
         <v>-0.008421281195537755</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.842061157367874</v>
+        <v>-2.842204013621148</v>
       </c>
       <c r="G158">
         <v>-0.001807146042531294</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.847926943939497</v>
+        <v>-2.848052635722734</v>
       </c>
       <c r="G160">
         <v>-0.00145989686649961</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.850553626271638</v>
+        <v>-2.850919006968254</v>
       </c>
       <c r="G161">
         <v>-0.008289336055756991</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.853862643301234</v>
+        <v>-2.854227400123573</v>
       </c>
       <c r="G162">
         <v>-1.363167237289353e-05</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.856076104225889</v>
+        <v>-2.856458025518268</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.858852993260568</v>
+        <v>-2.859234914552947</v>
       </c>
       <c r="G164">
         <v>-0.003194423960429016</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.868496171540038</v>
+        <v>-2.868715669006493</v>
       </c>
       <c r="G167">
         <v>-0.00934995523257498</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.876952530427308</v>
+        <v>-2.877244969508844</v>
       </c>
       <c r="G170">
         <v>-0.007568768980136031</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.879436980380452</v>
+        <v>-2.87998564897113</v>
       </c>
       <c r="G171">
         <v>-0.002384849623551899</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.883347416168879</v>
+        <v>-2.883504067743715</v>
       </c>
       <c r="G172">
         <v>-0.01706437869325306</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.885665118823722</v>
+        <v>-2.886631918279172</v>
       </c>
       <c r="G173">
         <v>-0.009895293026059293</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.888823929150779</v>
+        <v>-2.889283115530614</v>
       </c>
       <c r="G174">
         <v>-0.009405491903602181</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.966677351637361</v>
+        <v>-2.966733247899488</v>
       </c>
       <c r="G202">
         <v>-0.01355075087262125</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.968769000785258</v>
+        <v>-2.969106680350152</v>
       </c>
       <c r="G203">
         <v>-0.0100671779636175</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.973345874908075</v>
+        <v>-2.973627658210841</v>
       </c>
       <c r="G205">
         <v>-0.0119326025009098</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.785677816813525</v>
+        <v>-2.786788169022524</v>
       </c>
       <c r="G223">
         <v>0.007801920836910448</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.844809021685045</v>
+        <v>-2.84687776450889</v>
       </c>
       <c r="G224">
         <v>0.005365520307222704</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.949318161715887</v>
+        <v>-2.94943150571876</v>
       </c>
       <c r="G226">
         <v>-0.0005213693154924037</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.99170394833211</v>
+        <v>-2.99196830648145</v>
       </c>
       <c r="G227">
         <v>-0.001596301516275767</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.035983422366936</v>
+        <v>-3.036084778987459</v>
       </c>
       <c r="G228">
         <v>-0.006127778605336309</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.735788307963687</v>
+        <v>-2.735855310204652</v>
       </c>
       <c r="G232">
         <v>0.008845267292900694</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.839796753781677</v>
+        <v>-2.83998981543521</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.897426731627719</v>
+        <v>-2.897489298472639</v>
       </c>
       <c r="G235">
         <v>0.01824003873088764</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013398104783657</v>
+        <v>-3.013470350753171</v>
       </c>
       <c r="G237">
         <v>0.009307997465831441</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.057189051051187</v>
+        <v>-3.057573745719917</v>
       </c>
       <c r="G238">
         <v>0.006246331976993535</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.144225156114623</v>
+        <v>-3.144280314489739</v>
       </c>
       <c r="G240">
         <v>-0.004538390867852571</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.774597120163781</v>
+        <v>-2.774721384240001</v>
       </c>
       <c r="G243">
         <v>0.009724932722006585</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.994370976632755</v>
+        <v>-2.994485061139797</v>
       </c>
       <c r="G247">
         <v>0.02106115023124211</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.146041904764209</v>
+        <v>-3.146097263346873</v>
       </c>
       <c r="G250">
         <v>0.002752826064638114</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.802441389640555</v>
+        <v>-2.802641225898356</v>
       </c>
       <c r="G254">
         <v>0.01166640188348955</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.851027059999794</v>
+        <v>-2.851294675958486</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.9045096426342</v>
+        <v>-2.904584059595331</v>
       </c>
       <c r="G256">
         <v>0.0231541060095275</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.963745043744668</v>
+        <v>-2.963943488974351</v>
       </c>
       <c r="G257">
         <v>0.02557219809183908</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.825101760935362</v>
+        <v>-2.825162087374207</v>
       </c>
       <c r="G265">
         <v>0.01148615160766875</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.871238626569502</v>
+        <v>-2.872971583575605</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.925190791323316</v>
+        <v>-2.925243226256385</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.982290018834133</v>
+        <v>-2.982341209889067</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.041158980117789</v>
+        <v>-3.041773272777004</v>
       </c>
       <c r="G269">
         <v>0.02881066053346482</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.207859560168394</v>
+        <v>-3.207880458829058</v>
       </c>
       <c r="G272">
         <v>0.01271214739564419</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.249888281102865</v>
+        <v>-3.250030630343552</v>
       </c>
       <c r="G273">
         <v>0.003780582108608543</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.842782541043441</v>
+        <v>-2.842903708552682</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.890626918905706</v>
+        <v>-2.89100466233003</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.943002941688686</v>
+        <v>-2.944046125983689</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.997113527823257</v>
+        <v>-2.997895105644019</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.855896418735178</v>
+        <v>-2.856025384242667</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.904180406317555</v>
+        <v>-2.904243878288623</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.955694399732236</v>
+        <v>-2.956213670138419</v>
       </c>
       <c r="G289">
         <v>0.03147606389907232</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.012926032870384</v>
+        <v>-3.013034841963643</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.243082586971202</v>
+        <v>-3.243093057131082</v>
       </c>
       <c r="G294">
         <v>0.01892685188588905</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.287017283200653</v>
+        <v>-3.28702838848223</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.578595424164485</v>
+        <v>-2.579342302672596</v>
       </c>
       <c r="G83">
         <v>-0.002304914772874866</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.599784581304931</v>
+        <v>-2.600298406876343</v>
       </c>
       <c r="G89">
         <v>-0.003106321296610481</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.619348825275981</v>
+        <v>-2.620143724745032</v>
       </c>
       <c r="G94">
         <v>0.004181568882542841</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.649022110326452</v>
+        <v>-2.649191014440678</v>
       </c>
       <c r="G102">
         <v>0.002411962894965036</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.679911967729732</v>
+        <v>-2.680698165656322</v>
       </c>
       <c r="G110">
         <v>0.00238850769669674</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.684663321576807</v>
+        <v>-2.68490209708701</v>
       </c>
       <c r="G111">
         <v>-0.007665826668636022</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.69778130170842</v>
+        <v>-2.698258852728828</v>
       </c>
       <c r="G114">
         <v>-0.003973609235804698</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.787146784306604</v>
+        <v>-2.78743922338814</v>
       </c>
       <c r="G139">
         <v>0.003512662279625101</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.790013155552124</v>
+        <v>-2.790305594633661</v>
       </c>
       <c r="G140">
         <v>8.290483972439588e-06</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.804004247406397</v>
+        <v>-2.804260146033717</v>
       </c>
       <c r="G145">
         <v>-0.002386166010959867</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.807309658567066</v>
+        <v>-2.807423572825606</v>
       </c>
       <c r="G146">
         <v>-0.009594593711876653</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.818251237887987</v>
+        <v>-2.818543676969522</v>
       </c>
       <c r="G150">
         <v>-0.008302103554433504</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.821745425292045</v>
+        <v>-2.822695060277457</v>
       </c>
       <c r="G151">
         <v>0.0006960731648670837</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.824725271197417</v>
+        <v>-2.825579219867293</v>
       </c>
       <c r="G152">
         <v>-0.00840551894606012</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.827352768992307</v>
+        <v>-2.827645208073841</v>
       </c>
       <c r="G153">
         <v>-0.009191875268445449</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.830823394385075</v>
+        <v>-2.830895712125879</v>
       </c>
       <c r="G154">
         <v>0.002602631766375207</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.83420410712928</v>
+        <v>-2.83456886395162</v>
       </c>
       <c r="G155">
         <v>-0.008278579922909257</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.850919006968254</v>
+        <v>-2.851283763790594</v>
       </c>
       <c r="G161">
         <v>-0.008289336055756991</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.854227400123573</v>
+        <v>-2.854394147421872</v>
       </c>
       <c r="G162">
         <v>-1.363167237289353e-05</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.856458025518268</v>
+        <v>-2.856750464599803</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.874342388690931</v>
+        <v>-2.875272978573987</v>
       </c>
       <c r="G169">
         <v>-0.002939137176119488</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.87998564897113</v>
+        <v>-2.880826756643343</v>
       </c>
       <c r="G171">
         <v>-0.002384849623551899</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.94943150571876</v>
+        <v>-2.949562670731371</v>
       </c>
       <c r="G226">
         <v>-0.0005213693154924037</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.99196830648145</v>
+        <v>-2.992225733971356</v>
       </c>
       <c r="G227">
         <v>-0.001596301516275767</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.735855310204652</v>
+        <v>-2.736004113560873</v>
       </c>
       <c r="G232">
         <v>0.008845267292900694</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.822639665517406</v>
+        <v>-2.822835594564102</v>
       </c>
       <c r="G244">
         <v>0.0170907694331075</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.879950048949553</v>
+        <v>-2.880104933735386</v>
       </c>
       <c r="G245">
         <v>0.02125136671989947</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.851294675958486</v>
+        <v>-2.851344287265906</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135957728138194</v>
+        <v>-3.135995863113283</v>
       </c>
       <c r="G260">
         <v>0.01599688884951955</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.825162087374207</v>
+        <v>-2.825177180601113</v>
       </c>
       <c r="G265">
         <v>0.01148615160766875</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.872971583575605</v>
+        <v>-2.873010278637516</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.982341209889067</v>
+        <v>-2.982921375178323</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.101299743805719</v>
+        <v>-3.101442937708478</v>
       </c>
       <c r="G270">
         <v>0.02560513957344135</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.16158961712266</v>
+        <v>-3.161629024015123</v>
       </c>
       <c r="G271">
         <v>0.02058956644654975</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.842903708552682</v>
+        <v>-2.842954737627192</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.89100466233003</v>
+        <v>-2.891187549936061</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.944046125983689</v>
+        <v>-2.944388684366404</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.997895105644019</v>
+        <v>-2.997944042555836</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.856025384242667</v>
+        <v>-2.856036878880319</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.013034841963643</v>
+        <v>-3.013071111661396</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.071385305598153</v>
+        <v>-3.071907479001138</v>
       </c>
       <c r="G291">
         <v>0.0360308921717043</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.130829985886597</v>
+        <v>-3.130848120735472</v>
       </c>
       <c r="G292">
         <v>0.03473117811270088</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.28702838848223</v>
+        <v>-3.287043682566087</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.569045782741838</v>
+        <v>-2.569151928688818</v>
       </c>
       <c r="G80">
         <v>-0.002334618282652912</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.588780757273474</v>
+        <v>-2.589067565572034</v>
       </c>
       <c r="G86">
         <v>-0.004200028272237422</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.593172837778905</v>
+        <v>-2.593215136166339</v>
       </c>
       <c r="G87">
         <v>-0.0002057923232063885</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.637098289052</v>
+        <v>-2.637255864385856</v>
       </c>
       <c r="G99">
         <v>0.001143252477165735</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.735106427360719</v>
+        <v>-2.735375754848422</v>
       </c>
       <c r="G123">
         <v>0.005048699089549968</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.793099648138377</v>
+        <v>-2.793171965879181</v>
       </c>
       <c r="G141">
         <v>-0.007378373975398311</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.804260146033717</v>
+        <v>-2.804552585115253</v>
       </c>
       <c r="G145">
         <v>-0.002386166010959867</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.807423572825606</v>
+        <v>-2.807716011907142</v>
       </c>
       <c r="G146">
         <v>-0.009594593711876653</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.825579219867293</v>
+        <v>-2.825817954024575</v>
       </c>
       <c r="G152">
         <v>-0.00840551894606012</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.856750464599803</v>
+        <v>-2.857424824973718</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.861922321376782</v>
+        <v>-2.862011803587625</v>
       </c>
       <c r="G165">
         <v>-0.01850246741156458</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.926029470727699</v>
+        <v>-2.926342101256163</v>
       </c>
       <c r="G187">
         <v>-0.007217195030864265</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.959596375509505</v>
+        <v>-2.960064724628774</v>
       </c>
       <c r="G199">
         <v>-0.01162415319282173</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.786788169022524</v>
+        <v>-2.786968996441733</v>
       </c>
       <c r="G223">
         <v>0.007801920836910448</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.83998981543521</v>
+        <v>-2.840240082814888</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.774721384240001</v>
+        <v>-2.774959732823263</v>
       </c>
       <c r="G243">
         <v>0.009724932722006585</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.851344287265906</v>
+        <v>-2.851523655792064</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.224533281003484</v>
+        <v>-3.224564685984624</v>
       </c>
       <c r="G262">
         <v>0.001768275046563184</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.925243226256385</v>
+        <v>-2.925285413913513</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.982921375178323</v>
+        <v>-2.983262648877886</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.842954737627192</v>
+        <v>-2.842982421646218</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.891187549936061</v>
+        <v>-2.891199784164014</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.944388684366404</v>
+        <v>-2.944634260754462</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.997944042555836</v>
+        <v>-2.99795627678379</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.856036878880319</v>
+        <v>-2.856075575791285</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.904243878288623</v>
+        <v>-2.904456622496163</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.013071111661396</v>
+        <v>-3.013470739317641</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.071907479001138</v>
+        <v>-3.072097894914336</v>
       </c>
       <c r="G291">
         <v>0.0360308921717043</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.287043682566087</v>
+        <v>-3.287062078778866</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.55053902312883</v>
+        <v>-2.550829954461995</v>
       </c>
       <c r="G33">
         <v>-0.02124048538676138</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.558037621234237</v>
+        <v>-2.559199885963504</v>
       </c>
       <c r="G34">
         <v>-0.01386498997021413</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.580949535873841</v>
+        <v>-2.581225301972021</v>
       </c>
       <c r="G37">
         <v>-0.01867332565904656</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.588343245256994</v>
+        <v>-2.589014831410593</v>
       </c>
       <c r="G38">
         <v>-0.02179232033219369</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.595530611761269</v>
+        <v>-2.596112474427601</v>
       </c>
       <c r="G39">
         <v>-0.02899818050509917</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.603320141199842</v>
+        <v>-2.603611072533007</v>
       </c>
       <c r="G40">
         <v>-0.02487211320969496</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.633625765222599</v>
+        <v>-2.634297351376198</v>
       </c>
       <c r="G44">
         <v>-0.03226401127160483</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.64141529466117</v>
+        <v>-2.642086880814769</v>
       </c>
       <c r="G45">
         <v>-0.0177181035986449</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.656322767384713</v>
+        <v>-2.656994353538313</v>
       </c>
       <c r="G47">
         <v>-0.02323145640195357</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.664112296823285</v>
+        <v>-2.664783882976885</v>
       </c>
       <c r="G48">
         <v>-0.02555239580437696</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.671230240108258</v>
+        <v>-2.671901826261859</v>
       </c>
       <c r="G49">
         <v>-0.02473287826755211</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.67901976954683</v>
+        <v>-2.67969135570043</v>
       </c>
       <c r="G50">
         <v>-0.02950215774977416</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.686809298985402</v>
+        <v>-2.687480885139001</v>
       </c>
       <c r="G51">
         <v>-0.02652786787143413</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.561727186335482</v>
+        <v>-2.561859815898705</v>
       </c>
       <c r="G78">
         <v>-0.001889938130654745</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.569151928688818</v>
+        <v>-2.569284558252038</v>
       </c>
       <c r="G80">
         <v>-0.002334618282652912</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.572168775765526</v>
+        <v>-2.572996929428707</v>
       </c>
       <c r="G81">
         <v>-0.002648831288536435</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.576512823482604</v>
+        <v>-2.5768419301686</v>
       </c>
       <c r="G82">
         <v>-0.001264717480061517</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.579342302672596</v>
+        <v>-2.580554301345268</v>
       </c>
       <c r="G83">
         <v>-0.002304914772874866</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.583725273941978</v>
+        <v>-2.584399302085155</v>
       </c>
       <c r="G84">
         <v>-0.0002328832813094373</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.586724693423165</v>
+        <v>-2.588111673261823</v>
       </c>
       <c r="G85">
         <v>0.0009025850764383669</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.589067565572034</v>
+        <v>-2.591824044438492</v>
       </c>
       <c r="G86">
         <v>-0.004200028272237422</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.593215136166339</v>
+        <v>-2.595669045178381</v>
       </c>
       <c r="G87">
         <v>-0.0002057923232063885</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.597543764978401</v>
+        <v>-2.59918493923228</v>
       </c>
       <c r="G88">
         <v>-0.0001283334210753218</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.600298406876343</v>
+        <v>-2.60272840629472</v>
       </c>
       <c r="G89">
         <v>-0.003106321296610481</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.603641947002158</v>
+        <v>-2.606483075858823</v>
       </c>
       <c r="G90">
         <v>0.0003613128059689608</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.607128048503196</v>
+        <v>-2.609523757550475</v>
       </c>
       <c r="G91">
         <v>-0.002804979161584065</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.610966331880532</v>
+        <v>-2.613359702269647</v>
       </c>
       <c r="G92">
         <v>-0.0008733557651336987</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.614533589422793</v>
+        <v>-2.617297106539263</v>
       </c>
       <c r="G93">
         <v>0.002403550651336239</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.620143724745032</v>
+        <v>-2.620713754273887</v>
       </c>
       <c r="G94">
         <v>0.004181568882542841</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.622944757902266</v>
+        <v>-2.624459433715784</v>
       </c>
       <c r="G95">
         <v>0.003134996989718974</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.625208339075969</v>
+        <v>-2.627955975522731</v>
       </c>
       <c r="G96">
         <v>0.003522884675132509</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.630109580519665</v>
+        <v>-2.632205209696026</v>
       </c>
       <c r="G97">
         <v>-1.766616063703097e-05</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.634686104013956</v>
+        <v>-2.636337072805573</v>
       </c>
       <c r="G98">
         <v>0.001869472730712918</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.637255864385856</v>
+        <v>-2.640288219492445</v>
       </c>
       <c r="G99">
         <v>0.001143252477165735</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.643133406167199</v>
+        <v>-2.644239366179317</v>
       </c>
       <c r="G100">
         <v>-0.001126627978640826</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.645585766790468</v>
+        <v>-2.647544698042344</v>
       </c>
       <c r="G101">
         <v>-0.001509765257087903</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.649191014440678</v>
+        <v>-2.651796738095875</v>
       </c>
       <c r="G102">
         <v>0.002411962894965036</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.651477231791261</v>
+        <v>-2.655778854389811</v>
       </c>
       <c r="G103">
         <v>0.002414711553645255</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.656751021771786</v>
+        <v>-2.659730001076683</v>
       </c>
       <c r="G104">
         <v>-0.005532633778166263</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.660669949565876</v>
+        <v>-2.663675842819614</v>
       </c>
       <c r="G105">
         <v>-0.004101658986527923</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.664462861859189</v>
+        <v>-2.667626989506486</v>
       </c>
       <c r="G106">
         <v>0.003827915930571857</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.668335081129364</v>
+        <v>-2.671151585102846</v>
       </c>
       <c r="G107">
         <v>0.004375495969577203</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.673166153517134</v>
+        <v>-2.675529282880229</v>
       </c>
       <c r="G108">
         <v>0.001245351744348033</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.678514768106528</v>
+        <v>-2.6794804295671</v>
       </c>
       <c r="G109">
         <v>-0.0009500582906933897</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.680698165656322</v>
+        <v>-2.683118393764464</v>
       </c>
       <c r="G110">
         <v>0.00238850769669674</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.68490209708701</v>
+        <v>-2.687069540451336</v>
       </c>
       <c r="G111">
         <v>-0.007665826668636022</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.68901161023174</v>
+        <v>-2.691192987850955</v>
       </c>
       <c r="G112">
         <v>-2.411031171689615e-05</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.693905674012307</v>
+        <v>-2.695214005933804</v>
       </c>
       <c r="G113">
         <v>0.004043341254447608</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.698258852728828</v>
+        <v>-2.699165152620676</v>
       </c>
       <c r="G114">
         <v>-0.003973609235804698</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.702096291766827</v>
+        <v>-2.703158597694981</v>
       </c>
       <c r="G115">
         <v>0.005982590617535699</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.705489104886509</v>
+        <v>-2.707309618103144</v>
       </c>
       <c r="G116">
         <v>-0.0002137637115571245</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.709373776775924</v>
+        <v>-2.711260764790016</v>
       </c>
       <c r="G117">
         <v>-0.002367145649234237</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.713714770545324</v>
+        <v>-2.715411785198178</v>
       </c>
       <c r="G118">
         <v>-0.0003617525651302689</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.718522413264532</v>
+        <v>-2.719644005782688</v>
       </c>
       <c r="G119">
         <v>0.004805500080653058</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.722005064951715</v>
+        <v>-2.723876226367198</v>
       </c>
       <c r="G120">
         <v>0.005175122805473276</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.726355177893142</v>
+        <v>-2.727567101587085</v>
       </c>
       <c r="G121">
         <v>4.612983196805587e-05</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.730725687463071</v>
+        <v>-2.731139444139266</v>
       </c>
       <c r="G122">
         <v>0.0007043743405532599</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.735375754848422</v>
+        <v>-2.73564777272534</v>
       </c>
       <c r="G123">
         <v>0.005048699089549968</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.739544181088718</v>
+        <v>-2.739816198965636</v>
       </c>
       <c r="G124">
         <v>0.001744481245164131</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.743984625205932</v>
+        <v>-2.744015177183432</v>
       </c>
       <c r="G125">
         <v>0.00172665837528263</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.764316887954307</v>
+        <v>-2.764483304370784</v>
       </c>
       <c r="G131">
         <v>0.0001162270849455194</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.767110941459023</v>
+        <v>-2.767277357875501</v>
       </c>
       <c r="G132">
         <v>-0.004759648118866089</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.76990499496374</v>
+        <v>-2.770071411380219</v>
       </c>
       <c r="G133">
         <v>-0.002452900371455957</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.77277136620926</v>
+        <v>-2.773396638123753</v>
       </c>
       <c r="G134">
         <v>-0.001089943241466163</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.775565419713977</v>
+        <v>-2.77619069162847</v>
       </c>
       <c r="G135">
         <v>-0.00146830841394574</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.778598207375976</v>
+        <v>-2.779151161549665</v>
       </c>
       <c r="G136">
         <v>0.01062167479572107</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.781464578621496</v>
+        <v>-2.782309971876721</v>
       </c>
       <c r="G137">
         <v>0.001789833842420707</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.784258632126213</v>
+        <v>-2.785104025381438</v>
       </c>
       <c r="G138">
         <v>0.001829684463143799</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.78743922338814</v>
+        <v>-2.787898078886155</v>
       </c>
       <c r="G139">
         <v>0.003512662279625101</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.790305594633661</v>
+        <v>-2.791317404305363</v>
       </c>
       <c r="G140">
         <v>8.290483972439588e-06</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.793171965879181</v>
+        <v>-2.79447621463242</v>
       </c>
       <c r="G141">
         <v>-0.007378373975398311</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.796518973557586</v>
+        <v>-2.797635024959477</v>
       </c>
       <c r="G142">
         <v>-0.004852292581655204</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.798926489305091</v>
+        <v>-2.800429078464194</v>
       </c>
       <c r="G143">
         <v>0.0006549335837040537</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.801669049399695</v>
+        <v>-2.80322313196891</v>
       </c>
       <c r="G144">
         <v>-0.003906813342378745</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.804552585115253</v>
+        <v>-2.806089503214431</v>
       </c>
       <c r="G145">
         <v>-0.002386166010959867</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.807716011907142</v>
+        <v>-2.809049973135626</v>
       </c>
       <c r="G146">
         <v>-0.009594593711876653</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.809558025475752</v>
+        <v>-2.811844026640342</v>
       </c>
       <c r="G147">
         <v>-0.00349926766191655</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.81374580994455</v>
+        <v>-2.814804496561536</v>
       </c>
       <c r="G148">
         <v>-0.003510037343321226</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.816071582042612</v>
+        <v>-2.817071367569906</v>
       </c>
       <c r="G149">
         <v>-0.005293370728593372</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.818543676969522</v>
+        <v>-2.820157529274337</v>
       </c>
       <c r="G150">
         <v>-0.008302103554433504</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.822695060277457</v>
+        <v>-2.822917584720799</v>
       </c>
       <c r="G151">
         <v>0.0006960731648670837</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.825817954024575</v>
+        <v>-2.826876640641562</v>
       </c>
       <c r="G152">
         <v>-0.00840551894606012</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.827645208073841</v>
+        <v>-2.829070863027307</v>
       </c>
       <c r="G153">
         <v>-0.009191875268445449</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.830895712125879</v>
+        <v>-2.832725262743148</v>
       </c>
       <c r="G154">
         <v>0.002602631766375207</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.83456886395162</v>
+        <v>-2.835884073070205</v>
       </c>
       <c r="G155">
         <v>-0.008278579922909257</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.836626673998083</v>
+        <v>-2.839042883397262</v>
       </c>
       <c r="G156">
         <v>-0.008421281195537755</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.838791085743188</v>
+        <v>-2.840778250284992</v>
       </c>
       <c r="G157">
         <v>-0.01257059117941184</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.842204013621148</v>
+        <v>-2.844761691991485</v>
       </c>
       <c r="G158">
         <v>-0.001807146042531294</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.84461552195921</v>
+        <v>-2.847463032712139</v>
       </c>
       <c r="G159">
         <v>-0.003980352329741699</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.848052635722734</v>
+        <v>-2.849091752918989</v>
       </c>
       <c r="G160">
         <v>-0.00145989686649961</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.851283763790594</v>
+        <v>-2.851885806423705</v>
       </c>
       <c r="G161">
         <v>-0.008289336055756991</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.854394147421872</v>
+        <v>-2.856013197282629</v>
       </c>
       <c r="G162">
         <v>-1.363167237289353e-05</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.857424824973718</v>
+        <v>-2.859029775230688</v>
       </c>
       <c r="G163">
         <v>-0.003812579331457511</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.859234914552947</v>
+        <v>-2.861733722650284</v>
       </c>
       <c r="G164">
         <v>-0.003194423960429016</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.862011803587625</v>
+        <v>-2.864291114218509</v>
       </c>
       <c r="G165">
         <v>-0.01850246741156458</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.86606447175505</v>
+        <v>-2.867120753421343</v>
       </c>
       <c r="G166">
         <v>-0.009352070954978142</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.868715669006493</v>
+        <v>-2.870011639586165</v>
       </c>
       <c r="G167">
         <v>-0.00934995523257498</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.871398752357952</v>
+        <v>-2.872841278788999</v>
       </c>
       <c r="G168">
         <v>-0.009849506956697063</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.875272978573987</v>
+        <v>-2.875857856737058</v>
       </c>
       <c r="G169">
         <v>-0.002939137176119488</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.877244969508844</v>
+        <v>-2.878228309560056</v>
       </c>
       <c r="G170">
         <v>-0.007568768980136031</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.880826756643343</v>
+        <v>-2.881244887508115</v>
       </c>
       <c r="G171">
         <v>-0.002384849623551899</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.883504067743715</v>
+        <v>-2.883948834927712</v>
       </c>
       <c r="G172">
         <v>-0.01706437869325306</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.889283115530614</v>
+        <v>-2.88933586569877</v>
       </c>
       <c r="G174">
         <v>-0.009405491903602181</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.931749996095356</v>
+        <v>-2.932062626623817</v>
       </c>
       <c r="G189">
         <v>-0.01287215212093606</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.937470521463011</v>
+        <v>-2.937783151991472</v>
       </c>
       <c r="G191">
         <v>-0.0127342192464231</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.975719307358739</v>
+        <v>-2.975775203620866</v>
       </c>
       <c r="G206">
         <v>-0.00850673436119917</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.980240285219427</v>
+        <v>-2.980296181481555</v>
       </c>
       <c r="G208">
         <v>-0.006797070644871395</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.679153973682819</v>
+        <v>-2.683063369489368</v>
       </c>
       <c r="G221">
         <v>0.003646151957480193</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.729966641847403</v>
+        <v>-2.737218678254165</v>
       </c>
       <c r="G222">
         <v>0.0109416849728019</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.786968996441733</v>
+        <v>-2.792970091403272</v>
       </c>
       <c r="G223">
         <v>0.007801920836910448</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.84687776450889</v>
+        <v>-2.850424979021401</v>
       </c>
       <c r="G224">
         <v>0.005365520307222704</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.905814140612994</v>
+        <v>-2.906018162441467</v>
       </c>
       <c r="G225">
         <v>0.01125326183944519</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.949562670731371</v>
+        <v>-2.950434168552247</v>
       </c>
       <c r="G226">
         <v>-0.0005213693154924037</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.992225733971356</v>
+        <v>-2.995093830661404</v>
       </c>
       <c r="G227">
         <v>-0.001596301516275767</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.036084778987459</v>
+        <v>-3.036256450278462</v>
       </c>
       <c r="G228">
         <v>-0.006127778605336309</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.736004113560873</v>
+        <v>-2.742182693497768</v>
       </c>
       <c r="G232">
         <v>0.008845267292900694</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.789625076740675</v>
+        <v>-2.795895938412241</v>
       </c>
       <c r="G233">
         <v>0.01246621821618588</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.840240082814888</v>
+        <v>-2.850661654188921</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.897489298472639</v>
+        <v>-2.906214452325186</v>
       </c>
       <c r="G235">
         <v>0.01824003873088764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.95975613112046</v>
+        <v>-2.962676359499089</v>
       </c>
       <c r="G236">
         <v>0.008918117638461398</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.013470350753171</v>
+        <v>-3.0143765274411</v>
       </c>
       <c r="G237">
         <v>0.009307997465831441</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.057573745719917</v>
+        <v>-3.059652108819215</v>
       </c>
       <c r="G238">
         <v>0.006246331976993535</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.100371264294855</v>
+        <v>-3.102502019490856</v>
       </c>
       <c r="G239">
         <v>-0.002092284057421345</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.144280314489739</v>
+        <v>-3.144442516281918</v>
       </c>
       <c r="G240">
         <v>-0.004538390867852571</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.774959732823263</v>
+        <v>-2.782080270421295</v>
       </c>
       <c r="G243">
         <v>0.009724932722006585</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.822835594564102</v>
+        <v>-2.834253801840536</v>
       </c>
       <c r="G244">
         <v>0.0170907694331075</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.880104933735386</v>
+        <v>-2.890242492308952</v>
       </c>
       <c r="G245">
         <v>0.02125136671989947</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.937828066880318</v>
+        <v>-2.945368044603629</v>
       </c>
       <c r="G246">
         <v>0.0169703762064557</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.994485061139797</v>
+        <v>-3.000867333958298</v>
       </c>
       <c r="G247">
         <v>0.02106115023124211</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.057263171796178</v>
+        <v>-3.057526001480705</v>
       </c>
       <c r="G248">
         <v>0.01372258388832992</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.103951623366393</v>
+        <v>-3.104339278837108</v>
       </c>
       <c r="G249">
         <v>0.009531745833041283</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.146097263346873</v>
+        <v>-3.149225441667868</v>
       </c>
       <c r="G250">
         <v>0.002752826064638114</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.191092487113868</v>
+        <v>-3.191148212968268</v>
       </c>
       <c r="G251">
         <v>-0.000242630867899607</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.802641225898356</v>
+        <v>-2.811391134388493</v>
       </c>
       <c r="G254">
         <v>0.01166640188348955</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.851523655792064</v>
+        <v>-2.863848449405752</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.904584059595331</v>
+        <v>-2.919168438241114</v>
       </c>
       <c r="G256">
         <v>0.0231541060095275</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.963943488974351</v>
+        <v>-2.974424642837803</v>
       </c>
       <c r="G257">
         <v>0.02557219809183908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.021828372051932</v>
+        <v>-3.029342304190922</v>
       </c>
       <c r="G258">
         <v>0.02222499768522224</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.082211537406332</v>
+        <v>-3.084913192038463</v>
       </c>
       <c r="G259">
         <v>0.02203201975695213</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.135995863113283</v>
+        <v>-3.136828990539366</v>
       </c>
       <c r="G260">
         <v>0.01599688884951955</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.180715883130149</v>
+        <v>-3.183267557562563</v>
       </c>
       <c r="G261">
         <v>0.007758989894928181</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.224564685984624</v>
+        <v>-3.225178413861623</v>
       </c>
       <c r="G262">
         <v>0.001768275046563184</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.825177180601113</v>
+        <v>-2.833530275218171</v>
       </c>
       <c r="G265">
         <v>0.01148615160766875</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.873010278637516</v>
+        <v>-2.88567228672947</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.925285413913513</v>
+        <v>-2.940909331152361</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.983262648877886</v>
+        <v>-2.995785911057616</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.041773272777004</v>
+        <v>-3.049706701308433</v>
       </c>
       <c r="G269">
         <v>0.02881066053346482</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.101442937708478</v>
+        <v>-3.106049465001253</v>
       </c>
       <c r="G270">
         <v>0.02560513957344135</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.161629024015123</v>
+        <v>-3.161946870656626</v>
       </c>
       <c r="G271">
         <v>0.02058956644654975</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.207880458829058</v>
+        <v>-3.20827393831353</v>
       </c>
       <c r="G272">
         <v>0.01271214739564419</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.250030630343552</v>
+        <v>-3.251254797742608</v>
       </c>
       <c r="G273">
         <v>0.003780582108608543</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.842982421646218</v>
+        <v>-2.851786812869463</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.891199784164014</v>
+        <v>-2.902595343204964</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.944634260754462</v>
+        <v>-2.957156568247394</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.99795627678379</v>
+        <v>-3.011896606246924</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.057672056033245</v>
+        <v>-3.066288949999299</v>
       </c>
       <c r="G280">
         <v>0.03292083254999567</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.118519809527568</v>
+        <v>-3.122778255547417</v>
       </c>
       <c r="G281">
         <v>0.03182119337466993</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.178759272055515</v>
+        <v>-3.179526575152742</v>
       </c>
       <c r="G282">
         <v>0.02490491650980997</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227512796893265</v>
+        <v>-3.227852583039317</v>
       </c>
       <c r="G283">
         <v>0.01585954791411237</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.270585047644757</v>
+        <v>-3.271849302148057</v>
       </c>
       <c r="G284">
         <v>0.005328143855445389</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.856075575791285</v>
+        <v>-2.865852027367015</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.904456622496163</v>
+        <v>-2.917687994593443</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.956213670138419</v>
+        <v>-2.969633673627162</v>
       </c>
       <c r="G289">
         <v>0.03147606389907232</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.013470739317641</v>
+        <v>-3.024838551666909</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.072097894914336</v>
+        <v>-3.080605241364942</v>
       </c>
       <c r="G291">
         <v>0.0360308921717043</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.130848120735472</v>
+        <v>-3.13609664066775</v>
       </c>
       <c r="G292">
         <v>0.03473117811270088</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.190652658864317</v>
+        <v>-3.192313260340475</v>
       </c>
       <c r="G293">
         <v>0.02910009953809967</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.243093057131082</v>
+        <v>-3.24357492881405</v>
       </c>
       <c r="G294">
         <v>0.01892685188588905</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.287062078778866</v>
+        <v>-3.288362434039664</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgCu_data.xlsx
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.572996929428707</v>
+        <v>-2.573129558991929</v>
       </c>
       <c r="G81">
         <v>-0.002648831288536435</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.795895938412241</v>
+        <v>-2.795913558539225</v>
       </c>
       <c r="G233">
         <v>0.01246621821618588</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.850661654188921</v>
+        <v>-2.850708464801011</v>
       </c>
       <c r="G234">
         <v>0.02027283775500743</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.906214452325186</v>
+        <v>-2.906300960348096</v>
       </c>
       <c r="G235">
         <v>0.01824003873088764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.962676359499089</v>
+        <v>-2.962780184098598</v>
       </c>
       <c r="G236">
         <v>0.008918117638461398</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.059652108819215</v>
+        <v>-3.059692374351992</v>
       </c>
       <c r="G238">
         <v>0.006246331976993535</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.102502019490856</v>
+        <v>-3.102593099654492</v>
       </c>
       <c r="G239">
         <v>-0.002092284057421345</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.834253801840536</v>
+        <v>-2.834434290026947</v>
       </c>
       <c r="G244">
         <v>0.0170907694331075</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.890242492308952</v>
+        <v>-2.890253620256096</v>
       </c>
       <c r="G245">
         <v>0.02125136671989947</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.945368044603629</v>
+        <v>-2.94541900497841</v>
       </c>
       <c r="G246">
         <v>0.0169703762064557</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.000867333958298</v>
+        <v>-3.000963447033051</v>
       </c>
       <c r="G247">
         <v>0.02106115023124211</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.057526001480705</v>
+        <v>-3.057587160897849</v>
       </c>
       <c r="G248">
         <v>0.01372258388832992</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.104339278837108</v>
+        <v>-3.104409533576181</v>
       </c>
       <c r="G249">
         <v>0.009531745833041283</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.811391134388493</v>
+        <v>-2.811447265448978</v>
       </c>
       <c r="G254">
         <v>0.01166640188348955</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.863848449405752</v>
+        <v>-2.864240964917009</v>
       </c>
       <c r="G255">
         <v>0.01912646219045877</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.919168438241114</v>
+        <v>-2.919371294331061</v>
       </c>
       <c r="G256">
         <v>0.0231541060095275</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.974424642837803</v>
+        <v>-2.974531124177175</v>
       </c>
       <c r="G257">
         <v>0.02557219809183908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.029342304190922</v>
+        <v>-3.029550479337015</v>
       </c>
       <c r="G258">
         <v>0.02222499768522224</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.084913192038463</v>
+        <v>-3.085069258914291</v>
       </c>
       <c r="G259">
         <v>0.02203201975695213</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.136828990539366</v>
+        <v>-3.136950277395502</v>
       </c>
       <c r="G260">
         <v>0.01599688884951955</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.183267557562563</v>
+        <v>-3.183363479585819</v>
       </c>
       <c r="G261">
         <v>0.007758989894928181</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.225178413861623</v>
+        <v>-3.22519698116732</v>
       </c>
       <c r="G262">
         <v>0.001768275046563184</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.833530275218171</v>
+        <v>-2.833704302037772</v>
       </c>
       <c r="G265">
         <v>0.01148615160766875</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.88567228672947</v>
+        <v>-2.885817487885598</v>
       </c>
       <c r="G266">
         <v>0.02022744588301739</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.940909331152361</v>
+        <v>-2.941527267255972</v>
       </c>
       <c r="G267">
         <v>0.02693452697144982</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.995785911057616</v>
+        <v>-2.995991920710773</v>
       </c>
       <c r="G268">
         <v>0.03035734272024904</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.049706701308433</v>
+        <v>-3.049945691174806</v>
       </c>
       <c r="G269">
         <v>0.02881066053346482</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.106049465001253</v>
+        <v>-3.106586689362295</v>
       </c>
       <c r="G270">
         <v>0.02560513957344135</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.161946870656626</v>
+        <v>-3.162004742849261</v>
       </c>
       <c r="G271">
         <v>0.02058956644654975</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.20827393831353</v>
+        <v>-3.208285005976445</v>
       </c>
       <c r="G272">
         <v>0.01271214739564419</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.251254797742608</v>
+        <v>-3.251296595063937</v>
       </c>
       <c r="G273">
         <v>0.003780582108608543</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.851786812869463</v>
+        <v>-2.851950311499288</v>
       </c>
       <c r="G276">
         <v>0.01341922657808547</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.902595343204964</v>
+        <v>-2.903014420390152</v>
       </c>
       <c r="G277">
         <v>0.02279206769001973</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.957156568247394</v>
+        <v>-2.95787627352975</v>
       </c>
       <c r="G278">
         <v>0.02901798112312859</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.011896606246924</v>
+        <v>-3.012372712767714</v>
       </c>
       <c r="G279">
         <v>0.03377688453034211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.066288949999299</v>
+        <v>-3.067112276728745</v>
       </c>
       <c r="G280">
         <v>0.03292083254999567</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.122778255547417</v>
+        <v>-3.123081955192275</v>
       </c>
       <c r="G281">
         <v>0.03182119337466993</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.179526575152742</v>
+        <v>-3.179702021091983</v>
       </c>
       <c r="G282">
         <v>0.02490491650980997</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.227852583039317</v>
+        <v>-3.227883551757719</v>
       </c>
       <c r="G283">
         <v>0.01585954791411237</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.271849302148057</v>
+        <v>-3.271888658844125</v>
       </c>
       <c r="G284">
         <v>0.005328143855445389</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.865852027367015</v>
+        <v>-2.866132678962921</v>
       </c>
       <c r="G287">
         <v>0.01360595988758506</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.917687994593443</v>
+        <v>-2.918275064369451</v>
       </c>
       <c r="G288">
         <v>0.02403270631968368</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.969633673627162</v>
+        <v>-2.970562887299058</v>
       </c>
       <c r="G289">
         <v>0.03147606389907232</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.024838551666909</v>
+        <v>-3.025427543989138</v>
       </c>
       <c r="G290">
         <v>0.03493182467856393</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.080605241364942</v>
+        <v>-3.081332354652119</v>
       </c>
       <c r="G291">
         <v>0.0360308921717043</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.13609664066775</v>
+        <v>-3.136447036837735</v>
       </c>
       <c r="G292">
         <v>0.03473117811270088</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.192313260340475</v>
+        <v>-3.192621576967105</v>
       </c>
       <c r="G293">
         <v>0.02910009953809967</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.24357492881405</v>
+        <v>-3.243653970044734</v>
       </c>
       <c r="G294">
         <v>0.01892685188588905</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.288362434039664</v>
+        <v>-3.288440041598717</v>
       </c>
       <c r="G295">
         <v>0.007715390698390501</v>
